--- a/BRS_templates.xlsx
+++ b/BRS_templates.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\brsgis_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5092D895-9E06-4D51-96FA-F4BCFC5165F8}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC20F14-E937-4338-91A9-01639D3C98A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11910" activeTab="3" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -78,9 +78,6 @@
     <t xml:space="preserve">Date Received: </t>
   </si>
   <si>
-    <t xml:space="preserve">Name: </t>
-  </si>
-  <si>
     <t xml:space="preserve">Job Number: </t>
   </si>
   <si>
@@ -90,9 +87,6 @@
     <t xml:space="preserve">Mobile Phone: </t>
   </si>
   <si>
-    <t>919.260.4106</t>
-  </si>
-  <si>
     <t xml:space="preserve">Work Phone: </t>
   </si>
   <si>
@@ -100,9 +94,6 @@
   </si>
   <si>
     <t xml:space="preserve">Map &amp; Lot: </t>
-  </si>
-  <si>
-    <t>R07-58</t>
   </si>
   <si>
     <t xml:space="preserve">Town: </t>
@@ -117,16 +108,7 @@
     <t xml:space="preserve">Secondary E-mail: </t>
   </si>
   <si>
-    <t>tim.schmaltz@gmail.com</t>
-  </si>
-  <si>
-    <t>tim@companioncamp.net</t>
-  </si>
-  <si>
     <t xml:space="preserve">Low Tide Required: </t>
-  </si>
-  <si>
-    <t>No</t>
   </si>
   <si>
     <t xml:space="preserve">If YES, Hours Needed: </t>
@@ -195,28 +177,13 @@
     <t>Invoices:</t>
   </si>
   <si>
-    <t>Attorney</t>
-  </si>
-  <si>
     <t xml:space="preserve">Amount: </t>
   </si>
   <si>
     <t>Notes / Job Details:</t>
   </si>
   <si>
-    <t>919.545.2267</t>
-  </si>
-  <si>
-    <t>919.642.0150</t>
-  </si>
-  <si>
     <t xml:space="preserve">Date: </t>
-  </si>
-  <si>
-    <t>3496 Castle Rock Farm Rd. Pittsboro, NC 27312</t>
-  </si>
-  <si>
-    <t>Tim Schmaltz</t>
   </si>
   <si>
     <t>Rate</t>
@@ -332,6 +299,54 @@
   <si>
     <t xml:space="preserve">Rev Number: </t>
   </si>
+  <si>
+    <t>Related Work:</t>
+  </si>
+  <si>
+    <t>123 Holiday Inn Lane Wherever, ME 0241212</t>
+  </si>
+  <si>
+    <t>Client Name:</t>
+  </si>
+  <si>
+    <t>HOLIDAY INN, Inc.</t>
+  </si>
+  <si>
+    <t>154 Barter island Road</t>
+  </si>
+  <si>
+    <t>(123)456.7890</t>
+  </si>
+  <si>
+    <t>(123)456.7891</t>
+  </si>
+  <si>
+    <t>Map R04, Lot 112</t>
+  </si>
+  <si>
+    <t>(123)456.7892</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Client Role: </t>
+  </si>
+  <si>
+    <t>Seller</t>
+  </si>
+  <si>
+    <t>1@2.com</t>
+  </si>
+  <si>
+    <t>Whoever</t>
+  </si>
+  <si>
+    <t>2@2.com</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>cc:</t>
+  </si>
 </sst>
 </file>
 
@@ -340,7 +355,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -658,6 +673,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -667,7 +689,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="52">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -962,17 +984,6 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1085,32 +1096,12 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thick">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thick">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1216,25 +1207,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
+      <right/>
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="thick">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -1242,15 +1231,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color auto="1"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1261,7 +1248,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="206">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1300,27 +1287,8 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
@@ -1330,23 +1298,11 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1354,21 +1310,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1381,82 +1328,12 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="4"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1477,54 +1354,22 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="15" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1535,12 +1380,6 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1549,17 +1388,8 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="15" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1581,23 +1411,16 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1623,18 +1446,17 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="44" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="45" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1649,7 +1471,7 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1727,10 +1549,6 @@
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1752,22 +1570,14 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="15" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
@@ -1790,21 +1600,13 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1814,16 +1616,150 @@
       <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="15" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -23198,7 +23134,7 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:K43"/>
   <sheetViews>
     <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
@@ -23221,661 +23157,635 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="30">
+      <c r="B1" s="141">
         <v>43220</v>
       </c>
-      <c r="C1" s="201" t="s">
+      <c r="C1" s="138" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="201"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="29" t="s">
+      <c r="D1" s="138"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" s="121" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="36" customHeight="1">
+      <c r="A2" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="141">
+        <v>43311</v>
+      </c>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="I2" s="121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+    </row>
+    <row r="4" spans="1:11" ht="36" customHeight="1" thickTop="1">
+      <c r="A4" s="23"/>
+      <c r="B4" s="142"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="144"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="146" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="126"/>
+    </row>
+    <row r="5" spans="1:11" ht="36" customHeight="1">
+      <c r="A5" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="134" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="148"/>
+      <c r="D5" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="149"/>
+      <c r="F5" s="150"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="147"/>
+      <c r="I5" s="147"/>
+      <c r="J5" s="151"/>
+    </row>
+    <row r="6" spans="1:11" ht="36" customHeight="1">
+      <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="178" t="s">
+      <c r="B6" s="139" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="147"/>
+      <c r="D6" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="29"/>
+      <c r="J6"/>
+    </row>
+    <row r="7" spans="1:11" ht="36" customHeight="1">
+      <c r="A7" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="152"/>
+      <c r="D7" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="153"/>
+    </row>
+    <row r="8" spans="1:11" ht="36" customHeight="1">
+      <c r="A8" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="C8" s="152"/>
+      <c r="D8" s="26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="153"/>
+    </row>
+    <row r="9" spans="1:11" ht="36" customHeight="1">
+      <c r="A9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="152"/>
+      <c r="D9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="27"/>
+      <c r="F9" s="154" t="s">
+        <v>99</v>
+      </c>
+      <c r="G9" s="154"/>
+      <c r="H9" s="154"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="153"/>
+    </row>
+    <row r="10" spans="1:11" ht="36" customHeight="1">
+      <c r="A10" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="148"/>
+      <c r="D10" s="26" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="27"/>
+      <c r="F10" s="154" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" s="154"/>
+      <c r="H10" s="154"/>
+      <c r="I10" s="155"/>
+      <c r="J10" s="156"/>
+    </row>
+    <row r="11" spans="1:11" ht="36" customHeight="1">
+      <c r="A11" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11" s="152"/>
+      <c r="D11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" s="157"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="155"/>
+      <c r="J11" s="156"/>
+    </row>
+    <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1">
+      <c r="A12" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="158" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="159"/>
+      <c r="D12" s="160" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" s="161"/>
+      <c r="F12" s="154"/>
+      <c r="G12" s="154"/>
+      <c r="H12" s="154"/>
+      <c r="I12" s="155"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" thickTop="1">
+      <c r="A13" s="162"/>
+      <c r="B13" s="163"/>
+      <c r="C13" s="163"/>
+      <c r="D13" s="163"/>
+      <c r="E13" s="163"/>
+      <c r="F13" s="163"/>
+      <c r="G13" s="163"/>
+      <c r="H13" s="163"/>
+      <c r="I13" s="164"/>
+      <c r="J13" s="165"/>
+    </row>
+    <row r="14" spans="1:11" ht="46.5">
+      <c r="A14" s="162"/>
+      <c r="B14" s="166"/>
+      <c r="C14" s="167" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="163"/>
+      <c r="E14" s="163"/>
+      <c r="F14" s="163"/>
+      <c r="G14" s="163"/>
+      <c r="H14" s="163"/>
+      <c r="I14" s="164"/>
+      <c r="J14" s="165"/>
+    </row>
+    <row r="15" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A15" s="32"/>
+      <c r="B15" s="124" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="124" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="124" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="124"/>
+      <c r="F15" s="168"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="35"/>
+    </row>
+    <row r="16" spans="1:11" ht="90" customHeight="1">
+      <c r="A16" s="122" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="170"/>
+      <c r="F16" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="33"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="35"/>
+      <c r="K16" s="171"/>
+    </row>
+    <row r="17" spans="1:11" ht="90" customHeight="1" thickBot="1">
+      <c r="A17" s="122" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="172" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="168"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="35"/>
+      <c r="K17" s="173"/>
+    </row>
+    <row r="18" spans="1:11" ht="45" customHeight="1" thickTop="1">
+      <c r="A18" s="122" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="170"/>
+      <c r="F18" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="G18" s="39"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="35"/>
+    </row>
+    <row r="19" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A19" s="122" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="170"/>
+      <c r="F19" s="129" t="s">
+        <v>54</v>
+      </c>
+      <c r="G19" s="40"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="35"/>
+      <c r="K19" s="171"/>
+    </row>
+    <row r="20" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A20" s="174"/>
+      <c r="B20" s="175"/>
+      <c r="C20" s="175"/>
+      <c r="D20" s="175"/>
+      <c r="E20" s="175"/>
+      <c r="F20" s="175"/>
+      <c r="G20" s="175"/>
+      <c r="H20" s="175"/>
+      <c r="I20" s="176"/>
+    </row>
+    <row r="21" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A21" s="177"/>
+      <c r="B21" s="177"/>
+      <c r="C21" s="177"/>
+      <c r="D21" s="177"/>
+      <c r="E21" s="177"/>
+      <c r="F21" s="177"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="177"/>
+      <c r="I21" s="177"/>
+    </row>
+    <row r="22" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A22" s="22"/>
+      <c r="B22" s="124" t="s">
+        <v>53</v>
+      </c>
+      <c r="C22" s="124" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="137" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="36" customHeight="1">
-      <c r="A2" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="30">
-        <v>43311</v>
-      </c>
-      <c r="C2" s="201"/>
-      <c r="D2" s="201"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29" t="s">
-        <v>98</v>
-      </c>
-      <c r="I2" s="179">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="182"/>
-      <c r="B3" s="182"/>
-      <c r="C3" s="182"/>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="183"/>
-      <c r="G3" s="183"/>
-      <c r="H3" s="183"/>
-      <c r="I3" s="183"/>
-    </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1" thickTop="1">
-      <c r="A4" s="33"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="197"/>
-      <c r="G4" s="198"/>
-      <c r="H4" s="198"/>
-      <c r="I4" s="198"/>
-      <c r="J4" s="184"/>
-    </row>
-    <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="195" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="40"/>
-      <c r="D5" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="41"/>
-      <c r="F5" s="199"/>
-      <c r="G5" s="200"/>
-      <c r="H5" s="200"/>
-      <c r="I5" s="200"/>
-      <c r="J5" s="185"/>
-      <c r="K5" s="21"/>
-    </row>
-    <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" s="202" t="s">
-        <v>59</v>
-      </c>
-      <c r="C6" s="203"/>
-      <c r="D6" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="43"/>
-      <c r="F6" s="44" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="21"/>
-    </row>
-    <row r="7" spans="1:11" ht="36" customHeight="1">
-      <c r="A7" s="38" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="43"/>
-      <c r="F7" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="45"/>
-      <c r="H7" s="45"/>
-      <c r="I7" s="46"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="21"/>
-    </row>
-    <row r="8" spans="1:11" ht="36" customHeight="1">
-      <c r="A8" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="42" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44" t="s">
-        <v>57</v>
-      </c>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="46"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B9" s="47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="42" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="43"/>
-      <c r="F9" s="49" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="51"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="21"/>
-    </row>
-    <row r="10" spans="1:11" ht="36" customHeight="1">
-      <c r="A10" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="21"/>
-    </row>
-    <row r="11" spans="1:11" ht="36" customHeight="1">
-      <c r="A11" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="56"/>
-      <c r="J11" s="27"/>
-      <c r="K11" s="21"/>
-    </row>
-    <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A12" s="58"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="62"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="21"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="21"/>
-    </row>
-    <row r="14" spans="1:11" ht="46.5">
-      <c r="A14" s="65"/>
-      <c r="B14" s="68"/>
-      <c r="C14" s="69" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="66"/>
-      <c r="E14" s="66"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="21"/>
-    </row>
-    <row r="15" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C15" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="D15" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="E15" s="71"/>
-      <c r="F15" s="186"/>
-      <c r="G15" s="186"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="74"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-    </row>
-    <row r="16" spans="1:11" ht="90" customHeight="1">
-      <c r="A16" s="180" t="s">
+      <c r="E22" s="137"/>
+      <c r="F22" s="137"/>
+      <c r="G22" s="137"/>
+      <c r="H22" s="137"/>
+      <c r="I22" s="137"/>
+      <c r="J22" s="178"/>
+    </row>
+    <row r="23" spans="1:11" ht="45" customHeight="1">
+      <c r="A23" s="123" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="72" t="s">
-        <v>66</v>
-      </c>
-      <c r="G16" s="72"/>
-      <c r="H16" s="73"/>
-      <c r="I16" s="74"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="23"/>
-    </row>
-    <row r="17" spans="1:12" ht="90" customHeight="1" thickBot="1">
-      <c r="A17" s="180" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="179"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="180"/>
+    </row>
+    <row r="24" spans="1:11" ht="45" customHeight="1">
+      <c r="A24" s="123" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78" t="s">
-        <v>67</v>
-      </c>
-      <c r="G17" s="186"/>
-      <c r="H17" s="188"/>
-      <c r="I17" s="74"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="20"/>
-    </row>
-    <row r="18" spans="1:12" ht="45" customHeight="1" thickTop="1">
-      <c r="A18" s="180" t="s">
+      <c r="B24" s="42"/>
+      <c r="C24" s="37"/>
+      <c r="D24" s="179"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="180"/>
+    </row>
+    <row r="25" spans="1:11" ht="45" customHeight="1">
+      <c r="A25" s="123" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="80" t="s">
+      <c r="B25" s="42"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="179"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="180"/>
+    </row>
+    <row r="26" spans="1:11" ht="45" customHeight="1">
+      <c r="A26" s="123" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="42"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="179"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="180"/>
+    </row>
+    <row r="27" spans="1:11" ht="45" customHeight="1">
+      <c r="A27" s="123" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="81"/>
-      <c r="H18" s="189"/>
-      <c r="I18" s="74"/>
-      <c r="J18" s="21"/>
-    </row>
-    <row r="19" spans="1:12" ht="45" customHeight="1" thickBot="1">
-      <c r="A19" s="180" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="76"/>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="190" t="s">
-        <v>65</v>
-      </c>
-      <c r="G19" s="82"/>
-      <c r="H19" s="83"/>
-      <c r="I19" s="74"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="23"/>
-    </row>
-    <row r="20" spans="1:12" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="84"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="63"/>
-      <c r="F20" s="63"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="63"/>
-      <c r="I20" s="64"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-    </row>
-    <row r="21" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A21" s="85"/>
-      <c r="B21" s="85"/>
-      <c r="C21" s="85"/>
-      <c r="D21" s="85"/>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="85"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-    </row>
-    <row r="22" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A22" s="32"/>
-      <c r="B22" s="86" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="86" t="s">
-        <v>68</v>
-      </c>
-      <c r="D22" s="196" t="s">
+      <c r="B27" s="42"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="179"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="180"/>
+    </row>
+    <row r="28" spans="1:11" ht="45" customHeight="1">
+      <c r="A28" s="123" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="196"/>
-      <c r="F22" s="196"/>
-      <c r="G22" s="196"/>
-      <c r="H22" s="196"/>
-      <c r="I22" s="196"/>
-      <c r="J22" s="22"/>
-    </row>
-    <row r="23" spans="1:12" ht="45" customHeight="1">
-      <c r="A23" s="181" t="s">
+      <c r="B28" s="42"/>
+      <c r="C28" s="37"/>
+      <c r="D28" s="179"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="180"/>
+    </row>
+    <row r="29" spans="1:11" ht="45" customHeight="1">
+      <c r="A29" s="123" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="89"/>
-      <c r="J23" s="28"/>
-    </row>
-    <row r="24" spans="1:12" ht="45" customHeight="1">
-      <c r="A24" s="181" t="s">
+      <c r="B29" s="42"/>
+      <c r="C29" s="37"/>
+      <c r="D29" s="179"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="180"/>
+    </row>
+    <row r="30" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A30" s="21"/>
+      <c r="B30" s="21"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A31" s="22"/>
+      <c r="B31" s="21"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="181" t="s">
+        <v>46</v>
+      </c>
+      <c r="E31" s="181"/>
+      <c r="F31" s="181"/>
+      <c r="G31" s="181"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="21"/>
+    </row>
+    <row r="32" spans="1:11" ht="45" customHeight="1">
+      <c r="A32" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="89"/>
-      <c r="J24" s="28"/>
-    </row>
-    <row r="25" spans="1:12" ht="45" customHeight="1">
-      <c r="A25" s="181" t="s">
+      <c r="B32" s="44"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="182" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="183"/>
+      <c r="F32" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="G32" s="46"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="21"/>
+    </row>
+    <row r="33" spans="1:9" ht="45" customHeight="1">
+      <c r="A33" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="47"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" s="186"/>
+      <c r="F33" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="G33" s="49"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="21"/>
+    </row>
+    <row r="34" spans="1:9" ht="45" customHeight="1">
+      <c r="A34" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="B25" s="87"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-      <c r="I25" s="89"/>
-      <c r="J25" s="28"/>
-    </row>
-    <row r="26" spans="1:12" ht="45" customHeight="1">
-      <c r="A26" s="181" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-      <c r="I26" s="89"/>
-      <c r="J26" s="28"/>
-    </row>
-    <row r="27" spans="1:12" ht="45" customHeight="1">
-      <c r="A27" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="87"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-      <c r="I27" s="89"/>
-      <c r="J27" s="28"/>
-    </row>
-    <row r="28" spans="1:12" ht="45" customHeight="1">
-      <c r="A28" s="181" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="185" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="186"/>
+      <c r="F34" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="88"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="89"/>
-      <c r="J28" s="28"/>
-    </row>
-    <row r="29" spans="1:12" ht="45" customHeight="1">
-      <c r="A29" s="181" t="s">
+      <c r="G34" s="49"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="21"/>
+    </row>
+    <row r="35" spans="1:9" ht="45" customHeight="1" thickBot="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="52"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="20"/>
+    </row>
+    <row r="36" spans="1:9" ht="25.5" customHeight="1">
+      <c r="A36" s="20"/>
+      <c r="B36" s="187"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="56"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="21"/>
+    </row>
+    <row r="37" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A37" s="22"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="21"/>
+    </row>
+    <row r="38" spans="1:9" ht="26.25">
+      <c r="A38" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="B29" s="87"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="88"/>
-      <c r="E29" s="44"/>
-      <c r="F29" s="44"/>
-      <c r="G29" s="44"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="89"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="1:12" ht="25.5" customHeight="1">
-      <c r="A30" s="90"/>
-      <c r="B30" s="90"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="90"/>
-      <c r="E30" s="90"/>
-      <c r="F30" s="90"/>
-      <c r="G30" s="90"/>
-      <c r="H30" s="90"/>
-      <c r="I30" s="90"/>
-    </row>
-    <row r="31" spans="1:12" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A31" s="32"/>
-      <c r="B31" s="31"/>
-      <c r="C31" s="31"/>
-      <c r="D31" s="91" t="s">
-        <v>52</v>
-      </c>
-      <c r="E31" s="91"/>
-      <c r="F31" s="91"/>
-      <c r="G31" s="91"/>
-      <c r="H31" s="32"/>
-      <c r="I31" s="31"/>
-    </row>
-    <row r="32" spans="1:12" ht="45" customHeight="1">
-      <c r="A32" s="92" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="94" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="95"/>
-      <c r="F32" s="96" t="s">
-        <v>54</v>
-      </c>
-      <c r="G32" s="97"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="79"/>
-    </row>
-    <row r="33" spans="1:10" ht="45" customHeight="1">
-      <c r="A33" s="75" t="s">
-        <v>51</v>
-      </c>
-      <c r="B33" s="99"/>
-      <c r="C33" s="31"/>
-      <c r="D33" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="E33" s="101"/>
-      <c r="F33" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="G33" s="103"/>
-      <c r="H33" s="98"/>
-      <c r="I33" s="79"/>
-    </row>
-    <row r="34" spans="1:10" ht="45" customHeight="1">
-      <c r="A34" s="75" t="s">
-        <v>50</v>
-      </c>
-      <c r="B34" s="104"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="101"/>
-      <c r="F34" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="G34" s="103"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="79"/>
-    </row>
-    <row r="35" spans="1:10" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="105"/>
-      <c r="B35" s="106"/>
-      <c r="C35" s="31"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="109"/>
-      <c r="H35" s="98"/>
-      <c r="I35" s="110"/>
-    </row>
-    <row r="36" spans="1:10" ht="25.5" customHeight="1">
-      <c r="A36" s="110"/>
-      <c r="B36" s="111"/>
-      <c r="C36" s="31"/>
-      <c r="D36" s="112"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="112"/>
-      <c r="G36" s="112"/>
-      <c r="H36" s="79"/>
-      <c r="I36" s="31"/>
-    </row>
-    <row r="37" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A37" s="32"/>
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
-      <c r="E37" s="32"/>
-      <c r="F37" s="32"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
-      <c r="I37" s="31"/>
-    </row>
-    <row r="38" spans="1:10" ht="26.25">
-      <c r="A38" s="192" t="s">
-        <v>55</v>
-      </c>
-      <c r="B38" s="193"/>
-      <c r="C38" s="193"/>
-      <c r="D38" s="194"/>
-      <c r="E38" s="194"/>
-      <c r="F38" s="194"/>
-      <c r="G38" s="193"/>
-      <c r="H38" s="193"/>
-      <c r="I38" s="167"/>
-      <c r="J38" s="21"/>
-    </row>
-    <row r="39" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A39" s="191"/>
-      <c r="B39" s="204"/>
-      <c r="C39" s="204"/>
-      <c r="D39" s="204"/>
-      <c r="E39" s="204"/>
-      <c r="F39" s="204"/>
-      <c r="G39" s="204"/>
-      <c r="H39" s="204"/>
-      <c r="I39" s="168"/>
-      <c r="J39" s="21"/>
-    </row>
-    <row r="40" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A40" s="191"/>
-      <c r="B40" s="204"/>
-      <c r="C40" s="204"/>
-      <c r="D40" s="204"/>
-      <c r="E40" s="204"/>
-      <c r="F40" s="204"/>
-      <c r="G40" s="204"/>
-      <c r="H40" s="204"/>
-      <c r="I40" s="168"/>
-      <c r="J40" s="21"/>
-    </row>
-    <row r="41" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A41" s="191"/>
-      <c r="B41" s="204"/>
-      <c r="C41" s="204"/>
-      <c r="D41" s="204"/>
-      <c r="E41" s="204"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="204"/>
-      <c r="H41" s="204"/>
-      <c r="I41" s="168"/>
-      <c r="J41" s="21"/>
-    </row>
-    <row r="42" spans="1:10" ht="50.25" customHeight="1">
-      <c r="A42" s="191"/>
-      <c r="B42" s="204"/>
-      <c r="C42" s="204"/>
-      <c r="D42" s="204"/>
-      <c r="E42" s="204"/>
-      <c r="F42" s="204"/>
-      <c r="G42" s="204"/>
-      <c r="H42" s="204"/>
-      <c r="I42" s="168"/>
-      <c r="J42" s="21"/>
-    </row>
-    <row r="43" spans="1:10" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="169"/>
-      <c r="B43" s="170"/>
-      <c r="C43" s="170"/>
-      <c r="D43" s="170"/>
-      <c r="E43" s="170"/>
-      <c r="F43" s="170"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="170"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="21"/>
+      <c r="B38" s="132"/>
+      <c r="C38" s="132"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="132"/>
+      <c r="H38" s="132"/>
+      <c r="I38" s="110"/>
+    </row>
+    <row r="39" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A39" s="130"/>
+      <c r="B39" s="188"/>
+      <c r="C39" s="188"/>
+      <c r="D39" s="188"/>
+      <c r="E39" s="188"/>
+      <c r="F39" s="188"/>
+      <c r="G39" s="188"/>
+      <c r="H39" s="188"/>
+      <c r="I39" s="111"/>
+    </row>
+    <row r="40" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A40" s="130"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
+      <c r="I40" s="111"/>
+    </row>
+    <row r="41" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A41" s="130"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
+      <c r="I41" s="111"/>
+    </row>
+    <row r="42" spans="1:9" ht="50.25" customHeight="1">
+      <c r="A42" s="130"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
+      <c r="I42" s="111"/>
+    </row>
+    <row r="43" spans="1:9" ht="12" customHeight="1" thickBot="1">
+      <c r="A43" s="112"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -23902,72 +23812,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="173" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="172"/>
+    <col min="1" max="1" width="45.28515625" style="116" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="115"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A1" s="177" t="s">
+    <row r="1" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A1" s="120" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A2" s="175" t="s">
+    <row r="2" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A2" s="118" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="175" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="4" spans="1:2" s="175" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="177"/>
-    </row>
-    <row r="5" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="6" spans="1:2" s="175" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="7" spans="1:2" s="177" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A7" s="177" t="s">
+    <row r="3" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="4" spans="1:2" s="118" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="120"/>
+    </row>
+    <row r="5" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="6" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="7" spans="1:2" s="120" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A7" s="120" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="175"/>
-    </row>
-    <row r="8" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A8" s="175" t="s">
+      <c r="B7" s="118"/>
+    </row>
+    <row r="8" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A8" s="118" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="175" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="10" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A10" s="177"/>
-    </row>
-    <row r="11" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:2" s="175" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="13" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A13" s="177"/>
-    </row>
-    <row r="14" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="15" spans="1:2" s="175" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="16" spans="1:2" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A16" s="177" t="s">
+    <row r="9" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="10" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A10" s="120"/>
+    </row>
+    <row r="11" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="12" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="13" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A13" s="120"/>
+    </row>
+    <row r="14" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="15" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="16" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A16" s="120" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A17" s="175" t="s">
+    <row r="17" spans="1:3" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A17" s="118" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="175" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="19" spans="1:3" s="175" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A19" s="177"/>
-      <c r="C19" s="176"/>
-    </row>
-    <row r="20" spans="1:3" s="175" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="21" spans="1:3" s="175" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="18" spans="1:3" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="19" spans="1:3" s="118" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A19" s="120"/>
+      <c r="C19" s="119"/>
+    </row>
+    <row r="20" spans="1:3" s="118" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="21" spans="1:3" s="118" customFormat="1" ht="21.2" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A22" s="172" t="s">
+      <c r="A22" s="115" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A28" s="174"/>
+      <c r="A28" s="117"/>
     </row>
   </sheetData>
   <pageMargins left="0.33" right="0.26" top="0.7" bottom="0.75" header="0.26" footer="0.3"/>
@@ -23981,7 +23891,7 @@
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J75"/>
+  <dimension ref="A1:J118"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
@@ -23989,780 +23899,1281 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="113" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="113" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="113" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="113" customWidth="1"/>
-    <col min="8" max="8" width="12" style="113" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="113" customWidth="1"/>
-    <col min="10" max="12" width="16.7109375" style="113" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="113"/>
+    <col min="1" max="1" width="28.5703125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="57" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="57" customWidth="1"/>
+    <col min="8" max="8" width="12" style="57" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="57" customWidth="1"/>
+    <col min="10" max="12" width="16.7109375" style="57" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="140" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="69" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="69" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="58"/>
+      <c r="J1" s="59"/>
+    </row>
+    <row r="2" spans="1:10" ht="24.95" customHeight="1">
+      <c r="A2" s="140"/>
+      <c r="B2" s="140"/>
+      <c r="C2" s="140"/>
+      <c r="D2" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="61"/>
+    </row>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="62" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>68</v>
+      </c>
+      <c r="C3" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="78" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21.75" thickBot="1">
+      <c r="D4" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="64"/>
+    </row>
+    <row r="5" spans="1:10" ht="2.25" customHeight="1" thickTop="1">
+      <c r="A5" s="72"/>
+      <c r="B5" s="73"/>
+      <c r="C5" s="73"/>
+      <c r="D5" s="73"/>
+      <c r="E5" s="73"/>
+      <c r="F5" s="73"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="74"/>
+    </row>
+    <row r="6" spans="1:10" ht="23.25">
+      <c r="A6" s="75" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="66"/>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="76"/>
+    </row>
+    <row r="7" spans="1:10" ht="23.25">
+      <c r="A7" s="75"/>
+      <c r="B7" s="66"/>
+      <c r="C7" s="66"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66"/>
+      <c r="H7" s="76"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A8" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B8" s="66"/>
+      <c r="C8" s="66"/>
+      <c r="D8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="66"/>
+      <c r="G8" s="66"/>
+      <c r="H8" s="76"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A9" s="135"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+    </row>
+    <row r="10" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A10" s="88" t="s">
         <v>74</v>
       </c>
-      <c r="B1" s="205"/>
-      <c r="C1" s="205"/>
-      <c r="D1" s="126" t="s">
-        <v>69</v>
-      </c>
-      <c r="E1" s="126" t="s">
-        <v>70</v>
-      </c>
-      <c r="F1" s="126" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="114"/>
-      <c r="J1" s="115"/>
-    </row>
-    <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="205"/>
-      <c r="B2" s="205"/>
-      <c r="C2" s="205"/>
-      <c r="D2" s="116" t="s">
-        <v>75</v>
-      </c>
-      <c r="E2" s="116" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="116" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="117"/>
-    </row>
-    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="118" t="s">
-        <v>78</v>
-      </c>
-      <c r="B3" s="118" t="s">
-        <v>79</v>
-      </c>
-      <c r="C3" s="118" t="s">
-        <v>80</v>
-      </c>
-      <c r="D3" s="113" t="s">
-        <v>81</v>
-      </c>
-      <c r="E3" s="113" t="s">
-        <v>82</v>
-      </c>
-      <c r="F3" s="135" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21.75" thickBot="1">
-      <c r="D4" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="120"/>
-    </row>
-    <row r="5" spans="1:10" ht="2.25" customHeight="1" thickTop="1">
-      <c r="A5" s="129"/>
-      <c r="B5" s="130"/>
-      <c r="C5" s="130"/>
-      <c r="D5" s="130"/>
-      <c r="E5" s="130"/>
-      <c r="F5" s="130"/>
-      <c r="G5" s="130"/>
-      <c r="H5" s="131"/>
-    </row>
-    <row r="6" spans="1:10" ht="23.25">
-      <c r="A6" s="132" t="s">
-        <v>84</v>
-      </c>
-      <c r="B6" s="122"/>
-      <c r="C6" s="122"/>
-      <c r="D6" s="122"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
-      <c r="G6" s="122"/>
-      <c r="H6" s="133"/>
-    </row>
-    <row r="7" spans="1:10" ht="23.25">
-      <c r="A7" s="132"/>
-      <c r="B7" s="122"/>
-      <c r="C7" s="122"/>
-      <c r="D7" s="122"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="122"/>
-      <c r="H7" s="133"/>
-    </row>
-    <row r="8" spans="1:10" ht="24" thickBot="1">
-      <c r="A8" s="132"/>
-      <c r="B8" s="122"/>
-      <c r="C8" s="122"/>
-      <c r="D8" s="122"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122"/>
-      <c r="H8" s="133"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A9" s="130"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="146"/>
-      <c r="D9" s="146"/>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A10" s="145" t="s">
-        <v>85</v>
-      </c>
-      <c r="B10" s="143"/>
-      <c r="C10" s="143"/>
-      <c r="D10" s="143"/>
-      <c r="E10" s="143"/>
-      <c r="F10" s="143"/>
-      <c r="G10" s="143"/>
-      <c r="H10" s="143"/>
+      <c r="B10" s="86"/>
+      <c r="C10" s="86"/>
+      <c r="D10" s="86"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
     </row>
     <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B11" s="137"/>
-      <c r="C11" s="137"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="137"/>
-      <c r="F11" s="137"/>
-      <c r="G11" s="137"/>
-      <c r="H11" s="138"/>
+      <c r="A11" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="80"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="80"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="80"/>
+      <c r="G11" s="80"/>
+      <c r="H11" s="81"/>
     </row>
     <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="121"/>
-      <c r="B12" s="139"/>
-      <c r="C12" s="139"/>
-      <c r="D12" s="139"/>
-      <c r="E12" s="139"/>
-      <c r="F12" s="139"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="123"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="82"/>
+      <c r="D12" s="82"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="66"/>
+      <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="124"/>
-      <c r="B13" s="140"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="123"/>
+      <c r="A13" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="83"/>
+      <c r="C13" s="83"/>
+      <c r="D13" s="83"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="67"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="141"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="143"/>
-      <c r="H14" s="144"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="85"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="87"/>
     </row>
     <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="137"/>
-      <c r="C15" s="137"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="137"/>
-      <c r="F15" s="137"/>
-      <c r="G15" s="137"/>
-      <c r="H15" s="138"/>
+      <c r="A15" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="80"/>
+      <c r="G15" s="80"/>
+      <c r="H15" s="81"/>
     </row>
     <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="121"/>
-      <c r="B16" s="127"/>
-      <c r="C16" s="127"/>
-      <c r="D16" s="127"/>
-      <c r="E16" s="127"/>
-      <c r="F16" s="127"/>
-      <c r="H16" s="123"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="70"/>
+      <c r="D16" s="70"/>
+      <c r="E16" s="70"/>
+      <c r="F16" s="70"/>
+      <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="124"/>
-      <c r="B17" s="128"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="128"/>
-      <c r="E17" s="128"/>
-      <c r="H17" s="123"/>
+      <c r="A17" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="71"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="71"/>
+      <c r="E17" s="71"/>
+      <c r="H17" s="67"/>
     </row>
     <row r="18" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A18" s="141"/>
-      <c r="B18" s="142"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="143"/>
-      <c r="G18" s="143"/>
-      <c r="H18" s="144"/>
+      <c r="A18" s="84"/>
+      <c r="B18" s="85"/>
+      <c r="C18" s="85"/>
+      <c r="D18" s="85"/>
+      <c r="E18" s="85"/>
+      <c r="F18" s="86"/>
+      <c r="G18" s="86"/>
+      <c r="H18" s="87"/>
     </row>
     <row r="19" spans="1:8" ht="18.75">
-      <c r="A19" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B19" s="137"/>
-      <c r="C19" s="137"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="137"/>
-      <c r="F19" s="137"/>
-      <c r="G19" s="137"/>
-      <c r="H19" s="138"/>
+      <c r="A19" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="80"/>
+      <c r="C19" s="80"/>
+      <c r="D19" s="80"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="80"/>
+      <c r="G19" s="80"/>
+      <c r="H19" s="81"/>
     </row>
     <row r="20" spans="1:8" ht="18.75">
-      <c r="A20" s="121"/>
-      <c r="B20" s="127"/>
-      <c r="C20" s="127"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="127"/>
-      <c r="F20" s="127"/>
-      <c r="H20" s="123"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="70"/>
+      <c r="D20" s="70"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="124"/>
-      <c r="B21" s="128"/>
-      <c r="C21" s="128"/>
-      <c r="D21" s="128"/>
-      <c r="E21" s="128"/>
-      <c r="H21" s="123"/>
+      <c r="A21" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B21" s="71"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="71"/>
+      <c r="E21" s="71"/>
+      <c r="H21" s="67"/>
     </row>
     <row r="22" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A22" s="141"/>
-      <c r="B22" s="142"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="144"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="86"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="87"/>
     </row>
     <row r="23" spans="1:8" ht="18.75">
-      <c r="A23" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B23" s="137"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="137"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="137"/>
-      <c r="H23" s="138"/>
+      <c r="A23" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B23" s="80"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="81"/>
     </row>
     <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="121"/>
-      <c r="B24" s="127"/>
-      <c r="C24" s="127"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="127"/>
-      <c r="F24" s="127"/>
-      <c r="H24" s="123"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
+      <c r="D24" s="70"/>
+      <c r="E24" s="70"/>
+      <c r="F24" s="70"/>
+      <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="124"/>
-      <c r="B25" s="128"/>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
-      <c r="E25" s="128"/>
-      <c r="H25" s="123"/>
+      <c r="A25" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="71"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="71"/>
+      <c r="E25" s="71"/>
+      <c r="H25" s="67"/>
     </row>
     <row r="26" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A26" s="141"/>
-      <c r="B26" s="142"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="143"/>
-      <c r="G26" s="143"/>
-      <c r="H26" s="144"/>
-    </row>
-    <row r="27" spans="1:8" s="125" customFormat="1" ht="18.75">
-      <c r="A27" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="137"/>
-      <c r="C27" s="137"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="137"/>
-      <c r="F27" s="137"/>
-      <c r="G27" s="137"/>
-      <c r="H27" s="138"/>
+      <c r="A26" s="84"/>
+      <c r="B26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="85"/>
+      <c r="E26" s="85"/>
+      <c r="F26" s="86"/>
+      <c r="G26" s="86"/>
+      <c r="H26" s="87"/>
+    </row>
+    <row r="27" spans="1:8" s="68" customFormat="1" ht="18.75">
+      <c r="A27" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="80"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="80"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="80"/>
+      <c r="G27" s="80"/>
+      <c r="H27" s="81"/>
     </row>
     <row r="28" spans="1:8" ht="18.75">
-      <c r="A28" s="121"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="127"/>
-      <c r="F28" s="127"/>
-      <c r="H28" s="123"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="70"/>
+      <c r="D28" s="70"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="124"/>
-      <c r="B29" s="128"/>
-      <c r="C29" s="128"/>
-      <c r="D29" s="128"/>
-      <c r="E29" s="128"/>
-      <c r="H29" s="123"/>
+      <c r="A29" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B29" s="71"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="71"/>
+      <c r="H29" s="67"/>
     </row>
     <row r="30" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A30" s="141"/>
-      <c r="B30" s="142"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="143"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="144"/>
+      <c r="A30" s="84"/>
+      <c r="B30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="85"/>
+      <c r="E30" s="85"/>
+      <c r="F30" s="86"/>
+      <c r="G30" s="86"/>
+      <c r="H30" s="87"/>
     </row>
     <row r="31" spans="1:8" ht="18.75">
-      <c r="A31" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" s="137"/>
-      <c r="C31" s="137"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="137"/>
-      <c r="F31" s="137"/>
-      <c r="G31" s="137"/>
-      <c r="H31" s="138"/>
+      <c r="A31" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B31" s="80"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="81"/>
     </row>
     <row r="32" spans="1:8" ht="18.75">
-      <c r="A32" s="121"/>
-      <c r="B32" s="127"/>
-      <c r="C32" s="127"/>
-      <c r="D32" s="127"/>
-      <c r="E32" s="127"/>
-      <c r="F32" s="127"/>
-      <c r="H32" s="123"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="70"/>
+      <c r="D32" s="70"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="124"/>
-      <c r="B33" s="128"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="H33" s="123"/>
+      <c r="A33" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="71"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="71"/>
+      <c r="H33" s="67"/>
     </row>
     <row r="34" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A34" s="141"/>
-      <c r="B34" s="142"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="143"/>
-      <c r="G34" s="143"/>
-      <c r="H34" s="144"/>
+      <c r="A34" s="84"/>
+      <c r="B34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="85"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="86"/>
+      <c r="G34" s="86"/>
+      <c r="H34" s="87"/>
     </row>
     <row r="35" spans="1:8" ht="18.75">
-      <c r="A35" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="137"/>
-      <c r="C35" s="137"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="137"/>
-      <c r="F35" s="137"/>
-      <c r="G35" s="137"/>
-      <c r="H35" s="138"/>
+      <c r="A35" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" s="80"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
+      <c r="E35" s="80"/>
+      <c r="F35" s="80"/>
+      <c r="G35" s="80"/>
+      <c r="H35" s="81"/>
     </row>
     <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="121"/>
-      <c r="B36" s="127"/>
-      <c r="C36" s="127"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="127"/>
-      <c r="F36" s="127"/>
-      <c r="H36" s="123"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="70"/>
+      <c r="D36" s="70"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="124"/>
-      <c r="B37" s="128"/>
-      <c r="C37" s="128"/>
-      <c r="D37" s="128"/>
-      <c r="E37" s="128"/>
-      <c r="H37" s="123"/>
+      <c r="A37" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="H37" s="67"/>
     </row>
     <row r="38" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A38" s="141"/>
-      <c r="B38" s="142"/>
-      <c r="C38" s="142"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="142"/>
-      <c r="F38" s="143"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="144"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="85"/>
+      <c r="D38" s="85"/>
+      <c r="E38" s="85"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="86"/>
+      <c r="H38" s="87"/>
     </row>
     <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="137"/>
-      <c r="C39" s="137"/>
-      <c r="D39" s="137"/>
-      <c r="E39" s="137"/>
-      <c r="F39" s="137"/>
-      <c r="G39" s="137"/>
-      <c r="H39" s="138"/>
+      <c r="A39" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B39" s="80"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
+      <c r="E39" s="80"/>
+      <c r="F39" s="80"/>
+      <c r="G39" s="80"/>
+      <c r="H39" s="81"/>
     </row>
     <row r="40" spans="1:8" ht="18.75">
-      <c r="A40" s="121"/>
-      <c r="B40" s="127"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="127"/>
-      <c r="E40" s="127"/>
-      <c r="F40" s="127"/>
-      <c r="H40" s="123"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="70"/>
+      <c r="C40" s="70"/>
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="H40" s="67"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="124"/>
-      <c r="B41" s="128"/>
-      <c r="C41" s="128"/>
-      <c r="D41" s="128"/>
-      <c r="E41" s="128"/>
-      <c r="H41" s="123"/>
+      <c r="A41" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B41" s="71"/>
+      <c r="C41" s="71"/>
+      <c r="D41" s="71"/>
+      <c r="E41" s="71"/>
+      <c r="H41" s="67"/>
     </row>
     <row r="42" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A42" s="141"/>
-      <c r="B42" s="142"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="143"/>
-      <c r="G42" s="143"/>
-      <c r="H42" s="144"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="85"/>
+      <c r="C42" s="85"/>
+      <c r="D42" s="85"/>
+      <c r="E42" s="85"/>
+      <c r="F42" s="86"/>
+      <c r="G42" s="86"/>
+      <c r="H42" s="87"/>
     </row>
     <row r="43" spans="1:8" ht="18.75">
-      <c r="A43" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B43" s="137"/>
-      <c r="C43" s="137"/>
-      <c r="D43" s="137"/>
-      <c r="E43" s="137"/>
-      <c r="F43" s="137"/>
-      <c r="G43" s="137"/>
-      <c r="H43" s="138"/>
+      <c r="A43" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" s="80"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
+      <c r="E43" s="80"/>
+      <c r="F43" s="80"/>
+      <c r="G43" s="80"/>
+      <c r="H43" s="81"/>
     </row>
     <row r="44" spans="1:8" ht="18.75">
-      <c r="A44" s="121"/>
-      <c r="B44" s="127"/>
-      <c r="C44" s="127"/>
-      <c r="D44" s="127"/>
-      <c r="E44" s="127"/>
-      <c r="F44" s="127"/>
-      <c r="H44" s="123"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="70"/>
+      <c r="C44" s="70"/>
+      <c r="D44" s="70"/>
+      <c r="E44" s="70"/>
+      <c r="F44" s="70"/>
+      <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="124"/>
-      <c r="B45" s="128"/>
-      <c r="C45" s="128"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="H45" s="123"/>
+      <c r="A45" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" s="71"/>
+      <c r="C45" s="71"/>
+      <c r="D45" s="71"/>
+      <c r="E45" s="71"/>
+      <c r="H45" s="67"/>
     </row>
     <row r="46" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A46" s="141"/>
-      <c r="B46" s="142"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="143"/>
-      <c r="G46" s="143"/>
-      <c r="H46" s="144"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="85"/>
+      <c r="C46" s="85"/>
+      <c r="D46" s="85"/>
+      <c r="E46" s="85"/>
+      <c r="F46" s="86"/>
+      <c r="G46" s="86"/>
+      <c r="H46" s="87"/>
     </row>
     <row r="47" spans="1:8" ht="18.75">
-      <c r="A47" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B47" s="137"/>
-      <c r="C47" s="137"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="138"/>
+      <c r="A47" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="80"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
+      <c r="E47" s="80"/>
+      <c r="F47" s="80"/>
+      <c r="G47" s="80"/>
+      <c r="H47" s="81"/>
     </row>
     <row r="48" spans="1:8" ht="18.75">
-      <c r="A48" s="121"/>
-      <c r="B48" s="127"/>
-      <c r="C48" s="127"/>
-      <c r="D48" s="127"/>
-      <c r="E48" s="127"/>
-      <c r="F48" s="127"/>
-      <c r="H48" s="123"/>
+      <c r="A48" s="65"/>
+      <c r="B48" s="70"/>
+      <c r="C48" s="70"/>
+      <c r="D48" s="70"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="124"/>
-      <c r="B49" s="128"/>
-      <c r="C49" s="128"/>
-      <c r="D49" s="128"/>
-      <c r="E49" s="128"/>
-      <c r="H49" s="123"/>
+      <c r="A49" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B49" s="71"/>
+      <c r="C49" s="71"/>
+      <c r="D49" s="71"/>
+      <c r="E49" s="71"/>
+      <c r="H49" s="67"/>
     </row>
     <row r="50" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A50" s="141"/>
-      <c r="B50" s="142"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="143"/>
-      <c r="G50" s="143"/>
-      <c r="H50" s="144"/>
+      <c r="A50" s="84"/>
+      <c r="B50" s="85"/>
+      <c r="C50" s="85"/>
+      <c r="D50" s="85"/>
+      <c r="E50" s="85"/>
+      <c r="F50" s="86"/>
+      <c r="G50" s="86"/>
+      <c r="H50" s="87"/>
     </row>
     <row r="51" spans="1:8" ht="18.75">
-      <c r="A51" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B51" s="137"/>
-      <c r="C51" s="137"/>
-      <c r="D51" s="137"/>
-      <c r="E51" s="137"/>
-      <c r="F51" s="137"/>
-      <c r="G51" s="137"/>
-      <c r="H51" s="138"/>
+      <c r="A51" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
+      <c r="G51" s="80"/>
+      <c r="H51" s="81"/>
     </row>
     <row r="52" spans="1:8" ht="18.75">
-      <c r="A52" s="121"/>
-      <c r="B52" s="127"/>
-      <c r="C52" s="127"/>
-      <c r="D52" s="127"/>
-      <c r="E52" s="127"/>
-      <c r="F52" s="127"/>
-      <c r="H52" s="123"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="70"/>
+      <c r="C52" s="70"/>
+      <c r="D52" s="70"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="H52" s="67"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="124"/>
-      <c r="B53" s="128"/>
-      <c r="C53" s="128"/>
-      <c r="D53" s="128"/>
-      <c r="E53" s="128"/>
-      <c r="H53" s="123"/>
+      <c r="A53" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B53" s="71"/>
+      <c r="C53" s="71"/>
+      <c r="D53" s="71"/>
+      <c r="E53" s="71"/>
+      <c r="H53" s="67"/>
     </row>
     <row r="54" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A54" s="141"/>
-      <c r="B54" s="142"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="143"/>
-      <c r="G54" s="143"/>
-      <c r="H54" s="144"/>
+      <c r="A54" s="84"/>
+      <c r="B54" s="85"/>
+      <c r="C54" s="85"/>
+      <c r="D54" s="85"/>
+      <c r="E54" s="85"/>
+      <c r="F54" s="86"/>
+      <c r="G54" s="86"/>
+      <c r="H54" s="87"/>
     </row>
     <row r="55" spans="1:8" ht="18.75">
-      <c r="A55" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B55" s="137"/>
-      <c r="C55" s="137"/>
-      <c r="D55" s="137"/>
-      <c r="E55" s="137"/>
-      <c r="F55" s="137"/>
-      <c r="G55" s="137"/>
-      <c r="H55" s="138"/>
+      <c r="A55" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
+      <c r="G55" s="80"/>
+      <c r="H55" s="81"/>
     </row>
     <row r="56" spans="1:8" ht="18.75">
-      <c r="A56" s="121"/>
-      <c r="B56" s="127"/>
-      <c r="C56" s="127"/>
-      <c r="D56" s="127"/>
-      <c r="E56" s="127"/>
-      <c r="F56" s="127"/>
-      <c r="H56" s="123"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="70"/>
+      <c r="C56" s="70"/>
+      <c r="D56" s="70"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="H56" s="67"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="124"/>
-      <c r="B57" s="128"/>
-      <c r="C57" s="128"/>
-      <c r="D57" s="128"/>
-      <c r="E57" s="128"/>
-      <c r="H57" s="123"/>
+      <c r="A57" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B57" s="71"/>
+      <c r="C57" s="71"/>
+      <c r="D57" s="71"/>
+      <c r="E57" s="71"/>
+      <c r="H57" s="67"/>
     </row>
     <row r="58" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A58" s="141"/>
-      <c r="B58" s="142"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="143"/>
-      <c r="G58" s="143"/>
-      <c r="H58" s="144"/>
+      <c r="A58" s="84"/>
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="85"/>
+      <c r="E58" s="85"/>
+      <c r="F58" s="86"/>
+      <c r="G58" s="86"/>
+      <c r="H58" s="87"/>
     </row>
     <row r="59" spans="1:8" ht="18.75">
-      <c r="A59" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B59" s="137"/>
-      <c r="C59" s="137"/>
-      <c r="D59" s="137"/>
-      <c r="E59" s="137"/>
-      <c r="F59" s="137"/>
-      <c r="G59" s="137"/>
-      <c r="H59" s="138"/>
+      <c r="A59" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="80"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="80"/>
+      <c r="E59" s="80"/>
+      <c r="F59" s="80"/>
+      <c r="G59" s="80"/>
+      <c r="H59" s="81"/>
     </row>
     <row r="60" spans="1:8" ht="18.75">
-      <c r="A60" s="121"/>
-      <c r="B60" s="127"/>
-      <c r="C60" s="127"/>
-      <c r="D60" s="127"/>
-      <c r="E60" s="127"/>
-      <c r="F60" s="127"/>
-      <c r="H60" s="123"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="70"/>
+      <c r="C60" s="70"/>
+      <c r="D60" s="70"/>
+      <c r="E60" s="70"/>
+      <c r="F60" s="70"/>
+      <c r="H60" s="67"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="124"/>
-      <c r="B61" s="128"/>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="H61" s="123"/>
+      <c r="A61" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B61" s="71"/>
+      <c r="C61" s="71"/>
+      <c r="D61" s="71"/>
+      <c r="E61" s="71"/>
+      <c r="H61" s="67"/>
     </row>
     <row r="62" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A62" s="141"/>
-      <c r="B62" s="142"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="143"/>
-      <c r="G62" s="143"/>
-      <c r="H62" s="144"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="85"/>
+      <c r="C62" s="85"/>
+      <c r="D62" s="85"/>
+      <c r="E62" s="85"/>
+      <c r="F62" s="86"/>
+      <c r="G62" s="86"/>
+      <c r="H62" s="87"/>
     </row>
     <row r="63" spans="1:8" ht="18.75">
-      <c r="A63" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B63" s="137"/>
-      <c r="C63" s="137"/>
-      <c r="D63" s="137"/>
-      <c r="E63" s="137"/>
-      <c r="F63" s="137"/>
-      <c r="G63" s="137"/>
-      <c r="H63" s="138"/>
+      <c r="A63" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B63" s="80"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="80"/>
+      <c r="E63" s="80"/>
+      <c r="F63" s="80"/>
+      <c r="G63" s="80"/>
+      <c r="H63" s="81"/>
     </row>
     <row r="64" spans="1:8" ht="18.75">
-      <c r="A64" s="121"/>
-      <c r="B64" s="127"/>
-      <c r="C64" s="127"/>
-      <c r="D64" s="127"/>
-      <c r="E64" s="127"/>
-      <c r="F64" s="127"/>
-      <c r="H64" s="123"/>
+      <c r="A64" s="65"/>
+      <c r="B64" s="70"/>
+      <c r="C64" s="70"/>
+      <c r="D64" s="70"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="H64" s="67"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="124"/>
-      <c r="B65" s="128"/>
-      <c r="C65" s="128"/>
-      <c r="D65" s="128"/>
-      <c r="E65" s="128"/>
-      <c r="H65" s="123"/>
+      <c r="A65" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B65" s="71"/>
+      <c r="C65" s="71"/>
+      <c r="D65" s="71"/>
+      <c r="E65" s="71"/>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A66" s="141"/>
-      <c r="B66" s="142"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="143"/>
-      <c r="G66" s="143"/>
-      <c r="H66" s="144"/>
+      <c r="A66" s="84"/>
+      <c r="B66" s="85"/>
+      <c r="C66" s="85"/>
+      <c r="D66" s="85"/>
+      <c r="E66" s="85"/>
+      <c r="F66" s="86"/>
+      <c r="G66" s="86"/>
+      <c r="H66" s="87"/>
     </row>
     <row r="67" spans="1:8" ht="18.75">
-      <c r="A67" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="137"/>
-      <c r="C67" s="137"/>
-      <c r="D67" s="137"/>
-      <c r="E67" s="137"/>
-      <c r="F67" s="137"/>
-      <c r="G67" s="137"/>
-      <c r="H67" s="138"/>
+      <c r="A67" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="80"/>
+      <c r="F67" s="80"/>
+      <c r="G67" s="80"/>
+      <c r="H67" s="81"/>
     </row>
     <row r="68" spans="1:8" ht="18.75">
-      <c r="A68" s="121"/>
-      <c r="B68" s="127"/>
-      <c r="C68" s="127"/>
-      <c r="D68" s="127"/>
-      <c r="E68" s="127"/>
-      <c r="F68" s="127"/>
-      <c r="H68" s="123"/>
+      <c r="A68" s="65"/>
+      <c r="B68" s="70"/>
+      <c r="C68" s="70"/>
+      <c r="D68" s="70"/>
+      <c r="E68" s="70"/>
+      <c r="F68" s="70"/>
+      <c r="H68" s="67"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="124"/>
-      <c r="B69" s="128"/>
-      <c r="C69" s="128"/>
-      <c r="D69" s="128"/>
-      <c r="E69" s="128"/>
-      <c r="H69" s="123"/>
+      <c r="A69" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B69" s="71"/>
+      <c r="C69" s="71"/>
+      <c r="D69" s="71"/>
+      <c r="E69" s="71"/>
+      <c r="H69" s="67"/>
     </row>
     <row r="70" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A70" s="141"/>
-      <c r="B70" s="142"/>
-      <c r="C70" s="142"/>
-      <c r="D70" s="142"/>
-      <c r="E70" s="142"/>
-      <c r="F70" s="143"/>
-      <c r="G70" s="143"/>
-      <c r="H70" s="144"/>
+      <c r="A70" s="84"/>
+      <c r="B70" s="85"/>
+      <c r="C70" s="85"/>
+      <c r="D70" s="85"/>
+      <c r="E70" s="85"/>
+      <c r="F70" s="86"/>
+      <c r="G70" s="86"/>
+      <c r="H70" s="87"/>
     </row>
     <row r="71" spans="1:8" ht="18.75">
-      <c r="A71" s="136" t="s">
-        <v>73</v>
-      </c>
-      <c r="B71" s="137"/>
-      <c r="C71" s="137"/>
-      <c r="D71" s="137"/>
-      <c r="E71" s="137"/>
-      <c r="F71" s="137"/>
-      <c r="G71" s="137"/>
-      <c r="H71" s="138"/>
+      <c r="A71" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B71" s="80"/>
+      <c r="C71" s="80"/>
+      <c r="D71" s="80"/>
+      <c r="E71" s="80"/>
+      <c r="F71" s="80"/>
+      <c r="G71" s="80"/>
+      <c r="H71" s="81"/>
     </row>
     <row r="72" spans="1:8" ht="18.75">
-      <c r="A72" s="121"/>
-      <c r="B72" s="139"/>
-      <c r="C72" s="139"/>
-      <c r="D72" s="139"/>
-      <c r="E72" s="139"/>
-      <c r="F72" s="139"/>
-      <c r="G72" s="122"/>
-      <c r="H72" s="123"/>
+      <c r="A72" s="65"/>
+      <c r="B72" s="82"/>
+      <c r="C72" s="82"/>
+      <c r="D72" s="82"/>
+      <c r="E72" s="82"/>
+      <c r="F72" s="82"/>
+      <c r="G72" s="66"/>
+      <c r="H72" s="67"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="124"/>
-      <c r="B73" s="140"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="122"/>
-      <c r="G73" s="122"/>
-      <c r="H73" s="123"/>
+      <c r="A73" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="67"/>
     </row>
     <row r="74" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A74" s="141"/>
-      <c r="B74" s="142"/>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="143"/>
-      <c r="G74" s="143"/>
-      <c r="H74" s="144"/>
-    </row>
-    <row r="75" spans="1:8">
-      <c r="C75" s="122"/>
-      <c r="D75" s="122"/>
-      <c r="E75" s="122"/>
-      <c r="F75" s="122"/>
-      <c r="G75" s="122"/>
-      <c r="H75" s="122"/>
+      <c r="A74" s="84"/>
+      <c r="B74" s="85"/>
+      <c r="C74" s="85"/>
+      <c r="D74" s="85"/>
+      <c r="E74" s="85"/>
+      <c r="F74" s="86"/>
+      <c r="G74" s="86"/>
+      <c r="H74" s="87"/>
+    </row>
+    <row r="75" spans="1:8" ht="18.75">
+      <c r="A75" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B75" s="80"/>
+      <c r="C75" s="80"/>
+      <c r="D75" s="80"/>
+      <c r="E75" s="80"/>
+      <c r="F75" s="80"/>
+      <c r="G75" s="80"/>
+      <c r="H75" s="81"/>
+    </row>
+    <row r="76" spans="1:8" ht="18.75">
+      <c r="A76" s="65"/>
+      <c r="B76" s="70"/>
+      <c r="C76" s="70"/>
+      <c r="D76" s="70"/>
+      <c r="E76" s="70"/>
+      <c r="F76" s="70"/>
+      <c r="H76" s="67"/>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="71"/>
+      <c r="C77" s="71"/>
+      <c r="D77" s="71"/>
+      <c r="E77" s="71"/>
+      <c r="H77" s="67"/>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A78" s="84"/>
+      <c r="B78" s="85"/>
+      <c r="C78" s="85"/>
+      <c r="D78" s="85"/>
+      <c r="E78" s="85"/>
+      <c r="F78" s="86"/>
+      <c r="G78" s="86"/>
+      <c r="H78" s="87"/>
+    </row>
+    <row r="79" spans="1:8" ht="18.75">
+      <c r="A79" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B79" s="80"/>
+      <c r="C79" s="80"/>
+      <c r="D79" s="80"/>
+      <c r="E79" s="80"/>
+      <c r="F79" s="80"/>
+      <c r="G79" s="80"/>
+      <c r="H79" s="81"/>
+    </row>
+    <row r="80" spans="1:8" ht="18.75">
+      <c r="A80" s="65"/>
+      <c r="B80" s="70"/>
+      <c r="C80" s="70"/>
+      <c r="D80" s="70"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="H80" s="67"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" s="71"/>
+      <c r="C81" s="71"/>
+      <c r="D81" s="71"/>
+      <c r="E81" s="71"/>
+      <c r="H81" s="67"/>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A82" s="84"/>
+      <c r="B82" s="85"/>
+      <c r="C82" s="85"/>
+      <c r="D82" s="85"/>
+      <c r="E82" s="85"/>
+      <c r="F82" s="86"/>
+      <c r="G82" s="86"/>
+      <c r="H82" s="87"/>
+    </row>
+    <row r="83" spans="1:8" ht="18.75">
+      <c r="A83" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B83" s="80"/>
+      <c r="C83" s="80"/>
+      <c r="D83" s="80"/>
+      <c r="E83" s="80"/>
+      <c r="F83" s="80"/>
+      <c r="G83" s="80"/>
+      <c r="H83" s="81"/>
+    </row>
+    <row r="84" spans="1:8" ht="18.75">
+      <c r="A84" s="65"/>
+      <c r="B84" s="70"/>
+      <c r="C84" s="70"/>
+      <c r="D84" s="70"/>
+      <c r="E84" s="70"/>
+      <c r="F84" s="70"/>
+      <c r="H84" s="67"/>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="71"/>
+      <c r="C85" s="71"/>
+      <c r="D85" s="71"/>
+      <c r="E85" s="71"/>
+      <c r="H85" s="67"/>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A86" s="84"/>
+      <c r="B86" s="85"/>
+      <c r="C86" s="85"/>
+      <c r="D86" s="85"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="86"/>
+      <c r="G86" s="86"/>
+      <c r="H86" s="87"/>
+    </row>
+    <row r="87" spans="1:8" ht="18.75">
+      <c r="A87" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B87" s="80"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="80"/>
+      <c r="E87" s="80"/>
+      <c r="F87" s="80"/>
+      <c r="G87" s="80"/>
+      <c r="H87" s="81"/>
+    </row>
+    <row r="88" spans="1:8" ht="18.75">
+      <c r="A88" s="65"/>
+      <c r="B88" s="82"/>
+      <c r="C88" s="82"/>
+      <c r="D88" s="82"/>
+      <c r="E88" s="82"/>
+      <c r="F88" s="82"/>
+      <c r="G88" s="66"/>
+      <c r="H88" s="67"/>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B89" s="83"/>
+      <c r="C89" s="83"/>
+      <c r="D89" s="83"/>
+      <c r="E89" s="83"/>
+      <c r="F89" s="66"/>
+      <c r="G89" s="66"/>
+      <c r="H89" s="67"/>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A90" s="84"/>
+      <c r="B90" s="85"/>
+      <c r="C90" s="85"/>
+      <c r="D90" s="85"/>
+      <c r="E90" s="85"/>
+      <c r="F90" s="86"/>
+      <c r="G90" s="86"/>
+      <c r="H90" s="87"/>
+    </row>
+    <row r="91" spans="1:8" ht="18.75">
+      <c r="A91" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B91" s="80"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="80"/>
+      <c r="E91" s="80"/>
+      <c r="F91" s="80"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="81"/>
+    </row>
+    <row r="92" spans="1:8" ht="18.75">
+      <c r="A92" s="65"/>
+      <c r="B92" s="82"/>
+      <c r="C92" s="82"/>
+      <c r="D92" s="82"/>
+      <c r="E92" s="82"/>
+      <c r="F92" s="82"/>
+      <c r="G92" s="66"/>
+      <c r="H92" s="67"/>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B93" s="83"/>
+      <c r="C93" s="83"/>
+      <c r="D93" s="83"/>
+      <c r="E93" s="83"/>
+      <c r="F93" s="66"/>
+      <c r="G93" s="66"/>
+      <c r="H93" s="67"/>
+    </row>
+    <row r="94" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A94" s="84"/>
+      <c r="B94" s="85"/>
+      <c r="C94" s="85"/>
+      <c r="D94" s="85"/>
+      <c r="E94" s="85"/>
+      <c r="F94" s="86"/>
+      <c r="G94" s="86"/>
+      <c r="H94" s="87"/>
+    </row>
+    <row r="95" spans="1:8" ht="18.75">
+      <c r="A95" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B95" s="80"/>
+      <c r="C95" s="80"/>
+      <c r="D95" s="80"/>
+      <c r="E95" s="80"/>
+      <c r="F95" s="80"/>
+      <c r="G95" s="80"/>
+      <c r="H95" s="81"/>
+    </row>
+    <row r="96" spans="1:8" ht="18.75">
+      <c r="A96" s="65"/>
+      <c r="B96" s="82"/>
+      <c r="C96" s="82"/>
+      <c r="D96" s="82"/>
+      <c r="E96" s="82"/>
+      <c r="F96" s="82"/>
+      <c r="G96" s="66"/>
+      <c r="H96" s="67"/>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B97" s="83"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="66"/>
+      <c r="G97" s="66"/>
+      <c r="H97" s="67"/>
+    </row>
+    <row r="98" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A98" s="84"/>
+      <c r="B98" s="85"/>
+      <c r="C98" s="85"/>
+      <c r="D98" s="85"/>
+      <c r="E98" s="85"/>
+      <c r="F98" s="86"/>
+      <c r="G98" s="86"/>
+      <c r="H98" s="87"/>
+    </row>
+    <row r="99" spans="1:8" ht="18.75">
+      <c r="A99" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B99" s="80"/>
+      <c r="C99" s="80"/>
+      <c r="D99" s="80"/>
+      <c r="E99" s="80"/>
+      <c r="F99" s="80"/>
+      <c r="G99" s="80"/>
+      <c r="H99" s="81"/>
+    </row>
+    <row r="100" spans="1:8" ht="18.75">
+      <c r="A100" s="65"/>
+      <c r="B100" s="82"/>
+      <c r="C100" s="82"/>
+      <c r="D100" s="82"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
+      <c r="G100" s="66"/>
+      <c r="H100" s="67"/>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B101" s="83"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="66"/>
+      <c r="G101" s="66"/>
+      <c r="H101" s="67"/>
+    </row>
+    <row r="102" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A102" s="84"/>
+      <c r="B102" s="85"/>
+      <c r="C102" s="85"/>
+      <c r="D102" s="85"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="86"/>
+      <c r="G102" s="86"/>
+      <c r="H102" s="87"/>
+    </row>
+    <row r="103" spans="1:8" ht="18.75">
+      <c r="A103" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B103" s="80"/>
+      <c r="C103" s="80"/>
+      <c r="D103" s="80"/>
+      <c r="E103" s="80"/>
+      <c r="F103" s="80"/>
+      <c r="G103" s="80"/>
+      <c r="H103" s="81"/>
+    </row>
+    <row r="104" spans="1:8" ht="18.75">
+      <c r="A104" s="65"/>
+      <c r="B104" s="82"/>
+      <c r="C104" s="82"/>
+      <c r="D104" s="82"/>
+      <c r="E104" s="82"/>
+      <c r="F104" s="82"/>
+      <c r="G104" s="66"/>
+      <c r="H104" s="67"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B105" s="83"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="66"/>
+      <c r="G105" s="66"/>
+      <c r="H105" s="67"/>
+    </row>
+    <row r="106" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A106" s="84"/>
+      <c r="B106" s="85"/>
+      <c r="C106" s="85"/>
+      <c r="D106" s="85"/>
+      <c r="E106" s="85"/>
+      <c r="F106" s="86"/>
+      <c r="G106" s="86"/>
+      <c r="H106" s="87"/>
+    </row>
+    <row r="107" spans="1:8" ht="18.75">
+      <c r="A107" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107" s="80"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="80"/>
+      <c r="E107" s="80"/>
+      <c r="F107" s="80"/>
+      <c r="G107" s="80"/>
+      <c r="H107" s="81"/>
+    </row>
+    <row r="108" spans="1:8" ht="18.75">
+      <c r="A108" s="65"/>
+      <c r="B108" s="82"/>
+      <c r="C108" s="82"/>
+      <c r="D108" s="82"/>
+      <c r="E108" s="82"/>
+      <c r="F108" s="82"/>
+      <c r="G108" s="66"/>
+      <c r="H108" s="67"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B109" s="83"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="66"/>
+      <c r="G109" s="66"/>
+      <c r="H109" s="67"/>
+    </row>
+    <row r="110" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A110" s="84"/>
+      <c r="B110" s="85"/>
+      <c r="C110" s="85"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="86"/>
+      <c r="H110" s="87"/>
+    </row>
+    <row r="111" spans="1:8" ht="18.75">
+      <c r="A111" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B111" s="80"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="80"/>
+      <c r="E111" s="80"/>
+      <c r="F111" s="80"/>
+      <c r="G111" s="80"/>
+      <c r="H111" s="81"/>
+    </row>
+    <row r="112" spans="1:8" ht="18.75">
+      <c r="A112" s="65"/>
+      <c r="B112" s="82"/>
+      <c r="C112" s="82"/>
+      <c r="D112" s="82"/>
+      <c r="E112" s="82"/>
+      <c r="F112" s="82"/>
+      <c r="G112" s="66"/>
+      <c r="H112" s="67"/>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B113" s="83"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="66"/>
+      <c r="G113" s="66"/>
+      <c r="H113" s="67"/>
+    </row>
+    <row r="114" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A114" s="84"/>
+      <c r="B114" s="85"/>
+      <c r="C114" s="85"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="86"/>
+      <c r="G114" s="86"/>
+      <c r="H114" s="87"/>
+    </row>
+    <row r="115" spans="1:8" ht="18.75">
+      <c r="A115" s="79" t="s">
+        <v>62</v>
+      </c>
+      <c r="B115" s="80"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="80"/>
+      <c r="E115" s="80"/>
+      <c r="F115" s="80"/>
+      <c r="G115" s="80"/>
+      <c r="H115" s="81"/>
+    </row>
+    <row r="116" spans="1:8" ht="18.75">
+      <c r="A116" s="65"/>
+      <c r="B116" s="82"/>
+      <c r="C116" s="82"/>
+      <c r="D116" s="82"/>
+      <c r="E116" s="82"/>
+      <c r="F116" s="82"/>
+      <c r="G116" s="66"/>
+      <c r="H116" s="67"/>
+    </row>
+    <row r="117" spans="1:8">
+      <c r="A117" s="136" t="s">
+        <v>88</v>
+      </c>
+      <c r="B117" s="83"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="66"/>
+      <c r="G117" s="66"/>
+      <c r="H117" s="67"/>
+    </row>
+    <row r="118" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A118" s="84"/>
+      <c r="B118" s="85"/>
+      <c r="C118" s="85"/>
+      <c r="D118" s="85"/>
+      <c r="E118" s="85"/>
+      <c r="F118" s="86"/>
+      <c r="G118" s="86"/>
+      <c r="H118" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -24770,7 +25181,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.27500000000000002" header="0.25" footer="0.25"/>
-  <pageSetup scale="70" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="92" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24787,577 +25198,577 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="113" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="113" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="154" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="113" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="154" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="113" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="113" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="113" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="113" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="113" customWidth="1"/>
-    <col min="11" max="13" width="16.7109375" style="113" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="113"/>
+    <col min="1" max="1" width="27.42578125" style="57" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="97" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="57" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="57" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="57" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="57" customWidth="1"/>
+    <col min="11" max="13" width="16.7109375" style="57" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="57"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A1" s="122"/>
-      <c r="B1" s="122"/>
-      <c r="C1" s="166"/>
-      <c r="D1" s="139"/>
-      <c r="E1" s="166"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="139"/>
-      <c r="I1" s="122"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="109"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="145" t="s">
-        <v>97</v>
-      </c>
-      <c r="B2" s="143"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="143"/>
-      <c r="I2" s="143"/>
+      <c r="A2" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" s="86"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
+      <c r="I2" s="86"/>
     </row>
     <row r="3" spans="1:9" ht="23.25">
-      <c r="A3" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="B3" s="147"/>
-      <c r="C3" s="151"/>
-      <c r="D3" s="137"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="137"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="138"/>
+      <c r="A3" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B3" s="90"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="81"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="165"/>
-      <c r="B4" s="148"/>
-      <c r="C4" s="153"/>
-      <c r="D4" s="122"/>
-      <c r="E4" s="153"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="148"/>
-      <c r="H4" s="122"/>
-      <c r="I4" s="123"/>
+      <c r="A4" s="108"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="66"/>
+      <c r="I4" s="67"/>
     </row>
     <row r="5" spans="1:9" ht="18.75">
-      <c r="A5" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B5" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C5" s="152"/>
-      <c r="D5" s="148"/>
-      <c r="E5" s="152"/>
-      <c r="F5" s="148"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="148"/>
-      <c r="I5" s="123"/>
+      <c r="A5" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="95"/>
+      <c r="D5" s="91"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="91"/>
+      <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B6" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D6" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="G6" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="I6" s="123"/>
+      <c r="A6" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H6" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B7" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D7" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E7" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="G7" s="149"/>
-      <c r="H7" s="155"/>
-      <c r="I7" s="144"/>
+      <c r="A7" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D7" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F7" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" s="92"/>
+      <c r="H7" s="98"/>
+      <c r="I7" s="87"/>
     </row>
     <row r="8" spans="1:9" ht="23.25">
-      <c r="A8" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="147"/>
-      <c r="C8" s="151"/>
-      <c r="D8" s="137"/>
-      <c r="E8" s="151"/>
-      <c r="F8" s="137"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="137"/>
-      <c r="I8" s="138"/>
+      <c r="A8" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="90"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="81"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A9" s="165"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="153"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="153"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="123"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="96"/>
+      <c r="D9" s="66"/>
+      <c r="E9" s="96"/>
+      <c r="F9" s="66"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="67"/>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C10" s="152"/>
-      <c r="D10" s="148"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="148"/>
-      <c r="G10" s="139"/>
-      <c r="H10" s="148"/>
-      <c r="I10" s="123"/>
+      <c r="A10" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="95"/>
+      <c r="D10" s="91"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="91"/>
+      <c r="I10" s="67"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E11" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="F11" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="G11" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="I11" s="123"/>
+      <c r="A11" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H11" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D12" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E12" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="F12" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="G12" s="149"/>
-      <c r="H12" s="155"/>
-      <c r="I12" s="144"/>
+      <c r="A12" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D12" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E12" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F12" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G12" s="92"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="1:9" ht="23.25">
-      <c r="A13" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="B13" s="147"/>
-      <c r="C13" s="151"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="137"/>
-      <c r="I13" s="138"/>
+      <c r="A13" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="90"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="80"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="80"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="81"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A14" s="165"/>
-      <c r="B14" s="148"/>
-      <c r="C14" s="153"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="153"/>
-      <c r="F14" s="122"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
+      <c r="A14" s="108"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="66"/>
+      <c r="G14" s="91"/>
+      <c r="H14" s="66"/>
+      <c r="I14" s="67"/>
     </row>
     <row r="15" spans="1:9" ht="18.75">
-      <c r="A15" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="152"/>
-      <c r="D15" s="148"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="148"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="148"/>
-      <c r="I15" s="123"/>
+      <c r="A15" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="95"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="82"/>
+      <c r="H15" s="91"/>
+      <c r="I15" s="67"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C16" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D16" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E16" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="F16" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H16" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="I16" s="123"/>
+      <c r="A16" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G16" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B17" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C17" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E17" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="F17" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="149"/>
-      <c r="H17" s="155"/>
-      <c r="I17" s="144"/>
+      <c r="A17" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B17" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E17" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="92"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="87"/>
     </row>
     <row r="18" spans="1:9" ht="23.25">
-      <c r="A18" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="147"/>
-      <c r="C18" s="151"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="137"/>
-      <c r="G18" s="147"/>
-      <c r="H18" s="137"/>
-      <c r="I18" s="138"/>
+      <c r="A18" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="90"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="80"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="80"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="81"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="165"/>
-      <c r="B19" s="148"/>
-      <c r="C19" s="153"/>
-      <c r="D19" s="122"/>
-      <c r="E19" s="153"/>
-      <c r="F19" s="122"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="122"/>
-      <c r="I19" s="123"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="91"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9" ht="18.75">
-      <c r="A20" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B20" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C20" s="152"/>
-      <c r="D20" s="148"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="148"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="148"/>
-      <c r="I20" s="123"/>
+      <c r="A20" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C20" s="95"/>
+      <c r="D20" s="91"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="82"/>
+      <c r="H20" s="91"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C21" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D21" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="F21" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="G21" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H21" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="I21" s="123"/>
+      <c r="A21" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D21" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G21" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C22" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E22" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="149"/>
-      <c r="H22" s="155"/>
-      <c r="I22" s="144"/>
+      <c r="A22" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B22" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C22" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E22" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F22" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G22" s="92"/>
+      <c r="H22" s="98"/>
+      <c r="I22" s="87"/>
     </row>
     <row r="23" spans="1:9" ht="23.25">
-      <c r="A23" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="147"/>
-      <c r="C23" s="151"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="137"/>
-      <c r="G23" s="147"/>
-      <c r="H23" s="137"/>
-      <c r="I23" s="138"/>
+      <c r="A23" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B23" s="90"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="80"/>
+      <c r="E23" s="94"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="90"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="81"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A24" s="165"/>
-      <c r="B24" s="148"/>
-      <c r="C24" s="153"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="153"/>
-      <c r="F24" s="163"/>
-      <c r="G24" s="148"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
+      <c r="A24" s="108"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="66"/>
+      <c r="E24" s="96"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="91"/>
+      <c r="H24" s="66"/>
+      <c r="I24" s="67"/>
     </row>
     <row r="25" spans="1:9" ht="18.75">
-      <c r="A25" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B25" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C25" s="152"/>
-      <c r="D25" s="148"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="148"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="148"/>
-      <c r="I25" s="123"/>
+      <c r="A25" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B25" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="95"/>
+      <c r="D25" s="91"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="91"/>
+      <c r="G25" s="82"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="67"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C26" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D26" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E26" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="F26" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="G26" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H26" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="I26" s="123"/>
+      <c r="A26" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D26" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G26" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A27" s="158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B27" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E27" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="149"/>
-      <c r="H27" s="155"/>
-      <c r="I27" s="144"/>
+      <c r="A27" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="92"/>
+      <c r="H27" s="98"/>
+      <c r="I27" s="87"/>
     </row>
     <row r="28" spans="1:9" ht="23.25">
-      <c r="A28" s="156" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="147"/>
-      <c r="C28" s="151"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="137"/>
-      <c r="G28" s="147"/>
-      <c r="H28" s="137"/>
-      <c r="I28" s="138"/>
+      <c r="A28" s="99" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" s="90"/>
+      <c r="C28" s="94"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="94"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="90"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A29" s="165"/>
-      <c r="B29" s="148"/>
-      <c r="C29" s="153"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="153"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="123"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="91"/>
+      <c r="C29" s="96"/>
+      <c r="D29" s="66"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="66"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="66"/>
+      <c r="I29" s="67"/>
     </row>
     <row r="30" spans="1:9" ht="18.75">
-      <c r="A30" s="121" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="164" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="152"/>
-      <c r="D30" s="148"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="148"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="148"/>
-      <c r="I30" s="123"/>
+      <c r="A30" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="B30" s="107" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="95"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="95"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="82"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="67"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="157" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="148" t="s">
-        <v>74</v>
-      </c>
-      <c r="C31" s="159" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="E31" s="159" t="s">
-        <v>91</v>
-      </c>
-      <c r="F31" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="G31" s="161" t="s">
-        <v>92</v>
-      </c>
-      <c r="H31" s="148" t="s">
-        <v>93</v>
-      </c>
-      <c r="I31" s="123"/>
+      <c r="A31" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="C31" s="102" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>80</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="G31" s="104" t="s">
+        <v>81</v>
+      </c>
+      <c r="H31" s="91" t="s">
+        <v>82</v>
+      </c>
+      <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="158" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="149" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="160" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="E32" s="160" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="162" t="s">
-        <v>94</v>
-      </c>
-      <c r="G32" s="149"/>
-      <c r="H32" s="155"/>
-      <c r="I32" s="144"/>
+      <c r="A32" s="101" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="92" t="s">
+        <v>63</v>
+      </c>
+      <c r="C32" s="103" t="s">
+        <v>84</v>
+      </c>
+      <c r="D32" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="103" t="s">
+        <v>85</v>
+      </c>
+      <c r="F32" s="105" t="s">
+        <v>83</v>
+      </c>
+      <c r="G32" s="92"/>
+      <c r="H32" s="98"/>
+      <c r="I32" s="87"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/BRS_templates.xlsx
+++ b/BRS_templates.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\brsgis_plugin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\profiles\tschmal\python\plugins\brsgis_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC20F14-E937-4338-91A9-01639D3C98A2}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99A8BF-251A-45D1-9A40-FBC50EAEB0B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="3" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
+    <workbookView xWindow="30" yWindow="945" windowWidth="28770" windowHeight="15255" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t xml:space="preserve">If YES, Hours Needed: </t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folder Name: </t>
   </si>
   <si>
     <t>E  S  T  I  M  A  T  E</t>
@@ -342,10 +336,10 @@
     <t>2@2.com</t>
   </si>
   <si>
-    <t>NO</t>
+    <t>cc:</t>
   </si>
   <si>
-    <t>cc:</t>
+    <t>Folder Type:</t>
   </si>
 </sst>
 </file>
@@ -1604,21 +1598,6 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="15" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -1635,18 +1614,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
@@ -1757,9 +1729,31 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -23136,7 +23130,7 @@
   </sheetPr>
   <dimension ref="A1:K43"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
@@ -23160,13 +23154,13 @@
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="141">
+      <c r="B1" s="137">
         <v>43220</v>
       </c>
-      <c r="C1" s="138" t="s">
+      <c r="C1" s="185" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="138"/>
+      <c r="D1" s="185"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21"/>
@@ -23174,23 +23168,23 @@
         <v>14</v>
       </c>
       <c r="I1" s="121" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1">
       <c r="A2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="141">
+      <c r="B2" s="137">
         <v>43311</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
+      <c r="C2" s="185"/>
+      <c r="D2" s="185"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I2" s="121">
         <v>1</v>
@@ -23209,50 +23203,50 @@
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1" thickTop="1">
       <c r="A4" s="23"/>
-      <c r="B4" s="142"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="144"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="146" t="s">
-        <v>89</v>
-      </c>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
+      <c r="B4" s="138"/>
+      <c r="C4" s="139"/>
+      <c r="D4" s="140"/>
+      <c r="E4" s="141"/>
+      <c r="F4" s="182" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="183"/>
+      <c r="H4" s="183"/>
+      <c r="I4" s="183"/>
       <c r="J4" s="126"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>91</v>
-      </c>
-      <c r="C5" s="148"/>
+        <v>89</v>
+      </c>
+      <c r="C5" s="142"/>
       <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="149"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="147"/>
-      <c r="I5" s="147"/>
-      <c r="J5" s="151"/>
+      <c r="E5" s="143"/>
+      <c r="F5" s="184"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="139" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="147"/>
+      <c r="B6" s="186" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="183"/>
       <c r="D6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -23266,199 +23260,195 @@
       <c r="B7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="152"/>
+      <c r="C7" s="145"/>
       <c r="D7" s="26" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
       <c r="I7" s="29"/>
-      <c r="J7" s="153"/>
+      <c r="J7" s="146"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1">
       <c r="A8" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>95</v>
-      </c>
-      <c r="C8" s="152"/>
+        <v>93</v>
+      </c>
+      <c r="C8" s="145"/>
       <c r="D8" s="26" t="s">
         <v>18</v>
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
       <c r="I8" s="29"/>
-      <c r="J8" s="153"/>
+      <c r="J8" s="146"/>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>98</v>
-      </c>
-      <c r="C9" s="152"/>
+        <v>96</v>
+      </c>
+      <c r="C9" s="145"/>
       <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="27"/>
-      <c r="F9" s="154" t="s">
-        <v>99</v>
-      </c>
-      <c r="G9" s="154"/>
-      <c r="H9" s="154"/>
-      <c r="I9" s="155"/>
-      <c r="J9" s="153"/>
+      <c r="F9" s="147" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="146"/>
     </row>
     <row r="10" spans="1:11" ht="36" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="148"/>
+        <v>98</v>
+      </c>
+      <c r="C10" s="142"/>
       <c r="D10" s="26" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="27"/>
-      <c r="F10" s="154" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="154"/>
-      <c r="H10" s="154"/>
-      <c r="I10" s="155"/>
-      <c r="J10" s="156"/>
+      <c r="F10" s="147" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="148"/>
+      <c r="J10" s="149"/>
     </row>
     <row r="11" spans="1:11" ht="36" customHeight="1">
       <c r="A11" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11" s="152"/>
+      <c r="B11" s="25"/>
+      <c r="C11" s="145"/>
       <c r="D11" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="E11" s="157"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="155"/>
-      <c r="J11" s="156"/>
+        <v>100</v>
+      </c>
+      <c r="E11" s="150"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="147"/>
+      <c r="H11" s="147"/>
+      <c r="I11" s="148"/>
+      <c r="J11" s="149"/>
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A12" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="158" t="s">
+      <c r="B12" s="151"/>
+      <c r="C12" s="152"/>
+      <c r="D12" s="153" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="154"/>
+      <c r="F12" s="147"/>
+      <c r="G12" s="147"/>
+      <c r="H12" s="147"/>
+      <c r="I12" s="148"/>
+    </row>
+    <row r="13" spans="1:11" ht="25.5" customHeight="1" thickTop="1">
+      <c r="A13" s="155"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="157"/>
+      <c r="J13" s="158"/>
+    </row>
+    <row r="14" spans="1:11" ht="46.5">
+      <c r="A14" s="155"/>
+      <c r="B14" s="159"/>
+      <c r="C14" s="160" t="s">
         <v>26</v>
       </c>
-      <c r="C12" s="159"/>
-      <c r="D12" s="160" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" s="161"/>
-      <c r="F12" s="154"/>
-      <c r="G12" s="154"/>
-      <c r="H12" s="154"/>
-      <c r="I12" s="155"/>
-    </row>
-    <row r="13" spans="1:11" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A13" s="162"/>
-      <c r="B13" s="163"/>
-      <c r="C13" s="163"/>
-      <c r="D13" s="163"/>
-      <c r="E13" s="163"/>
-      <c r="F13" s="163"/>
-      <c r="G13" s="163"/>
-      <c r="H13" s="163"/>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
-    </row>
-    <row r="14" spans="1:11" ht="46.5">
-      <c r="A14" s="162"/>
-      <c r="B14" s="166"/>
-      <c r="C14" s="167" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="163"/>
-      <c r="E14" s="163"/>
-      <c r="F14" s="163"/>
-      <c r="G14" s="163"/>
-      <c r="H14" s="163"/>
-      <c r="I14" s="164"/>
-      <c r="J14" s="165"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="156"/>
+      <c r="I14" s="157"/>
+      <c r="J14" s="158"/>
     </row>
     <row r="15" spans="1:11" ht="25.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C15" s="124" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="124" t="s">
-        <v>52</v>
-      </c>
       <c r="E15" s="124"/>
-      <c r="F15" s="168"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="161"/>
+      <c r="H15" s="162"/>
       <c r="I15" s="35"/>
     </row>
     <row r="16" spans="1:11" ht="90" customHeight="1">
       <c r="A16" s="122" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="37"/>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="170"/>
+      <c r="E16" s="163"/>
       <c r="F16" s="33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
       <c r="I16" s="35"/>
-      <c r="K16" s="171"/>
+      <c r="K16" s="164"/>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1" thickBot="1">
       <c r="A17" s="122" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="172" t="s">
-        <v>56</v>
-      </c>
-      <c r="G17" s="168"/>
+      <c r="E17" s="163"/>
+      <c r="F17" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="G17" s="161"/>
       <c r="H17" s="127"/>
       <c r="I17" s="35"/>
-      <c r="K17" s="173"/>
+      <c r="K17" s="166"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" thickTop="1">
       <c r="A18" s="122" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="37"/>
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
-      <c r="E18" s="170"/>
+      <c r="E18" s="163"/>
       <c r="F18" s="38" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="128"/>
@@ -23466,150 +23456,150 @@
     </row>
     <row r="19" spans="1:11" ht="45" customHeight="1" thickBot="1">
       <c r="A19" s="122" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="37"/>
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
-      <c r="E19" s="170"/>
+      <c r="E19" s="163"/>
       <c r="F19" s="129" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
       <c r="I19" s="35"/>
-      <c r="K19" s="171"/>
+      <c r="K19" s="164"/>
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="174"/>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="176"/>
+      <c r="A20" s="167"/>
+      <c r="B20" s="168"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="169"/>
     </row>
     <row r="21" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A21" s="177"/>
-      <c r="B21" s="177"/>
-      <c r="C21" s="177"/>
-      <c r="D21" s="177"/>
-      <c r="E21" s="177"/>
-      <c r="F21" s="177"/>
-      <c r="G21" s="177"/>
-      <c r="H21" s="177"/>
-      <c r="I21" s="177"/>
+      <c r="A21" s="170"/>
+      <c r="B21" s="170"/>
+      <c r="C21" s="170"/>
+      <c r="D21" s="170"/>
+      <c r="E21" s="170"/>
+      <c r="F21" s="170"/>
+      <c r="G21" s="170"/>
+      <c r="H21" s="170"/>
+      <c r="I21" s="170"/>
     </row>
     <row r="22" spans="1:11" ht="25.5" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="124" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" s="137" t="s">
-        <v>35</v>
-      </c>
-      <c r="E22" s="137"/>
-      <c r="F22" s="137"/>
-      <c r="G22" s="137"/>
-      <c r="H22" s="137"/>
-      <c r="I22" s="137"/>
-      <c r="J22" s="178"/>
+        <v>55</v>
+      </c>
+      <c r="D22" s="181" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="181"/>
+      <c r="F22" s="181"/>
+      <c r="G22" s="181"/>
+      <c r="H22" s="181"/>
+      <c r="I22" s="181"/>
+      <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
       <c r="A23" s="123" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" s="42"/>
       <c r="C23" s="37"/>
-      <c r="D23" s="179"/>
+      <c r="D23" s="172"/>
       <c r="E23" s="28"/>
       <c r="F23" s="28"/>
       <c r="G23" s="28"/>
       <c r="H23" s="28"/>
-      <c r="I23" s="180"/>
+      <c r="I23" s="173"/>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1">
       <c r="A24" s="123" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="37"/>
-      <c r="D24" s="179"/>
+      <c r="D24" s="172"/>
       <c r="E24" s="28"/>
       <c r="F24" s="28"/>
       <c r="G24" s="28"/>
       <c r="H24" s="28"/>
-      <c r="I24" s="180"/>
+      <c r="I24" s="173"/>
     </row>
     <row r="25" spans="1:11" ht="45" customHeight="1">
       <c r="A25" s="123" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B25" s="42"/>
       <c r="C25" s="37"/>
-      <c r="D25" s="179"/>
+      <c r="D25" s="172"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="28"/>
-      <c r="I25" s="180"/>
+      <c r="I25" s="173"/>
     </row>
     <row r="26" spans="1:11" ht="45" customHeight="1">
       <c r="A26" s="123" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="42"/>
       <c r="C26" s="37"/>
-      <c r="D26" s="179"/>
+      <c r="D26" s="172"/>
       <c r="E26" s="28"/>
       <c r="F26" s="28"/>
       <c r="G26" s="28"/>
       <c r="H26" s="28"/>
-      <c r="I26" s="180"/>
+      <c r="I26" s="173"/>
     </row>
     <row r="27" spans="1:11" ht="45" customHeight="1">
       <c r="A27" s="123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="42"/>
       <c r="C27" s="37"/>
-      <c r="D27" s="179"/>
+      <c r="D27" s="172"/>
       <c r="E27" s="28"/>
       <c r="F27" s="28"/>
       <c r="G27" s="28"/>
       <c r="H27" s="28"/>
-      <c r="I27" s="180"/>
+      <c r="I27" s="173"/>
     </row>
     <row r="28" spans="1:11" ht="45" customHeight="1">
       <c r="A28" s="123" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="42"/>
       <c r="C28" s="37"/>
-      <c r="D28" s="179"/>
+      <c r="D28" s="172"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
       <c r="G28" s="28"/>
       <c r="H28" s="28"/>
-      <c r="I28" s="180"/>
+      <c r="I28" s="173"/>
     </row>
     <row r="29" spans="1:11" ht="45" customHeight="1">
       <c r="A29" s="123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B29" s="42"/>
       <c r="C29" s="37"/>
-      <c r="D29" s="179"/>
+      <c r="D29" s="172"/>
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
       <c r="H29" s="28"/>
-      <c r="I29" s="180"/>
+      <c r="I29" s="173"/>
     </row>
     <row r="30" spans="1:11" ht="25.5" customHeight="1">
       <c r="A30" s="21"/>
@@ -23626,64 +23616,64 @@
       <c r="A31" s="22"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="181" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="181"/>
-      <c r="F31" s="181"/>
-      <c r="G31" s="181"/>
+      <c r="D31" s="174" t="s">
+        <v>44</v>
+      </c>
+      <c r="E31" s="174"/>
+      <c r="F31" s="174"/>
+      <c r="G31" s="174"/>
       <c r="H31" s="22"/>
       <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:11" ht="45" customHeight="1">
       <c r="A32" s="43" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B32" s="44"/>
       <c r="C32" s="21"/>
-      <c r="D32" s="182" t="s">
-        <v>49</v>
-      </c>
-      <c r="E32" s="183"/>
+      <c r="D32" s="175" t="s">
+        <v>47</v>
+      </c>
+      <c r="E32" s="176"/>
       <c r="F32" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G32" s="46"/>
-      <c r="H32" s="184"/>
+      <c r="H32" s="177"/>
       <c r="I32" s="21"/>
     </row>
     <row r="33" spans="1:9" ht="45" customHeight="1">
       <c r="A33" s="36" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B33" s="47"/>
       <c r="C33" s="21"/>
-      <c r="D33" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="186"/>
+      <c r="D33" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="179"/>
       <c r="F33" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G33" s="49"/>
-      <c r="H33" s="184"/>
+      <c r="H33" s="177"/>
       <c r="I33" s="21"/>
     </row>
     <row r="34" spans="1:9" ht="45" customHeight="1">
       <c r="A34" s="36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B34" s="50"/>
       <c r="C34" s="21"/>
-      <c r="D34" s="185" t="s">
-        <v>49</v>
-      </c>
-      <c r="E34" s="186"/>
+      <c r="D34" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="179"/>
       <c r="F34" s="48" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="G34" s="49"/>
-      <c r="H34" s="184"/>
+      <c r="H34" s="177"/>
       <c r="I34" s="21"/>
     </row>
     <row r="35" spans="1:9" ht="45" customHeight="1" thickBot="1">
@@ -23694,12 +23684,12 @@
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
       <c r="G35" s="55"/>
-      <c r="H35" s="184"/>
+      <c r="H35" s="177"/>
       <c r="I35" s="20"/>
     </row>
     <row r="36" spans="1:9" ht="25.5" customHeight="1">
       <c r="A36" s="20"/>
-      <c r="B36" s="187"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="21"/>
       <c r="D36" s="56"/>
       <c r="E36" s="56"/>
@@ -23721,7 +23711,7 @@
     </row>
     <row r="38" spans="1:9" ht="26.25">
       <c r="A38" s="131" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" s="132"/>
       <c r="C38" s="132"/>
@@ -23734,46 +23724,46 @@
     </row>
     <row r="39" spans="1:9" ht="50.25" customHeight="1">
       <c r="A39" s="130"/>
-      <c r="B39" s="188"/>
-      <c r="C39" s="188"/>
-      <c r="D39" s="188"/>
-      <c r="E39" s="188"/>
-      <c r="F39" s="188"/>
-      <c r="G39" s="188"/>
-      <c r="H39" s="188"/>
+      <c r="B39" s="187"/>
+      <c r="C39" s="187"/>
+      <c r="D39" s="187"/>
+      <c r="E39" s="187"/>
+      <c r="F39" s="187"/>
+      <c r="G39" s="187"/>
+      <c r="H39" s="187"/>
       <c r="I39" s="111"/>
     </row>
     <row r="40" spans="1:9" ht="50.25" customHeight="1">
       <c r="A40" s="130"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
+      <c r="B40" s="187"/>
+      <c r="C40" s="187"/>
+      <c r="D40" s="187"/>
+      <c r="E40" s="187"/>
+      <c r="F40" s="187"/>
+      <c r="G40" s="187"/>
+      <c r="H40" s="187"/>
       <c r="I40" s="111"/>
     </row>
     <row r="41" spans="1:9" ht="50.25" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
+      <c r="B41" s="187"/>
+      <c r="C41" s="187"/>
+      <c r="D41" s="187"/>
+      <c r="E41" s="187"/>
+      <c r="F41" s="187"/>
+      <c r="G41" s="187"/>
+      <c r="H41" s="187"/>
       <c r="I41" s="111"/>
     </row>
     <row r="42" spans="1:9" ht="50.25" customHeight="1">
       <c r="A42" s="130"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
+      <c r="B42" s="187"/>
+      <c r="C42" s="187"/>
+      <c r="D42" s="187"/>
+      <c r="E42" s="187"/>
+      <c r="F42" s="187"/>
+      <c r="G42" s="187"/>
+      <c r="H42" s="187"/>
       <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:9" ht="12" customHeight="1" thickBot="1">
@@ -23893,7 +23883,7 @@
   </sheetPr>
   <dimension ref="A1:J118"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
@@ -23912,61 +23902,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A1" s="140" t="s">
-        <v>63</v>
-      </c>
-      <c r="B1" s="140"/>
-      <c r="C1" s="140"/>
+      <c r="A1" s="188" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" s="188"/>
+      <c r="C1" s="188"/>
       <c r="D1" s="69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>58</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>60</v>
       </c>
       <c r="H1" s="58"/>
       <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="140"/>
-      <c r="B2" s="140"/>
-      <c r="C2" s="140"/>
+      <c r="A2" s="188"/>
+      <c r="B2" s="188"/>
+      <c r="C2" s="188"/>
       <c r="D2" s="60" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>64</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>65</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>66</v>
       </c>
       <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="D3" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="E3" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>71</v>
-      </c>
       <c r="F3" s="78" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" thickBot="1">
       <c r="D4" s="77" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="63"/>
       <c r="G4" s="63"/>
@@ -23984,7 +23974,7 @@
     </row>
     <row r="6" spans="1:10" ht="23.25">
       <c r="A6" s="75" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
@@ -24006,7 +23996,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
@@ -24028,7 +24018,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1">
       <c r="A10" s="88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
@@ -24040,7 +24030,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.75">
       <c r="A11" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -24062,7 +24052,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
@@ -24084,7 +24074,7 @@
     </row>
     <row r="15" spans="1:10" ht="18.75">
       <c r="A15" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -24105,7 +24095,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -24125,7 +24115,7 @@
     </row>
     <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -24146,7 +24136,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
@@ -24166,7 +24156,7 @@
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -24187,7 +24177,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
@@ -24207,7 +24197,7 @@
     </row>
     <row r="27" spans="1:8" s="68" customFormat="1" ht="18.75">
       <c r="A27" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -24228,7 +24218,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -24248,7 +24238,7 @@
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -24269,7 +24259,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71"/>
@@ -24289,7 +24279,7 @@
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -24310,7 +24300,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B37" s="71"/>
       <c r="C37" s="71"/>
@@ -24330,7 +24320,7 @@
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B39" s="80"/>
       <c r="C39" s="80"/>
@@ -24351,7 +24341,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
@@ -24371,7 +24361,7 @@
     </row>
     <row r="43" spans="1:8" ht="18.75">
       <c r="A43" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -24392,7 +24382,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -24412,7 +24402,7 @@
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -24433,7 +24423,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -24453,7 +24443,7 @@
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -24474,7 +24464,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
@@ -24494,7 +24484,7 @@
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -24515,7 +24505,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
@@ -24535,7 +24525,7 @@
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
@@ -24556,7 +24546,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
@@ -24576,7 +24566,7 @@
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B63" s="80"/>
       <c r="C63" s="80"/>
@@ -24597,7 +24587,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -24617,7 +24607,7 @@
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B67" s="80"/>
       <c r="C67" s="80"/>
@@ -24638,7 +24628,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="71"/>
@@ -24658,7 +24648,7 @@
     </row>
     <row r="71" spans="1:8" ht="18.75">
       <c r="A71" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
@@ -24680,7 +24670,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B73" s="83"/>
       <c r="C73" s="83"/>
@@ -24702,7 +24692,7 @@
     </row>
     <row r="75" spans="1:8" ht="18.75">
       <c r="A75" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -24723,7 +24713,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
@@ -24743,7 +24733,7 @@
     </row>
     <row r="79" spans="1:8" ht="18.75">
       <c r="A79" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -24764,7 +24754,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
@@ -24784,7 +24774,7 @@
     </row>
     <row r="83" spans="1:8" ht="18.75">
       <c r="A83" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -24805,7 +24795,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -24825,7 +24815,7 @@
     </row>
     <row r="87" spans="1:8" ht="18.75">
       <c r="A87" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
@@ -24847,7 +24837,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B89" s="83"/>
       <c r="C89" s="83"/>
@@ -24869,7 +24859,7 @@
     </row>
     <row r="91" spans="1:8" ht="18.75">
       <c r="A91" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -24891,7 +24881,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B93" s="83"/>
       <c r="C93" s="83"/>
@@ -24913,7 +24903,7 @@
     </row>
     <row r="95" spans="1:8" ht="18.75">
       <c r="A95" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B95" s="80"/>
       <c r="C95" s="80"/>
@@ -24935,7 +24925,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B97" s="83"/>
       <c r="C97" s="83"/>
@@ -24957,7 +24947,7 @@
     </row>
     <row r="99" spans="1:8" ht="18.75">
       <c r="A99" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B99" s="80"/>
       <c r="C99" s="80"/>
@@ -24979,7 +24969,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B101" s="83"/>
       <c r="C101" s="83"/>
@@ -25001,7 +24991,7 @@
     </row>
     <row r="103" spans="1:8" ht="18.75">
       <c r="A103" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
@@ -25023,7 +25013,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B105" s="83"/>
       <c r="C105" s="83"/>
@@ -25045,7 +25035,7 @@
     </row>
     <row r="107" spans="1:8" ht="18.75">
       <c r="A107" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B107" s="80"/>
       <c r="C107" s="80"/>
@@ -25067,7 +25057,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B109" s="83"/>
       <c r="C109" s="83"/>
@@ -25089,7 +25079,7 @@
     </row>
     <row r="111" spans="1:8" ht="18.75">
       <c r="A111" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B111" s="80"/>
       <c r="C111" s="80"/>
@@ -25111,7 +25101,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B113" s="83"/>
       <c r="C113" s="83"/>
@@ -25133,7 +25123,7 @@
     </row>
     <row r="115" spans="1:8" ht="18.75">
       <c r="A115" s="79" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B115" s="80"/>
       <c r="C115" s="80"/>
@@ -25155,7 +25145,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="136" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B117" s="83"/>
       <c r="C117" s="83"/>
@@ -25225,7 +25215,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
       <c r="A2" s="88" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="93"/>
@@ -25238,7 +25228,7 @@
     </row>
     <row r="3" spans="1:9" ht="23.25">
       <c r="A3" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="94"/>
@@ -25262,10 +25252,10 @@
     </row>
     <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C5" s="95"/>
       <c r="D5" s="91"/>
@@ -25277,49 +25267,49 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="D6" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="102" t="s">
+      <c r="H6" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>82</v>
       </c>
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D7" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E7" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="103" t="s">
-        <v>85</v>
-      </c>
       <c r="F7" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G7" s="92"/>
       <c r="H7" s="98"/>
@@ -25327,7 +25317,7 @@
     </row>
     <row r="8" spans="1:9" ht="23.25">
       <c r="A8" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="94"/>
@@ -25351,10 +25341,10 @@
     </row>
     <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C10" s="95"/>
       <c r="D10" s="91"/>
@@ -25366,49 +25356,49 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C11" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" s="102" t="s">
+      <c r="D11" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="102" t="s">
+      <c r="H11" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="91" t="s">
-        <v>82</v>
       </c>
       <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D12" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E12" s="103" t="s">
-        <v>85</v>
-      </c>
       <c r="F12" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="98"/>
@@ -25416,7 +25406,7 @@
     </row>
     <row r="13" spans="1:9" ht="23.25">
       <c r="A13" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="94"/>
@@ -25440,10 +25430,10 @@
     </row>
     <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C15" s="95"/>
       <c r="D15" s="91"/>
@@ -25455,49 +25445,49 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="102" t="s">
+      <c r="D16" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E16" s="102" t="s">
+      <c r="H16" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="91" t="s">
-        <v>82</v>
       </c>
       <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D17" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="103" t="s">
-        <v>85</v>
-      </c>
       <c r="F17" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G17" s="92"/>
       <c r="H17" s="98"/>
@@ -25505,7 +25495,7 @@
     </row>
     <row r="18" spans="1:9" ht="23.25">
       <c r="A18" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="94"/>
@@ -25529,10 +25519,10 @@
     </row>
     <row r="20" spans="1:9" ht="18.75">
       <c r="A20" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C20" s="95"/>
       <c r="D20" s="91"/>
@@ -25544,49 +25534,49 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="102" t="s">
+      <c r="D21" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G21" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D21" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E21" s="102" t="s">
+      <c r="H21" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>82</v>
       </c>
       <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D22" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E22" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="103" t="s">
-        <v>85</v>
-      </c>
       <c r="F22" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="98"/>
@@ -25594,7 +25584,7 @@
     </row>
     <row r="23" spans="1:9" ht="23.25">
       <c r="A23" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="94"/>
@@ -25618,10 +25608,10 @@
     </row>
     <row r="25" spans="1:9" ht="18.75">
       <c r="A25" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C25" s="95"/>
       <c r="D25" s="91"/>
@@ -25633,49 +25623,49 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B26" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" s="102" t="s">
+      <c r="D26" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G26" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E26" s="102" t="s">
+      <c r="H26" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H26" s="91" t="s">
-        <v>82</v>
       </c>
       <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D27" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E27" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E27" s="103" t="s">
-        <v>85</v>
-      </c>
       <c r="F27" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G27" s="92"/>
       <c r="H27" s="98"/>
@@ -25683,7 +25673,7 @@
     </row>
     <row r="28" spans="1:9" ht="23.25">
       <c r="A28" s="99" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="94"/>
@@ -25707,10 +25697,10 @@
     </row>
     <row r="30" spans="1:9" ht="18.75">
       <c r="A30" s="65" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C30" s="95"/>
       <c r="D30" s="91"/>
@@ -25722,49 +25712,49 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>61</v>
+      </c>
+      <c r="C31" s="102" t="s">
         <v>77</v>
       </c>
-      <c r="B31" s="91" t="s">
-        <v>63</v>
-      </c>
-      <c r="C31" s="102" t="s">
+      <c r="D31" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="104" t="s">
         <v>79</v>
       </c>
-      <c r="D31" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="E31" s="102" t="s">
+      <c r="H31" s="91" t="s">
         <v>80</v>
-      </c>
-      <c r="F31" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="G31" s="104" t="s">
-        <v>81</v>
-      </c>
-      <c r="H31" s="91" t="s">
-        <v>82</v>
       </c>
       <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="101" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C32" s="103" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D32" s="105" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="103" t="s">
         <v>83</v>
       </c>
-      <c r="E32" s="103" t="s">
-        <v>85</v>
-      </c>
       <c r="F32" s="105" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G32" s="92"/>
       <c r="H32" s="98"/>

--- a/BRS_templates.xlsx
+++ b/BRS_templates.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\profiles\tschmal\python\plugins\brsgis_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC99A8BF-251A-45D1-9A40-FBC50EAEB0B0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF24E5F-9FE2-4E63-BE6F-CE87E1FEEF17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="945" windowWidth="28770" windowHeight="15255" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="2" r:id="rId1"/>
@@ -24051,7 +24051,7 @@
       <c r="H12" s="67"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="136" t="s">
+      <c r="A13" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B13" s="83"/>
@@ -24094,7 +24094,7 @@
       <c r="H16" s="67"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="136" t="s">
+      <c r="A17" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B17" s="71"/>
@@ -24135,7 +24135,7 @@
       <c r="H20" s="67"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="136" t="s">
+      <c r="A21" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B21" s="71"/>
@@ -24176,7 +24176,7 @@
       <c r="H24" s="67"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="136" t="s">
+      <c r="A25" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B25" s="71"/>
@@ -24217,7 +24217,7 @@
       <c r="H28" s="67"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="136" t="s">
+      <c r="A29" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B29" s="71"/>
@@ -24258,7 +24258,7 @@
       <c r="H32" s="67"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="136" t="s">
+      <c r="A33" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B33" s="71"/>
@@ -24299,7 +24299,7 @@
       <c r="H36" s="67"/>
     </row>
     <row r="37" spans="1:8">
-      <c r="A37" s="136" t="s">
+      <c r="A37" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B37" s="71"/>
@@ -24340,7 +24340,7 @@
       <c r="H40" s="67"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="136" t="s">
+      <c r="A41" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B41" s="71"/>
@@ -24381,7 +24381,7 @@
       <c r="H44" s="67"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="136" t="s">
+      <c r="A45" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B45" s="71"/>
@@ -24422,7 +24422,7 @@
       <c r="H48" s="67"/>
     </row>
     <row r="49" spans="1:8">
-      <c r="A49" s="136" t="s">
+      <c r="A49" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B49" s="71"/>
@@ -24463,7 +24463,7 @@
       <c r="H52" s="67"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="136" t="s">
+      <c r="A53" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B53" s="71"/>
@@ -24504,7 +24504,7 @@
       <c r="H56" s="67"/>
     </row>
     <row r="57" spans="1:8">
-      <c r="A57" s="136" t="s">
+      <c r="A57" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B57" s="71"/>
@@ -24545,7 +24545,7 @@
       <c r="H60" s="67"/>
     </row>
     <row r="61" spans="1:8">
-      <c r="A61" s="136" t="s">
+      <c r="A61" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B61" s="71"/>
@@ -24586,7 +24586,7 @@
       <c r="H64" s="67"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="136" t="s">
+      <c r="A65" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B65" s="71"/>
@@ -24627,7 +24627,7 @@
       <c r="H68" s="67"/>
     </row>
     <row r="69" spans="1:8">
-      <c r="A69" s="136" t="s">
+      <c r="A69" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B69" s="71"/>
@@ -24669,7 +24669,7 @@
       <c r="H72" s="67"/>
     </row>
     <row r="73" spans="1:8">
-      <c r="A73" s="136" t="s">
+      <c r="A73" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B73" s="83"/>
@@ -24712,7 +24712,7 @@
       <c r="H76" s="67"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="136" t="s">
+      <c r="A77" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B77" s="71"/>
@@ -24753,7 +24753,7 @@
       <c r="H80" s="67"/>
     </row>
     <row r="81" spans="1:8">
-      <c r="A81" s="136" t="s">
+      <c r="A81" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B81" s="71"/>
@@ -24794,7 +24794,7 @@
       <c r="H84" s="67"/>
     </row>
     <row r="85" spans="1:8">
-      <c r="A85" s="136" t="s">
+      <c r="A85" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B85" s="71"/>
@@ -24836,7 +24836,7 @@
       <c r="H88" s="67"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="136" t="s">
+      <c r="A89" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B89" s="83"/>
@@ -24880,7 +24880,7 @@
       <c r="H92" s="67"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="136" t="s">
+      <c r="A93" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B93" s="83"/>
@@ -24924,7 +24924,7 @@
       <c r="H96" s="67"/>
     </row>
     <row r="97" spans="1:8">
-      <c r="A97" s="136" t="s">
+      <c r="A97" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B97" s="83"/>
@@ -24968,7 +24968,7 @@
       <c r="H100" s="67"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="136" t="s">
+      <c r="A101" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B101" s="83"/>
@@ -25012,7 +25012,7 @@
       <c r="H104" s="67"/>
     </row>
     <row r="105" spans="1:8">
-      <c r="A105" s="136" t="s">
+      <c r="A105" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B105" s="83"/>
@@ -25056,7 +25056,7 @@
       <c r="H108" s="67"/>
     </row>
     <row r="109" spans="1:8">
-      <c r="A109" s="136" t="s">
+      <c r="A109" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B109" s="83"/>
@@ -25100,7 +25100,7 @@
       <c r="H112" s="67"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="136" t="s">
+      <c r="A113" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B113" s="83"/>
@@ -25144,7 +25144,7 @@
       <c r="H116" s="67"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="136" t="s">
+      <c r="A117" s="100" t="s">
         <v>86</v>
       </c>
       <c r="B117" s="83"/>
@@ -25171,7 +25171,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.27500000000000002" header="0.25" footer="0.25"/>
-  <pageSetup scale="92" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/BRS_templates.xlsx
+++ b/BRS_templates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\profiles\tschmal\python\plugins\brsgis_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF24E5F-9FE2-4E63-BE6F-CE87E1FEEF17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912C954-2462-418C-BFDA-0AC5352F3DCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
@@ -22,7 +22,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="2">label!$A$1:$A$20</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">yellow!$A$1:$J$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">yellow!$A$1:$J$44</definedName>
   </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -171,13 +171,7 @@
     <t>Invoices:</t>
   </si>
   <si>
-    <t xml:space="preserve">Amount: </t>
-  </si>
-  <si>
     <t>Notes / Job Details:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Date: </t>
   </si>
   <si>
     <t>Rate</t>
@@ -340,6 +334,9 @@
   </si>
   <si>
     <t>Folder Type:</t>
+  </si>
+  <si>
+    <t>Paid</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1239,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="189">
+  <cellXfs count="196">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1729,6 +1726,7 @@
     <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
@@ -1754,6 +1752,26 @@
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -23128,7 +23146,7 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
   </sheetViews>
@@ -23140,8 +23158,9 @@
     <col min="4" max="4" width="32.5703125" style="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="1.140625" style="19" customWidth="1"/>
     <col min="6" max="6" width="29.7109375" style="19" customWidth="1"/>
-    <col min="7" max="8" width="14.42578125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="18" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="18" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="18" customWidth="1"/>
     <col min="10" max="10" width="1.28515625" style="18" customWidth="1"/>
     <col min="11" max="11" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.5703125" style="18" customWidth="1"/>
@@ -23157,10 +23176,10 @@
       <c r="B1" s="137">
         <v>43220</v>
       </c>
-      <c r="C1" s="185" t="s">
+      <c r="C1" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="185"/>
+      <c r="D1" s="186"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21"/>
@@ -23178,13 +23197,13 @@
       <c r="B2" s="137">
         <v>43311</v>
       </c>
-      <c r="C2" s="185"/>
-      <c r="D2" s="185"/>
+      <c r="C2" s="186"/>
+      <c r="D2" s="186"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="20"/>
       <c r="H2" s="20" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I2" s="121">
         <v>1</v>
@@ -23207,46 +23226,46 @@
       <c r="C4" s="139"/>
       <c r="D4" s="140"/>
       <c r="E4" s="141"/>
-      <c r="F4" s="182" t="s">
-        <v>87</v>
-      </c>
-      <c r="G4" s="183"/>
-      <c r="H4" s="183"/>
-      <c r="I4" s="183"/>
+      <c r="F4" s="183" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="184"/>
+      <c r="H4" s="184"/>
+      <c r="I4" s="184"/>
       <c r="J4" s="126"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
       <c r="A5" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" s="134" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C5" s="142"/>
       <c r="D5" s="26" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="143"/>
-      <c r="F5" s="184"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
+      <c r="F5" s="185"/>
+      <c r="G5" s="184"/>
+      <c r="H5" s="184"/>
+      <c r="I5" s="184"/>
       <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="186" t="s">
-        <v>90</v>
-      </c>
-      <c r="C6" s="183"/>
+      <c r="B6" s="187" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="184"/>
       <c r="D6" s="26" t="s">
         <v>16</v>
       </c>
       <c r="E6" s="27"/>
       <c r="F6" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G6" s="28"/>
       <c r="H6" s="28"/>
@@ -23266,7 +23285,7 @@
       </c>
       <c r="E7" s="27"/>
       <c r="F7" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G7" s="28"/>
       <c r="H7" s="28"/>
@@ -23278,7 +23297,7 @@
         <v>19</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C8" s="145"/>
       <c r="D8" s="26" t="s">
@@ -23286,7 +23305,7 @@
       </c>
       <c r="E8" s="27"/>
       <c r="F8" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G8" s="28"/>
       <c r="H8" s="28"/>
@@ -23295,10 +23314,10 @@
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
       <c r="A9" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C9" s="145"/>
       <c r="D9" s="26" t="s">
@@ -23306,7 +23325,7 @@
       </c>
       <c r="E9" s="27"/>
       <c r="F9" s="147" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G9" s="147"/>
       <c r="H9" s="147"/>
@@ -23315,10 +23334,10 @@
     </row>
     <row r="10" spans="1:11" ht="36" customHeight="1">
       <c r="A10" s="24" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C10" s="142"/>
       <c r="D10" s="26" t="s">
@@ -23326,7 +23345,7 @@
       </c>
       <c r="E10" s="27"/>
       <c r="F10" s="147" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G10" s="147"/>
       <c r="H10" s="147"/>
@@ -23340,7 +23359,7 @@
       <c r="B11" s="25"/>
       <c r="C11" s="145"/>
       <c r="D11" s="26" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E11" s="150"/>
       <c r="F11" s="147"/>
@@ -23356,7 +23375,7 @@
       <c r="B12" s="151"/>
       <c r="C12" s="152"/>
       <c r="D12" s="153" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E12" s="154"/>
       <c r="F12" s="147"/>
@@ -23393,13 +23412,13 @@
     <row r="15" spans="1:11" ht="25.5" customHeight="1">
       <c r="A15" s="32"/>
       <c r="B15" s="124" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C15" s="124" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="124" t="s">
         <v>48</v>
-      </c>
-      <c r="D15" s="124" t="s">
-        <v>50</v>
       </c>
       <c r="E15" s="124"/>
       <c r="F15" s="161"/>
@@ -23416,7 +23435,7 @@
       <c r="D16" s="37"/>
       <c r="E16" s="163"/>
       <c r="F16" s="33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G16" s="33"/>
       <c r="H16" s="34"/>
@@ -23432,7 +23451,7 @@
       <c r="D17" s="37"/>
       <c r="E17" s="163"/>
       <c r="F17" s="165" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G17" s="161"/>
       <c r="H17" s="127"/>
@@ -23463,7 +23482,7 @@
       <c r="D19" s="37"/>
       <c r="E19" s="163"/>
       <c r="F19" s="129" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" s="40"/>
       <c r="H19" s="41"/>
@@ -23495,19 +23514,19 @@
     <row r="22" spans="1:11" ht="25.5" customHeight="1">
       <c r="A22" s="22"/>
       <c r="B22" s="124" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C22" s="124" t="s">
-        <v>55</v>
-      </c>
-      <c r="D22" s="181" t="s">
+        <v>53</v>
+      </c>
+      <c r="D22" s="182" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="181"/>
-      <c r="F22" s="181"/>
-      <c r="G22" s="181"/>
-      <c r="H22" s="181"/>
-      <c r="I22" s="181"/>
+      <c r="E22" s="182"/>
+      <c r="F22" s="182"/>
+      <c r="G22" s="182"/>
+      <c r="H22" s="182"/>
+      <c r="I22" s="182"/>
       <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
@@ -23612,170 +23631,187 @@
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
     </row>
-    <row r="31" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A31" s="22"/>
+    <row r="31" spans="1:11" s="181" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="174" t="s">
+      <c r="D31" s="190" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="174"/>
-      <c r="F31" s="174"/>
-      <c r="G31" s="174"/>
-      <c r="H31" s="22"/>
+      <c r="E31" s="191"/>
+      <c r="F31" s="191"/>
+      <c r="G31" s="192" t="s">
+        <v>100</v>
+      </c>
+      <c r="H31" s="21"/>
       <c r="I31" s="21"/>
     </row>
-    <row r="32" spans="1:11" ht="45" customHeight="1">
-      <c r="A32" s="43" t="s">
+    <row r="32" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A32" s="22"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="174" t="s">
+        <v>49</v>
+      </c>
+      <c r="E32" s="174"/>
+      <c r="F32" s="174" t="s">
+        <v>48</v>
+      </c>
+      <c r="G32" s="193" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="22"/>
+      <c r="I32" s="174" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="45" customHeight="1">
+      <c r="A33" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="175" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="176"/>
-      <c r="F32" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="177"/>
-      <c r="I32" s="21"/>
-    </row>
-    <row r="33" spans="1:9" ht="45" customHeight="1">
-      <c r="A33" s="36" t="s">
+      <c r="B33" s="44"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="175"/>
+      <c r="E33" s="176"/>
+      <c r="F33" s="194"/>
+      <c r="G33" s="176"/>
+      <c r="H33" s="45"/>
+      <c r="I33" s="46"/>
+      <c r="J33" s="177"/>
+      <c r="K33" s="21"/>
+    </row>
+    <row r="34" spans="1:11" ht="45" customHeight="1">
+      <c r="A34" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="47"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="178" t="s">
-        <v>47</v>
-      </c>
-      <c r="E33" s="179"/>
-      <c r="F33" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G33" s="49"/>
-      <c r="H33" s="177"/>
-      <c r="I33" s="21"/>
-    </row>
-    <row r="34" spans="1:9" ht="45" customHeight="1">
-      <c r="A34" s="36" t="s">
+      <c r="B34" s="47"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="178"/>
+      <c r="E34" s="179"/>
+      <c r="F34" s="195"/>
+      <c r="G34" s="179"/>
+      <c r="H34" s="48"/>
+      <c r="I34" s="49"/>
+      <c r="J34" s="177"/>
+      <c r="K34" s="21"/>
+    </row>
+    <row r="35" spans="1:11" ht="45" customHeight="1">
+      <c r="A35" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="178" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="179"/>
-      <c r="F34" s="48" t="s">
-        <v>45</v>
-      </c>
-      <c r="G34" s="49"/>
-      <c r="H34" s="177"/>
-      <c r="I34" s="21"/>
-    </row>
-    <row r="35" spans="1:9" ht="45" customHeight="1" thickBot="1">
-      <c r="A35" s="51"/>
-      <c r="B35" s="52"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="21"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="54"/>
-      <c r="F35" s="54"/>
-      <c r="G35" s="55"/>
-      <c r="H35" s="177"/>
-      <c r="I35" s="20"/>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" customHeight="1">
-      <c r="A36" s="20"/>
-      <c r="B36" s="180"/>
+      <c r="D35" s="178"/>
+      <c r="E35" s="179"/>
+      <c r="F35" s="195"/>
+      <c r="G35" s="179"/>
+      <c r="H35" s="48"/>
+      <c r="I35" s="49"/>
+      <c r="J35" s="177"/>
+      <c r="K35" s="21"/>
+    </row>
+    <row r="36" spans="1:11" ht="45" customHeight="1" thickBot="1">
+      <c r="A36" s="51"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="21"/>
-      <c r="D36" s="56"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="56"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="21"/>
-    </row>
-    <row r="37" spans="1:9" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A37" s="22"/>
-      <c r="B37" s="21"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="55"/>
+      <c r="J36" s="177"/>
+      <c r="K36" s="20"/>
+    </row>
+    <row r="37" spans="1:11" ht="25.5" customHeight="1">
+      <c r="A37" s="20"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
-      <c r="E37" s="22"/>
-      <c r="F37" s="22"/>
-      <c r="G37" s="21"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="56"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="21"/>
       <c r="I37" s="21"/>
     </row>
-    <row r="38" spans="1:9" ht="26.25">
-      <c r="A38" s="131" t="s">
-        <v>46</v>
-      </c>
-      <c r="B38" s="132"/>
-      <c r="C38" s="132"/>
-      <c r="D38" s="133"/>
-      <c r="E38" s="133"/>
-      <c r="F38" s="133"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="132"/>
-      <c r="I38" s="110"/>
-    </row>
-    <row r="39" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A39" s="130"/>
-      <c r="B39" s="187"/>
-      <c r="C39" s="187"/>
-      <c r="D39" s="187"/>
-      <c r="E39" s="187"/>
-      <c r="F39" s="187"/>
-      <c r="G39" s="187"/>
-      <c r="H39" s="187"/>
-      <c r="I39" s="111"/>
-    </row>
-    <row r="40" spans="1:9" ht="50.25" customHeight="1">
+    <row r="38" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
+      <c r="A38" s="22"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="22"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="21"/>
+    </row>
+    <row r="39" spans="1:11" ht="26.25">
+      <c r="A39" s="131" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="132"/>
+      <c r="C39" s="132"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="132"/>
+      <c r="I39" s="110"/>
+    </row>
+    <row r="40" spans="1:11" ht="50.25" customHeight="1">
       <c r="A40" s="130"/>
-      <c r="B40" s="187"/>
-      <c r="C40" s="187"/>
-      <c r="D40" s="187"/>
-      <c r="E40" s="187"/>
-      <c r="F40" s="187"/>
-      <c r="G40" s="187"/>
-      <c r="H40" s="187"/>
+      <c r="B40" s="188"/>
+      <c r="C40" s="188"/>
+      <c r="D40" s="188"/>
+      <c r="E40" s="188"/>
+      <c r="F40" s="188"/>
+      <c r="G40" s="188"/>
+      <c r="H40" s="188"/>
       <c r="I40" s="111"/>
     </row>
-    <row r="41" spans="1:9" ht="50.25" customHeight="1">
+    <row r="41" spans="1:11" ht="50.25" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="187"/>
-      <c r="C41" s="187"/>
-      <c r="D41" s="187"/>
-      <c r="E41" s="187"/>
-      <c r="F41" s="187"/>
-      <c r="G41" s="187"/>
-      <c r="H41" s="187"/>
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="188"/>
       <c r="I41" s="111"/>
     </row>
-    <row r="42" spans="1:9" ht="50.25" customHeight="1">
+    <row r="42" spans="1:11" ht="50.25" customHeight="1">
       <c r="A42" s="130"/>
-      <c r="B42" s="187"/>
-      <c r="C42" s="187"/>
-      <c r="D42" s="187"/>
-      <c r="E42" s="187"/>
-      <c r="F42" s="187"/>
-      <c r="G42" s="187"/>
-      <c r="H42" s="187"/>
+      <c r="B42" s="188"/>
+      <c r="C42" s="188"/>
+      <c r="D42" s="188"/>
+      <c r="E42" s="188"/>
+      <c r="F42" s="188"/>
+      <c r="G42" s="188"/>
+      <c r="H42" s="188"/>
       <c r="I42" s="111"/>
     </row>
-    <row r="43" spans="1:9" ht="12" customHeight="1" thickBot="1">
-      <c r="A43" s="112"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
-      <c r="D43" s="113"/>
-      <c r="E43" s="113"/>
-      <c r="F43" s="113"/>
-      <c r="G43" s="113"/>
-      <c r="H43" s="113"/>
-      <c r="I43" s="114"/>
+    <row r="43" spans="1:11" ht="50.25" customHeight="1">
+      <c r="A43" s="130"/>
+      <c r="B43" s="188"/>
+      <c r="C43" s="188"/>
+      <c r="D43" s="188"/>
+      <c r="E43" s="188"/>
+      <c r="F43" s="188"/>
+      <c r="G43" s="188"/>
+      <c r="H43" s="188"/>
+      <c r="I43" s="111"/>
+    </row>
+    <row r="44" spans="1:11" ht="12" customHeight="1" thickBot="1">
+      <c r="A44" s="112"/>
+      <c r="B44" s="113"/>
+      <c r="C44" s="113"/>
+      <c r="D44" s="113"/>
+      <c r="E44" s="113"/>
+      <c r="F44" s="113"/>
+      <c r="G44" s="113"/>
+      <c r="H44" s="113"/>
+      <c r="I44" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -23783,7 +23819,7 @@
     <mergeCell ref="F4:I5"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B39:H42"/>
+    <mergeCell ref="B40:H43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>
@@ -23902,61 +23938,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A1" s="188" t="s">
-        <v>61</v>
-      </c>
-      <c r="B1" s="188"/>
-      <c r="C1" s="188"/>
+      <c r="A1" s="189" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="189"/>
+      <c r="C1" s="189"/>
       <c r="D1" s="69" t="s">
+        <v>54</v>
+      </c>
+      <c r="E1" s="69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="69" t="s">
         <v>56</v>
-      </c>
-      <c r="E1" s="69" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="69" t="s">
-        <v>58</v>
       </c>
       <c r="H1" s="58"/>
       <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="188"/>
-      <c r="B2" s="188"/>
-      <c r="C2" s="188"/>
+      <c r="A2" s="189"/>
+      <c r="B2" s="189"/>
+      <c r="C2" s="189"/>
       <c r="D2" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="60" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="60" t="s">
         <v>62</v>
-      </c>
-      <c r="E2" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="60" t="s">
-        <v>64</v>
       </c>
       <c r="H2" s="61"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
       <c r="A3" s="62" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="62" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="62" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="D3" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="E3" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>69</v>
-      </c>
       <c r="F3" s="78" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" thickBot="1">
       <c r="D4" s="77" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E4" s="63"/>
       <c r="G4" s="63"/>
@@ -23974,7 +24010,7 @@
     </row>
     <row r="6" spans="1:10" ht="23.25">
       <c r="A6" s="75" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
@@ -23996,7 +24032,7 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" thickBot="1">
       <c r="A8" s="136" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="66"/>
@@ -24018,7 +24054,7 @@
     </row>
     <row r="10" spans="1:10" ht="16.5" thickBot="1">
       <c r="A10" s="88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="86"/>
       <c r="C10" s="86"/>
@@ -24030,7 +24066,7 @@
     </row>
     <row r="11" spans="1:10" ht="18.75">
       <c r="A11" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="80"/>
       <c r="C11" s="80"/>
@@ -24052,7 +24088,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="83"/>
       <c r="C13" s="83"/>
@@ -24074,7 +24110,7 @@
     </row>
     <row r="15" spans="1:10" ht="18.75">
       <c r="A15" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
@@ -24095,7 +24131,7 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B17" s="71"/>
       <c r="C17" s="71"/>
@@ -24115,7 +24151,7 @@
     </row>
     <row r="19" spans="1:8" ht="18.75">
       <c r="A19" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" s="80"/>
       <c r="C19" s="80"/>
@@ -24136,7 +24172,7 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B21" s="71"/>
       <c r="C21" s="71"/>
@@ -24156,7 +24192,7 @@
     </row>
     <row r="23" spans="1:8" ht="18.75">
       <c r="A23" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B23" s="80"/>
       <c r="C23" s="80"/>
@@ -24177,7 +24213,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B25" s="71"/>
       <c r="C25" s="71"/>
@@ -24197,7 +24233,7 @@
     </row>
     <row r="27" spans="1:8" s="68" customFormat="1" ht="18.75">
       <c r="A27" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B27" s="80"/>
       <c r="C27" s="80"/>
@@ -24218,7 +24254,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="71"/>
       <c r="C29" s="71"/>
@@ -24238,7 +24274,7 @@
     </row>
     <row r="31" spans="1:8" ht="18.75">
       <c r="A31" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B31" s="80"/>
       <c r="C31" s="80"/>
@@ -24259,7 +24295,7 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B33" s="71"/>
       <c r="C33" s="71"/>
@@ -24279,7 +24315,7 @@
     </row>
     <row r="35" spans="1:8" ht="18.75">
       <c r="A35" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B35" s="80"/>
       <c r="C35" s="80"/>
@@ -24300,7 +24336,7 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B37" s="71"/>
       <c r="C37" s="71"/>
@@ -24320,7 +24356,7 @@
     </row>
     <row r="39" spans="1:8" ht="18.75">
       <c r="A39" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B39" s="80"/>
       <c r="C39" s="80"/>
@@ -24341,7 +24377,7 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B41" s="71"/>
       <c r="C41" s="71"/>
@@ -24361,7 +24397,7 @@
     </row>
     <row r="43" spans="1:8" ht="18.75">
       <c r="A43" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B43" s="80"/>
       <c r="C43" s="80"/>
@@ -24382,7 +24418,7 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B45" s="71"/>
       <c r="C45" s="71"/>
@@ -24402,7 +24438,7 @@
     </row>
     <row r="47" spans="1:8" ht="18.75">
       <c r="A47" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B47" s="80"/>
       <c r="C47" s="80"/>
@@ -24423,7 +24459,7 @@
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B49" s="71"/>
       <c r="C49" s="71"/>
@@ -24443,7 +24479,7 @@
     </row>
     <row r="51" spans="1:8" ht="18.75">
       <c r="A51" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -24464,7 +24500,7 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B53" s="71"/>
       <c r="C53" s="71"/>
@@ -24484,7 +24520,7 @@
     </row>
     <row r="55" spans="1:8" ht="18.75">
       <c r="A55" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -24505,7 +24541,7 @@
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B57" s="71"/>
       <c r="C57" s="71"/>
@@ -24525,7 +24561,7 @@
     </row>
     <row r="59" spans="1:8" ht="18.75">
       <c r="A59" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B59" s="80"/>
       <c r="C59" s="80"/>
@@ -24546,7 +24582,7 @@
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B61" s="71"/>
       <c r="C61" s="71"/>
@@ -24566,7 +24602,7 @@
     </row>
     <row r="63" spans="1:8" ht="18.75">
       <c r="A63" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B63" s="80"/>
       <c r="C63" s="80"/>
@@ -24587,7 +24623,7 @@
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B65" s="71"/>
       <c r="C65" s="71"/>
@@ -24607,7 +24643,7 @@
     </row>
     <row r="67" spans="1:8" ht="18.75">
       <c r="A67" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B67" s="80"/>
       <c r="C67" s="80"/>
@@ -24628,7 +24664,7 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B69" s="71"/>
       <c r="C69" s="71"/>
@@ -24648,7 +24684,7 @@
     </row>
     <row r="71" spans="1:8" ht="18.75">
       <c r="A71" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B71" s="80"/>
       <c r="C71" s="80"/>
@@ -24670,7 +24706,7 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B73" s="83"/>
       <c r="C73" s="83"/>
@@ -24692,7 +24728,7 @@
     </row>
     <row r="75" spans="1:8" ht="18.75">
       <c r="A75" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B75" s="80"/>
       <c r="C75" s="80"/>
@@ -24713,7 +24749,7 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B77" s="71"/>
       <c r="C77" s="71"/>
@@ -24733,7 +24769,7 @@
     </row>
     <row r="79" spans="1:8" ht="18.75">
       <c r="A79" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B79" s="80"/>
       <c r="C79" s="80"/>
@@ -24754,7 +24790,7 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B81" s="71"/>
       <c r="C81" s="71"/>
@@ -24774,7 +24810,7 @@
     </row>
     <row r="83" spans="1:8" ht="18.75">
       <c r="A83" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B83" s="80"/>
       <c r="C83" s="80"/>
@@ -24795,7 +24831,7 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B85" s="71"/>
       <c r="C85" s="71"/>
@@ -24815,7 +24851,7 @@
     </row>
     <row r="87" spans="1:8" ht="18.75">
       <c r="A87" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B87" s="80"/>
       <c r="C87" s="80"/>
@@ -24837,7 +24873,7 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B89" s="83"/>
       <c r="C89" s="83"/>
@@ -24859,7 +24895,7 @@
     </row>
     <row r="91" spans="1:8" ht="18.75">
       <c r="A91" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B91" s="80"/>
       <c r="C91" s="80"/>
@@ -24881,7 +24917,7 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B93" s="83"/>
       <c r="C93" s="83"/>
@@ -24903,7 +24939,7 @@
     </row>
     <row r="95" spans="1:8" ht="18.75">
       <c r="A95" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B95" s="80"/>
       <c r="C95" s="80"/>
@@ -24925,7 +24961,7 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B97" s="83"/>
       <c r="C97" s="83"/>
@@ -24947,7 +24983,7 @@
     </row>
     <row r="99" spans="1:8" ht="18.75">
       <c r="A99" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B99" s="80"/>
       <c r="C99" s="80"/>
@@ -24969,7 +25005,7 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B101" s="83"/>
       <c r="C101" s="83"/>
@@ -24991,7 +25027,7 @@
     </row>
     <row r="103" spans="1:8" ht="18.75">
       <c r="A103" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B103" s="80"/>
       <c r="C103" s="80"/>
@@ -25013,7 +25049,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B105" s="83"/>
       <c r="C105" s="83"/>
@@ -25035,7 +25071,7 @@
     </row>
     <row r="107" spans="1:8" ht="18.75">
       <c r="A107" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B107" s="80"/>
       <c r="C107" s="80"/>
@@ -25057,7 +25093,7 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B109" s="83"/>
       <c r="C109" s="83"/>
@@ -25079,7 +25115,7 @@
     </row>
     <row r="111" spans="1:8" ht="18.75">
       <c r="A111" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B111" s="80"/>
       <c r="C111" s="80"/>
@@ -25101,7 +25137,7 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B113" s="83"/>
       <c r="C113" s="83"/>
@@ -25123,7 +25159,7 @@
     </row>
     <row r="115" spans="1:8" ht="18.75">
       <c r="A115" s="79" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B115" s="80"/>
       <c r="C115" s="80"/>
@@ -25145,7 +25181,7 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="100" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B117" s="83"/>
       <c r="C117" s="83"/>
@@ -25215,7 +25251,7 @@
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
       <c r="A2" s="88" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B2" s="86"/>
       <c r="C2" s="93"/>
@@ -25228,7 +25264,7 @@
     </row>
     <row r="3" spans="1:9" ht="23.25">
       <c r="A3" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B3" s="90"/>
       <c r="C3" s="94"/>
@@ -25252,10 +25288,10 @@
     </row>
     <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B5" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C5" s="95"/>
       <c r="D5" s="91"/>
@@ -25267,49 +25303,49 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="102" t="s">
+      <c r="D6" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E6" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G6" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="102" t="s">
+      <c r="H6" s="91" t="s">
         <v>78</v>
-      </c>
-      <c r="F6" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H6" s="91" t="s">
-        <v>80</v>
       </c>
       <c r="I6" s="67"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
       <c r="A7" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B7" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C7" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D7" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E7" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="E7" s="103" t="s">
-        <v>83</v>
-      </c>
       <c r="F7" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G7" s="92"/>
       <c r="H7" s="98"/>
@@ -25317,7 +25353,7 @@
     </row>
     <row r="8" spans="1:9" ht="23.25">
       <c r="A8" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B8" s="90"/>
       <c r="C8" s="94"/>
@@ -25341,10 +25377,10 @@
     </row>
     <row r="10" spans="1:9" ht="18.75">
       <c r="A10" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B10" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C10" s="95"/>
       <c r="D10" s="91"/>
@@ -25356,49 +25392,49 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B11" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C11" s="102" t="s">
+      <c r="D11" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G11" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D11" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" s="102" t="s">
+      <c r="H11" s="91" t="s">
         <v>78</v>
-      </c>
-      <c r="F11" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H11" s="91" t="s">
-        <v>80</v>
       </c>
       <c r="I11" s="67"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
       <c r="A12" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D12" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E12" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="103" t="s">
-        <v>83</v>
-      </c>
       <c r="F12" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G12" s="92"/>
       <c r="H12" s="98"/>
@@ -25406,7 +25442,7 @@
     </row>
     <row r="13" spans="1:9" ht="23.25">
       <c r="A13" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B13" s="90"/>
       <c r="C13" s="94"/>
@@ -25430,10 +25466,10 @@
     </row>
     <row r="15" spans="1:9" ht="18.75">
       <c r="A15" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B15" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C15" s="95"/>
       <c r="D15" s="91"/>
@@ -25445,49 +25481,49 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B16" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C16" s="102" t="s">
+      <c r="D16" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E16" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G16" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D16" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" s="102" t="s">
+      <c r="H16" s="91" t="s">
         <v>78</v>
-      </c>
-      <c r="F16" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G16" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H16" s="91" t="s">
-        <v>80</v>
       </c>
       <c r="I16" s="67"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
       <c r="A17" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B17" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C17" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D17" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="E17" s="103" t="s">
-        <v>83</v>
-      </c>
       <c r="F17" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G17" s="92"/>
       <c r="H17" s="98"/>
@@ -25495,7 +25531,7 @@
     </row>
     <row r="18" spans="1:9" ht="23.25">
       <c r="A18" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B18" s="90"/>
       <c r="C18" s="94"/>
@@ -25519,10 +25555,10 @@
     </row>
     <row r="20" spans="1:9" ht="18.75">
       <c r="A20" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B20" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C20" s="95"/>
       <c r="D20" s="91"/>
@@ -25534,49 +25570,49 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C21" s="102" t="s">
+      <c r="D21" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E21" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F21" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D21" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" s="102" t="s">
+      <c r="H21" s="91" t="s">
         <v>78</v>
-      </c>
-      <c r="F21" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G21" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="91" t="s">
-        <v>80</v>
       </c>
       <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
       <c r="A22" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B22" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C22" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D22" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="E22" s="103" t="s">
-        <v>83</v>
-      </c>
       <c r="F22" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G22" s="92"/>
       <c r="H22" s="98"/>
@@ -25584,7 +25620,7 @@
     </row>
     <row r="23" spans="1:9" ht="23.25">
       <c r="A23" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B23" s="90"/>
       <c r="C23" s="94"/>
@@ -25608,10 +25644,10 @@
     </row>
     <row r="25" spans="1:9" ht="18.75">
       <c r="A25" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B25" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C25" s="95"/>
       <c r="D25" s="91"/>
@@ -25623,49 +25659,49 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B26" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="102" t="s">
+      <c r="D26" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E26" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G26" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D26" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="102" t="s">
+      <c r="H26" s="91" t="s">
         <v>78</v>
-      </c>
-      <c r="F26" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G26" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H26" s="91" t="s">
-        <v>80</v>
       </c>
       <c r="I26" s="67"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1">
       <c r="A27" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B27" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C27" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D27" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="E27" s="103" t="s">
-        <v>83</v>
-      </c>
       <c r="F27" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G27" s="92"/>
       <c r="H27" s="98"/>
@@ -25673,7 +25709,7 @@
     </row>
     <row r="28" spans="1:9" ht="23.25">
       <c r="A28" s="99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B28" s="90"/>
       <c r="C28" s="94"/>
@@ -25697,10 +25733,10 @@
     </row>
     <row r="30" spans="1:9" ht="18.75">
       <c r="A30" s="65" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B30" s="107" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C30" s="95"/>
       <c r="D30" s="91"/>
@@ -25712,49 +25748,49 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" s="100" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="91" t="s">
+        <v>59</v>
+      </c>
+      <c r="C31" s="102" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="91" t="s">
-        <v>61</v>
-      </c>
-      <c r="C31" s="102" t="s">
+      <c r="D31" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" s="102" t="s">
+        <v>76</v>
+      </c>
+      <c r="F31" s="91" t="s">
+        <v>78</v>
+      </c>
+      <c r="G31" s="104" t="s">
         <v>77</v>
       </c>
-      <c r="D31" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="E31" s="102" t="s">
+      <c r="H31" s="91" t="s">
         <v>78</v>
-      </c>
-      <c r="F31" s="91" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="104" t="s">
-        <v>79</v>
-      </c>
-      <c r="H31" s="91" t="s">
-        <v>80</v>
       </c>
       <c r="I31" s="67"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
       <c r="A32" s="101" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B32" s="92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C32" s="103" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D32" s="105" t="s">
+        <v>79</v>
+      </c>
+      <c r="E32" s="103" t="s">
         <v>81</v>
       </c>
-      <c r="E32" s="103" t="s">
-        <v>83</v>
-      </c>
       <c r="F32" s="105" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="G32" s="92"/>
       <c r="H32" s="98"/>

--- a/BRS_templates.xlsx
+++ b/BRS_templates.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\profiles\tschmal\python\plugins\brsgis_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C912C954-2462-418C-BFDA-0AC5352F3DCB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB1FE6-16DE-44AD-BFCA-8B6A7D18BC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -338,6 +338,9 @@
   <si>
     <t>Paid</t>
   </si>
+  <si>
+    <t>Job Subtype</t>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +349,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="49">
+  <fonts count="50">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -670,6 +673,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1239,7 +1249,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="196">
+  <cellXfs count="197">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1727,32 +1737,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1771,6 +1755,36 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -23148,7 +23162,9 @@
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
@@ -23176,10 +23192,10 @@
       <c r="B1" s="137">
         <v>43220</v>
       </c>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="192" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="186"/>
+      <c r="D1" s="192"/>
       <c r="E1" s="22"/>
       <c r="F1" s="22"/>
       <c r="G1" s="21"/>
@@ -23197,8 +23213,8 @@
       <c r="B2" s="137">
         <v>43311</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="186"/>
+      <c r="C2" s="192"/>
+      <c r="D2" s="192"/>
       <c r="E2" s="22"/>
       <c r="F2" s="22"/>
       <c r="G2" s="20"/>
@@ -23212,8 +23228,10 @@
     <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1">
       <c r="A3" s="124"/>
       <c r="B3" s="124"/>
-      <c r="C3" s="124"/>
-      <c r="D3" s="124"/>
+      <c r="C3" s="196" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="196"/>
       <c r="E3" s="124"/>
       <c r="F3" s="125"/>
       <c r="G3" s="125"/>
@@ -23226,12 +23244,12 @@
       <c r="C4" s="139"/>
       <c r="D4" s="140"/>
       <c r="E4" s="141"/>
-      <c r="F4" s="183" t="s">
+      <c r="F4" s="189" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
+      <c r="G4" s="190"/>
+      <c r="H4" s="190"/>
+      <c r="I4" s="190"/>
       <c r="J4" s="126"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
@@ -23246,20 +23264,20 @@
         <v>11</v>
       </c>
       <c r="E5" s="143"/>
-      <c r="F5" s="185"/>
-      <c r="G5" s="184"/>
-      <c r="H5" s="184"/>
-      <c r="I5" s="184"/>
+      <c r="F5" s="191"/>
+      <c r="G5" s="190"/>
+      <c r="H5" s="190"/>
+      <c r="I5" s="190"/>
       <c r="J5" s="144"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
       <c r="A6" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="187" t="s">
+      <c r="B6" s="193" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="184"/>
+      <c r="C6" s="190"/>
       <c r="D6" s="26" t="s">
         <v>16</v>
       </c>
@@ -23519,14 +23537,14 @@
       <c r="C22" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="182" t="s">
+      <c r="D22" s="188" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="182"/>
-      <c r="F22" s="182"/>
-      <c r="G22" s="182"/>
-      <c r="H22" s="182"/>
-      <c r="I22" s="182"/>
+      <c r="E22" s="188"/>
+      <c r="F22" s="188"/>
+      <c r="G22" s="188"/>
+      <c r="H22" s="188"/>
+      <c r="I22" s="188"/>
       <c r="J22" s="171"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
@@ -23635,12 +23653,12 @@
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
-      <c r="D31" s="190" t="s">
+      <c r="D31" s="182" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="191"/>
-      <c r="F31" s="191"/>
-      <c r="G31" s="192" t="s">
+      <c r="E31" s="183"/>
+      <c r="F31" s="183"/>
+      <c r="G31" s="184" t="s">
         <v>100</v>
       </c>
       <c r="H31" s="21"/>
@@ -23657,7 +23675,7 @@
       <c r="F32" s="174" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="193" t="s">
+      <c r="G32" s="185" t="s">
         <v>49</v>
       </c>
       <c r="H32" s="22"/>
@@ -23673,7 +23691,7 @@
       <c r="C33" s="21"/>
       <c r="D33" s="175"/>
       <c r="E33" s="176"/>
-      <c r="F33" s="194"/>
+      <c r="F33" s="186"/>
       <c r="G33" s="176"/>
       <c r="H33" s="45"/>
       <c r="I33" s="46"/>
@@ -23688,7 +23706,7 @@
       <c r="C34" s="21"/>
       <c r="D34" s="178"/>
       <c r="E34" s="179"/>
-      <c r="F34" s="195"/>
+      <c r="F34" s="187"/>
       <c r="G34" s="179"/>
       <c r="H34" s="48"/>
       <c r="I34" s="49"/>
@@ -23703,7 +23721,7 @@
       <c r="C35" s="21"/>
       <c r="D35" s="178"/>
       <c r="E35" s="179"/>
-      <c r="F35" s="195"/>
+      <c r="F35" s="187"/>
       <c r="G35" s="179"/>
       <c r="H35" s="48"/>
       <c r="I35" s="49"/>
@@ -23760,46 +23778,46 @@
     </row>
     <row r="40" spans="1:11" ht="50.25" customHeight="1">
       <c r="A40" s="130"/>
-      <c r="B40" s="188"/>
-      <c r="C40" s="188"/>
-      <c r="D40" s="188"/>
-      <c r="E40" s="188"/>
-      <c r="F40" s="188"/>
-      <c r="G40" s="188"/>
-      <c r="H40" s="188"/>
+      <c r="B40" s="194"/>
+      <c r="C40" s="194"/>
+      <c r="D40" s="194"/>
+      <c r="E40" s="194"/>
+      <c r="F40" s="194"/>
+      <c r="G40" s="194"/>
+      <c r="H40" s="194"/>
       <c r="I40" s="111"/>
     </row>
     <row r="41" spans="1:11" ht="50.25" customHeight="1">
       <c r="A41" s="130"/>
-      <c r="B41" s="188"/>
-      <c r="C41" s="188"/>
-      <c r="D41" s="188"/>
-      <c r="E41" s="188"/>
-      <c r="F41" s="188"/>
-      <c r="G41" s="188"/>
-      <c r="H41" s="188"/>
+      <c r="B41" s="194"/>
+      <c r="C41" s="194"/>
+      <c r="D41" s="194"/>
+      <c r="E41" s="194"/>
+      <c r="F41" s="194"/>
+      <c r="G41" s="194"/>
+      <c r="H41" s="194"/>
       <c r="I41" s="111"/>
     </row>
     <row r="42" spans="1:11" ht="50.25" customHeight="1">
       <c r="A42" s="130"/>
-      <c r="B42" s="188"/>
-      <c r="C42" s="188"/>
-      <c r="D42" s="188"/>
-      <c r="E42" s="188"/>
-      <c r="F42" s="188"/>
-      <c r="G42" s="188"/>
-      <c r="H42" s="188"/>
+      <c r="B42" s="194"/>
+      <c r="C42" s="194"/>
+      <c r="D42" s="194"/>
+      <c r="E42" s="194"/>
+      <c r="F42" s="194"/>
+      <c r="G42" s="194"/>
+      <c r="H42" s="194"/>
       <c r="I42" s="111"/>
     </row>
     <row r="43" spans="1:11" ht="50.25" customHeight="1">
       <c r="A43" s="130"/>
-      <c r="B43" s="188"/>
-      <c r="C43" s="188"/>
-      <c r="D43" s="188"/>
-      <c r="E43" s="188"/>
-      <c r="F43" s="188"/>
-      <c r="G43" s="188"/>
-      <c r="H43" s="188"/>
+      <c r="B43" s="194"/>
+      <c r="C43" s="194"/>
+      <c r="D43" s="194"/>
+      <c r="E43" s="194"/>
+      <c r="F43" s="194"/>
+      <c r="G43" s="194"/>
+      <c r="H43" s="194"/>
       <c r="I43" s="111"/>
     </row>
     <row r="44" spans="1:11" ht="12" customHeight="1" thickBot="1">
@@ -23814,12 +23832,13 @@
       <c r="I44" s="114"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="D22:I22"/>
     <mergeCell ref="F4:I5"/>
     <mergeCell ref="C1:D2"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="B40:H43"/>
+    <mergeCell ref="C3:D3"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0" bottom="0" header="0" footer="0"/>
@@ -23938,11 +23957,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A1" s="189" t="s">
+      <c r="A1" s="195" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="189"/>
-      <c r="C1" s="189"/>
+      <c r="B1" s="195"/>
+      <c r="C1" s="195"/>
       <c r="D1" s="69" t="s">
         <v>54</v>
       </c>
@@ -23956,9 +23975,9 @@
       <c r="J1" s="59"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="189"/>
-      <c r="B2" s="189"/>
-      <c r="C2" s="189"/>
+      <c r="A2" s="195"/>
+      <c r="B2" s="195"/>
+      <c r="C2" s="195"/>
       <c r="D2" s="60" t="s">
         <v>60</v>
       </c>

--- a/BRS_templates.xlsx
+++ b/BRS_templates.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\profiles\tschmal\python\plugins\brsgis_plugin\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\0 - Settings\GIS\QGIS\Plugins\profiles\DEV\python\plugins\brsgis_plugin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59BB1FE6-16DE-44AD-BFCA-8B6A7D18BC40}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9930925E-4177-43DE-9FF6-85AA0ABB9DFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{C952D93D-CD69-45D6-8D7B-3EA4C24FE3A8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="face" sheetId="2" r:id="rId1"/>
@@ -24,17 +24,26 @@
     <definedName name="_xlnm.Print_Area" localSheetId="2">label!$A$1:$A$20</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">yellow!$A$1:$J$44</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="104">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -341,6 +350,12 @@
   <si>
     <t>Job Subtype</t>
   </si>
+  <si>
+    <t>LOCUS ADDR</t>
+  </si>
+  <si>
+    <t>All Deeds:</t>
+  </si>
 </sst>
 </file>
 
@@ -349,7 +364,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\.mm\.dd"/>
   </numFmts>
-  <fonts count="50">
+  <fonts count="51">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -409,11 +424,6 @@
     <font>
       <b/>
       <sz val="18"/>
-      <name val="Open Sans"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
       <name val="Open Sans"/>
     </font>
     <font>
@@ -653,21 +663,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="30"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="30"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -681,6 +676,31 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -690,7 +710,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="50">
     <border>
       <left/>
       <right/>
@@ -1165,15 +1185,6 @@
     </border>
     <border>
       <left/>
-      <right style="thick">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="thin">
         <color indexed="64"/>
@@ -1242,14 +1253,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="197">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
@@ -1258,82 +1289,51 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="17" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="17" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="17" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
@@ -1341,138 +1341,162 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="18" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="15" fontId="17" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="18" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="42" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
@@ -1482,7 +1506,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1491,44 +1515,44 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="3" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1536,6 +1560,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1547,252 +1574,281 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="15" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" indent="4"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="15" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="28" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" indent="4"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="15" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="19" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="48" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="49" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{3D495F47-B8BD-446D-8671-D7DAE69921B7}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{D647A84A-D9AA-49EC-BA7B-C6D96F33E8C0}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2103,16 +2159,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6BE71ED-0B08-48EE-BD4C-BF5E4D71B6C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:S1000"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
-    </sheetView>
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -2169,7 +2223,7 @@
       <c r="S2" s="2"/>
     </row>
     <row r="3" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="180" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2"/>
@@ -2192,7 +2246,7 @@
       <c r="S3" s="2"/>
     </row>
     <row r="4" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="2"/>
@@ -2215,7 +2269,7 @@
       <c r="S4" s="2"/>
     </row>
     <row r="5" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A5" s="6"/>
+      <c r="A5" s="5"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -2236,7 +2290,7 @@
       <c r="S5" s="2"/>
     </row>
     <row r="6" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="2"/>
@@ -2259,7 +2313,7 @@
       <c r="S6" s="2"/>
     </row>
     <row r="7" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="2"/>
@@ -2282,7 +2336,7 @@
       <c r="S7" s="2"/>
     </row>
     <row r="8" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A8" s="8"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -2324,7 +2378,7 @@
       <c r="S9" s="2"/>
     </row>
     <row r="10" spans="1:19" ht="18" customHeight="1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2"/>
@@ -2347,7 +2401,7 @@
       <c r="S10" s="2"/>
     </row>
     <row r="11" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A11" s="10"/>
+      <c r="A11" s="9"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
@@ -2368,7 +2422,7 @@
       <c r="S11" s="2"/>
     </row>
     <row r="12" spans="1:19" ht="18" customHeight="1">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="10" t="s">
         <v>6</v>
       </c>
       <c r="B12" s="2"/>
@@ -2391,7 +2445,7 @@
       <c r="S12" s="2"/>
     </row>
     <row r="13" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A13" s="12"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -2412,7 +2466,7 @@
       <c r="S13" s="2"/>
     </row>
     <row r="14" spans="1:19" ht="20.25" customHeight="1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="12" t="s">
         <v>7</v>
       </c>
       <c r="B14" s="2"/>
@@ -2435,7 +2489,7 @@
       <c r="S14" s="2"/>
     </row>
     <row r="15" spans="1:19" ht="60" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>8</v>
       </c>
       <c r="B15" s="2"/>
@@ -2458,7 +2512,7 @@
       <c r="S15" s="2"/>
     </row>
     <row r="16" spans="1:19" ht="18" customHeight="1">
-      <c r="A16" s="15"/>
+      <c r="A16" s="14"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -2523,7 +2577,7 @@
       <c r="S18" s="2"/>
     </row>
     <row r="19" spans="1:19" ht="21" customHeight="1">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>10</v>
       </c>
       <c r="B19" s="2"/>
@@ -2546,7 +2600,7 @@
       <c r="S19" s="2"/>
     </row>
     <row r="20" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A20" s="17">
+      <c r="A20" s="16">
         <v>43216</v>
       </c>
       <c r="B20" s="2"/>
@@ -2569,7 +2623,7 @@
       <c r="S20" s="2"/>
     </row>
     <row r="21" spans="1:19" ht="14.25" customHeight="1">
-      <c r="A21" s="16"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -23155,681 +23209,681 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2AD2617-A5EA-4DE2-9A11-C63F56403294}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.5" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="38" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.5703125" style="18" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.5703125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="1.140625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="29.7109375" style="19" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="18" customWidth="1"/>
-    <col min="8" max="8" width="9.5703125" style="18" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="18" customWidth="1"/>
-    <col min="10" max="10" width="1.28515625" style="18" customWidth="1"/>
-    <col min="11" max="11" width="9.28515625" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" style="18" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="18"/>
-    <col min="14" max="14" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="1" width="38" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.5703125" style="17" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="17" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="1.140625" style="18" customWidth="1"/>
+    <col min="6" max="6" width="29.7109375" style="18" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="17" customWidth="1"/>
+    <col min="8" max="8" width="9.5703125" style="17" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="17" customWidth="1"/>
+    <col min="10" max="10" width="1.28515625" style="17" customWidth="1"/>
+    <col min="11" max="11" width="9.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" style="17" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="17"/>
+    <col min="14" max="14" width="14.42578125" style="17" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="36" customHeight="1">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="137">
+      <c r="B1" s="128">
         <v>43220</v>
       </c>
-      <c r="C1" s="192" t="s">
+      <c r="C1" s="195" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="192"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="20" t="s">
+      <c r="D1" s="195"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="114" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="36" customHeight="1">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="137">
+      <c r="B2" s="128">
         <v>43311</v>
       </c>
-      <c r="C2" s="192"/>
-      <c r="D2" s="192"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20" t="s">
+      <c r="C2" s="195"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="I2" s="121">
+      <c r="I2" s="114">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A3" s="124"/>
-      <c r="B3" s="124"/>
-      <c r="C3" s="196" t="s">
+      <c r="A3" s="117"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="198" t="s">
         <v>101</v>
       </c>
-      <c r="D3" s="196"/>
-      <c r="E3" s="124"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="118"/>
+      <c r="G3" s="118"/>
+      <c r="H3" s="118"/>
+      <c r="I3" s="118"/>
     </row>
     <row r="4" spans="1:11" ht="36" customHeight="1" thickTop="1">
-      <c r="A4" s="23"/>
-      <c r="B4" s="138"/>
-      <c r="C4" s="139"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="189" t="s">
+      <c r="A4" s="22"/>
+      <c r="B4" s="178"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="131"/>
+      <c r="F4" s="192" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="190"/>
-      <c r="H4" s="190"/>
-      <c r="I4" s="190"/>
-      <c r="J4" s="126"/>
+      <c r="G4" s="193"/>
+      <c r="H4" s="193"/>
+      <c r="I4" s="193"/>
+      <c r="J4" s="119"/>
     </row>
     <row r="5" spans="1:11" ht="36" customHeight="1">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="134" t="s">
+      <c r="B5" s="179" t="s">
         <v>87</v>
       </c>
-      <c r="C5" s="142"/>
-      <c r="D5" s="26" t="s">
+      <c r="C5" s="132"/>
+      <c r="D5" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="143"/>
-      <c r="F5" s="191"/>
-      <c r="G5" s="190"/>
-      <c r="H5" s="190"/>
-      <c r="I5" s="190"/>
-      <c r="J5" s="144"/>
+      <c r="E5" s="133"/>
+      <c r="F5" s="194"/>
+      <c r="G5" s="193"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="134"/>
     </row>
     <row r="6" spans="1:11" ht="36" customHeight="1">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="193" t="s">
+      <c r="B6" s="196" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="190"/>
-      <c r="D6" s="26" t="s">
+      <c r="C6" s="193"/>
+      <c r="D6" s="25" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28" t="s">
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="29"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
       <c r="J6"/>
     </row>
     <row r="7" spans="1:11" ht="36" customHeight="1">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="145"/>
-      <c r="D7" s="26" t="s">
+      <c r="C7" s="135"/>
+      <c r="D7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28" t="s">
+      <c r="E7" s="26"/>
+      <c r="F7" s="27" t="s">
         <v>90</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="146"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="136"/>
     </row>
     <row r="8" spans="1:11" ht="36" customHeight="1">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="145"/>
-      <c r="D8" s="26" t="s">
+      <c r="C8" s="135"/>
+      <c r="D8" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
         <v>92</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="146"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="136"/>
     </row>
     <row r="9" spans="1:11" ht="36" customHeight="1">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="23" t="s">
         <v>93</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="C9" s="145"/>
-      <c r="D9" s="26" t="s">
+      <c r="C9" s="135"/>
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="147" t="s">
+      <c r="E9" s="26"/>
+      <c r="F9" s="137" t="s">
         <v>95</v>
       </c>
-      <c r="G9" s="147"/>
-      <c r="H9" s="147"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="146"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="138"/>
+      <c r="J9" s="136"/>
     </row>
     <row r="10" spans="1:11" ht="36" customHeight="1">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="26" t="s">
+      <c r="C10" s="132"/>
+      <c r="D10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="27"/>
-      <c r="F10" s="147" t="s">
+      <c r="E10" s="26"/>
+      <c r="F10" s="137" t="s">
         <v>97</v>
       </c>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
-      <c r="I10" s="148"/>
-      <c r="J10" s="149"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="138"/>
+      <c r="J10" s="139"/>
     </row>
     <row r="11" spans="1:11" ht="36" customHeight="1">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="145"/>
-      <c r="D11" s="26" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="135"/>
+      <c r="D11" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E11" s="150"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="147"/>
-      <c r="H11" s="147"/>
-      <c r="I11" s="148"/>
-      <c r="J11" s="149"/>
+      <c r="E11" s="140"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="139"/>
     </row>
     <row r="12" spans="1:11" ht="36" customHeight="1" thickBot="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="151"/>
-      <c r="C12" s="152"/>
-      <c r="D12" s="153" t="s">
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="143" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="154"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="147"/>
-      <c r="H12" s="147"/>
-      <c r="I12" s="148"/>
+      <c r="E12" s="144"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="138"/>
     </row>
     <row r="13" spans="1:11" ht="25.5" customHeight="1" thickTop="1">
-      <c r="A13" s="155"/>
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="157"/>
-      <c r="J13" s="158"/>
+      <c r="A13" s="145"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="147"/>
+      <c r="J13" s="148"/>
     </row>
     <row r="14" spans="1:11" ht="46.5">
-      <c r="A14" s="155"/>
-      <c r="B14" s="159"/>
-      <c r="C14" s="160" t="s">
+      <c r="A14" s="145"/>
+      <c r="B14" s="149"/>
+      <c r="C14" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="D14" s="156"/>
-      <c r="E14" s="156"/>
-      <c r="F14" s="156"/>
-      <c r="G14" s="156"/>
-      <c r="H14" s="156"/>
-      <c r="I14" s="157"/>
-      <c r="J14" s="158"/>
+      <c r="D14" s="146"/>
+      <c r="E14" s="146"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="146"/>
+      <c r="H14" s="146"/>
+      <c r="I14" s="147"/>
+      <c r="J14" s="148"/>
     </row>
     <row r="15" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A15" s="32"/>
-      <c r="B15" s="124" t="s">
+      <c r="A15" s="31"/>
+      <c r="B15" s="117" t="s">
         <v>47</v>
       </c>
-      <c r="C15" s="124" t="s">
+      <c r="C15" s="117" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="124" t="s">
+      <c r="D15" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="E15" s="124"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="162"/>
-      <c r="I15" s="35"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="151"/>
+      <c r="G15" s="151"/>
+      <c r="H15" s="152"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:11" ht="90" customHeight="1">
-      <c r="A16" s="122" t="s">
+      <c r="A16" s="115" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="163"/>
-      <c r="F16" s="33" t="s">
+      <c r="B16" s="36"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="153"/>
+      <c r="F16" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="34"/>
-      <c r="I16" s="35"/>
-      <c r="K16" s="164"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
+      <c r="K16" s="154"/>
     </row>
     <row r="17" spans="1:11" ht="90" customHeight="1" thickBot="1">
-      <c r="A17" s="122" t="s">
+      <c r="A17" s="115" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="163"/>
-      <c r="F17" s="165" t="s">
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="153"/>
+      <c r="F17" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="G17" s="161"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="35"/>
-      <c r="K17" s="166"/>
+      <c r="G17" s="151"/>
+      <c r="H17" s="120"/>
+      <c r="I17" s="34"/>
+      <c r="K17" s="156"/>
     </row>
     <row r="18" spans="1:11" ht="45" customHeight="1" thickTop="1">
-      <c r="A18" s="122" t="s">
+      <c r="A18" s="115" t="s">
         <v>30</v>
       </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="163"/>
-      <c r="F18" s="38" t="s">
+      <c r="B18" s="36"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="153"/>
+      <c r="F18" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="39"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="35"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="121"/>
+      <c r="I18" s="34"/>
     </row>
     <row r="19" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A19" s="122" t="s">
+      <c r="A19" s="115" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="163"/>
-      <c r="F19" s="129" t="s">
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="153"/>
+      <c r="F19" s="122" t="s">
         <v>50</v>
       </c>
-      <c r="G19" s="40"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="35"/>
-      <c r="K19" s="164"/>
+      <c r="G19" s="39"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="34"/>
+      <c r="K19" s="154"/>
     </row>
     <row r="20" spans="1:11" ht="25.5" customHeight="1" thickTop="1" thickBot="1">
-      <c r="A20" s="167"/>
-      <c r="B20" s="168"/>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="169"/>
+      <c r="A20" s="157"/>
+      <c r="B20" s="158"/>
+      <c r="C20" s="158"/>
+      <c r="D20" s="158"/>
+      <c r="E20" s="158"/>
+      <c r="F20" s="158"/>
+      <c r="G20" s="158"/>
+      <c r="H20" s="158"/>
+      <c r="I20" s="159"/>
     </row>
     <row r="21" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A21" s="170"/>
-      <c r="B21" s="170"/>
-      <c r="C21" s="170"/>
-      <c r="D21" s="170"/>
-      <c r="E21" s="170"/>
-      <c r="F21" s="170"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="170"/>
-      <c r="I21" s="170"/>
+      <c r="A21" s="160"/>
+      <c r="B21" s="160"/>
+      <c r="C21" s="160"/>
+      <c r="D21" s="160"/>
+      <c r="E21" s="160"/>
+      <c r="F21" s="160"/>
+      <c r="G21" s="160"/>
+      <c r="H21" s="160"/>
+      <c r="I21" s="160"/>
     </row>
     <row r="22" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A22" s="22"/>
-      <c r="B22" s="124" t="s">
+      <c r="A22" s="21"/>
+      <c r="B22" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="124" t="s">
+      <c r="C22" s="117" t="s">
         <v>53</v>
       </c>
-      <c r="D22" s="188" t="s">
+      <c r="D22" s="191" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="188"/>
-      <c r="F22" s="188"/>
-      <c r="G22" s="188"/>
-      <c r="H22" s="188"/>
-      <c r="I22" s="188"/>
-      <c r="J22" s="171"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="191"/>
+      <c r="G22" s="191"/>
+      <c r="H22" s="191"/>
+      <c r="I22" s="191"/>
+      <c r="J22" s="161"/>
     </row>
     <row r="23" spans="1:11" ht="45" customHeight="1">
-      <c r="A23" s="123" t="s">
+      <c r="A23" s="116" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="42"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="172"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="173"/>
+      <c r="B23" s="41"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="162"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="163"/>
     </row>
     <row r="24" spans="1:11" ht="45" customHeight="1">
-      <c r="A24" s="123" t="s">
+      <c r="A24" s="116" t="s">
         <v>35</v>
       </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="37"/>
-      <c r="D24" s="172"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="173"/>
+      <c r="B24" s="41"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="162"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="163"/>
     </row>
     <row r="25" spans="1:11" ht="45" customHeight="1">
-      <c r="A25" s="123" t="s">
+      <c r="A25" s="116" t="s">
         <v>36</v>
       </c>
-      <c r="B25" s="42"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="173"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="162"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="163"/>
     </row>
     <row r="26" spans="1:11" ht="45" customHeight="1">
-      <c r="A26" s="123" t="s">
+      <c r="A26" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="28"/>
-      <c r="I26" s="173"/>
+      <c r="B26" s="41"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="163"/>
     </row>
     <row r="27" spans="1:11" ht="45" customHeight="1">
-      <c r="A27" s="123" t="s">
+      <c r="A27" s="116" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="172"/>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="28"/>
-      <c r="I27" s="173"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="162"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="163"/>
     </row>
     <row r="28" spans="1:11" ht="45" customHeight="1">
-      <c r="A28" s="123" t="s">
+      <c r="A28" s="116" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="42"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="172"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="173"/>
+      <c r="B28" s="41"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="163"/>
     </row>
     <row r="29" spans="1:11" ht="45" customHeight="1">
-      <c r="A29" s="123" t="s">
+      <c r="A29" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B29" s="42"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="172"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="173"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="162"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="163"/>
     </row>
     <row r="30" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-    </row>
-    <row r="31" spans="1:11" s="181" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A31" s="21"/>
-      <c r="B31" s="21"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="182" t="s">
+      <c r="A30" s="20"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="20"/>
+    </row>
+    <row r="31" spans="1:11" s="171" customFormat="1" ht="25.5" customHeight="1">
+      <c r="A31" s="20"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="20"/>
+      <c r="D31" s="172" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="183"/>
-      <c r="F31" s="183"/>
-      <c r="G31" s="184" t="s">
+      <c r="E31" s="173"/>
+      <c r="F31" s="173"/>
+      <c r="G31" s="174" t="s">
         <v>100</v>
       </c>
-      <c r="H31" s="21"/>
-      <c r="I31" s="21"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="20"/>
     </row>
     <row r="32" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A32" s="22"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="174" t="s">
+      <c r="A32" s="21"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="E32" s="174"/>
-      <c r="F32" s="174" t="s">
+      <c r="E32" s="164"/>
+      <c r="F32" s="164" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="185" t="s">
+      <c r="G32" s="175" t="s">
         <v>49</v>
       </c>
-      <c r="H32" s="22"/>
-      <c r="I32" s="174" t="s">
+      <c r="H32" s="21"/>
+      <c r="I32" s="164" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="45" customHeight="1">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="175"/>
-      <c r="E33" s="176"/>
-      <c r="F33" s="186"/>
-      <c r="G33" s="176"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="46"/>
-      <c r="J33" s="177"/>
-      <c r="K33" s="21"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="165"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="176"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="44"/>
+      <c r="I33" s="45"/>
+      <c r="J33" s="167"/>
+      <c r="K33" s="20"/>
     </row>
     <row r="34" spans="1:11" ht="45" customHeight="1">
-      <c r="A34" s="36" t="s">
+      <c r="A34" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B34" s="47"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="178"/>
-      <c r="E34" s="179"/>
-      <c r="F34" s="187"/>
-      <c r="G34" s="179"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="177"/>
-      <c r="K34" s="21"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="169"/>
+      <c r="F34" s="177"/>
+      <c r="G34" s="169"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="48"/>
+      <c r="J34" s="167"/>
+      <c r="K34" s="20"/>
     </row>
     <row r="35" spans="1:11" ht="45" customHeight="1">
-      <c r="A35" s="36" t="s">
+      <c r="A35" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="178"/>
-      <c r="E35" s="179"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="179"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="177"/>
-      <c r="K35" s="21"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="168"/>
+      <c r="E35" s="169"/>
+      <c r="F35" s="177"/>
+      <c r="G35" s="169"/>
+      <c r="H35" s="47"/>
+      <c r="I35" s="48"/>
+      <c r="J35" s="167"/>
+      <c r="K35" s="20"/>
     </row>
     <row r="36" spans="1:11" ht="45" customHeight="1" thickBot="1">
-      <c r="A36" s="51"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="54"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="54"/>
-      <c r="H36" s="54"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="177"/>
-      <c r="K36" s="20"/>
+      <c r="A36" s="50"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="167"/>
+      <c r="K36" s="19"/>
     </row>
     <row r="37" spans="1:11" ht="25.5" customHeight="1">
-      <c r="A37" s="20"/>
-      <c r="B37" s="180"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="56"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="56"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="21"/>
+      <c r="A37" s="19"/>
+      <c r="B37" s="170"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
     </row>
     <row r="38" spans="1:11" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A38" s="22"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
-      <c r="E38" s="22"/>
-      <c r="F38" s="22"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="21"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
     </row>
     <row r="39" spans="1:11" ht="26.25">
-      <c r="A39" s="131" t="s">
+      <c r="A39" s="124" t="s">
         <v>45</v>
       </c>
-      <c r="B39" s="132"/>
-      <c r="C39" s="132"/>
-      <c r="D39" s="133"/>
-      <c r="E39" s="133"/>
-      <c r="F39" s="133"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="132"/>
-      <c r="I39" s="110"/>
+      <c r="B39" s="125"/>
+      <c r="C39" s="125"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="125"/>
+      <c r="H39" s="125"/>
+      <c r="I39" s="103"/>
     </row>
     <row r="40" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A40" s="130"/>
-      <c r="B40" s="194"/>
-      <c r="C40" s="194"/>
-      <c r="D40" s="194"/>
-      <c r="E40" s="194"/>
-      <c r="F40" s="194"/>
-      <c r="G40" s="194"/>
-      <c r="H40" s="194"/>
-      <c r="I40" s="111"/>
+      <c r="A40" s="123"/>
+      <c r="B40" s="197"/>
+      <c r="C40" s="197"/>
+      <c r="D40" s="197"/>
+      <c r="E40" s="197"/>
+      <c r="F40" s="197"/>
+      <c r="G40" s="197"/>
+      <c r="H40" s="197"/>
+      <c r="I40" s="104"/>
     </row>
     <row r="41" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A41" s="130"/>
-      <c r="B41" s="194"/>
-      <c r="C41" s="194"/>
-      <c r="D41" s="194"/>
-      <c r="E41" s="194"/>
-      <c r="F41" s="194"/>
-      <c r="G41" s="194"/>
-      <c r="H41" s="194"/>
-      <c r="I41" s="111"/>
+      <c r="A41" s="123"/>
+      <c r="B41" s="197"/>
+      <c r="C41" s="197"/>
+      <c r="D41" s="197"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="104"/>
     </row>
     <row r="42" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A42" s="130"/>
-      <c r="B42" s="194"/>
-      <c r="C42" s="194"/>
-      <c r="D42" s="194"/>
-      <c r="E42" s="194"/>
-      <c r="F42" s="194"/>
-      <c r="G42" s="194"/>
-      <c r="H42" s="194"/>
-      <c r="I42" s="111"/>
+      <c r="A42" s="123"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
+      <c r="D42" s="197"/>
+      <c r="E42" s="197"/>
+      <c r="F42" s="197"/>
+      <c r="G42" s="197"/>
+      <c r="H42" s="197"/>
+      <c r="I42" s="104"/>
     </row>
     <row r="43" spans="1:11" ht="50.25" customHeight="1">
-      <c r="A43" s="130"/>
-      <c r="B43" s="194"/>
-      <c r="C43" s="194"/>
-      <c r="D43" s="194"/>
-      <c r="E43" s="194"/>
-      <c r="F43" s="194"/>
-      <c r="G43" s="194"/>
-      <c r="H43" s="194"/>
-      <c r="I43" s="111"/>
+      <c r="A43" s="123"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
+      <c r="D43" s="197"/>
+      <c r="E43" s="197"/>
+      <c r="F43" s="197"/>
+      <c r="G43" s="197"/>
+      <c r="H43" s="197"/>
+      <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:11" ht="12" customHeight="1" thickBot="1">
-      <c r="A44" s="112"/>
-      <c r="B44" s="113"/>
-      <c r="C44" s="113"/>
-      <c r="D44" s="113"/>
-      <c r="E44" s="113"/>
-      <c r="F44" s="113"/>
-      <c r="G44" s="113"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="114"/>
+      <c r="A44" s="105"/>
+      <c r="B44" s="106"/>
+      <c r="C44" s="106"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="106"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -23847,7 +23901,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E629940-90BB-41F1-AB0E-454FDE827A4A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
   </sheetPr>
@@ -23857,72 +23911,72 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.45" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.28515625" style="116" customWidth="1"/>
-    <col min="2" max="16384" width="8.85546875" style="115"/>
+    <col min="1" max="1" width="45.28515625" style="109" customWidth="1"/>
+    <col min="2" max="16384" width="8.85546875" style="108"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A1" s="120" t="s">
+    <row r="1" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A1" s="113" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A2" s="118" t="s">
+    <row r="2" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A2" s="111" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="4" spans="1:2" s="118" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A4" s="120"/>
-    </row>
-    <row r="5" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="6" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="7" spans="1:2" s="120" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A7" s="120" t="s">
+    <row r="3" spans="1:2" s="111" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="4" spans="1:2" s="111" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A4" s="113"/>
+    </row>
+    <row r="5" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="6" spans="1:2" s="111" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="7" spans="1:2" s="113" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A7" s="113" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="118"/>
-    </row>
-    <row r="8" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A8" s="118" t="s">
+      <c r="B7" s="111"/>
+    </row>
+    <row r="8" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A8" s="111" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="10" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A10" s="120"/>
-    </row>
-    <row r="11" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="13" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A13" s="120"/>
-    </row>
-    <row r="14" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="15" spans="1:2" s="118" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="16" spans="1:2" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A16" s="120" t="s">
+    <row r="9" spans="1:2" s="111" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="10" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A10" s="113"/>
+    </row>
+    <row r="11" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="12" spans="1:2" s="111" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="13" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A13" s="113"/>
+    </row>
+    <row r="14" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="15" spans="1:2" s="111" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="16" spans="1:2" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A16" s="113" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A17" s="118" t="s">
+    <row r="17" spans="1:3" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A17" s="111" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="118" customFormat="1" ht="21.2" customHeight="1"/>
-    <row r="19" spans="1:3" s="118" customFormat="1" ht="14.45" customHeight="1">
-      <c r="A19" s="120"/>
-      <c r="C19" s="119"/>
-    </row>
-    <row r="20" spans="1:3" s="118" customFormat="1" ht="14.45" customHeight="1"/>
-    <row r="21" spans="1:3" s="118" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="18" spans="1:3" s="111" customFormat="1" ht="21.2" customHeight="1"/>
+    <row r="19" spans="1:3" s="111" customFormat="1" ht="14.45" customHeight="1">
+      <c r="A19" s="113"/>
+      <c r="C19" s="112"/>
+    </row>
+    <row r="20" spans="1:3" s="111" customFormat="1" ht="14.45" customHeight="1"/>
+    <row r="21" spans="1:3" s="111" customFormat="1" ht="21.2" customHeight="1"/>
     <row r="22" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A22" s="115" t="s">
+      <c r="A22" s="108" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="14.45" customHeight="1">
-      <c r="A28" s="117"/>
+      <c r="A28" s="110"/>
     </row>
   </sheetData>
   <pageMargins left="0.33" right="0.26" top="0.7" bottom="0.75" header="0.26" footer="0.3"/>
@@ -23931,1307 +23985,2130 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D09A8675-3EB7-405B-88B8-A3B24FD6E1B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J118"/>
+  <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.5703125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" style="57" customWidth="1"/>
-    <col min="4" max="4" width="26.42578125" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="16.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" style="57" customWidth="1"/>
-    <col min="8" max="8" width="12" style="57" customWidth="1"/>
-    <col min="9" max="9" width="2.7109375" style="57" customWidth="1"/>
-    <col min="10" max="12" width="16.7109375" style="57" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="28.5703125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" style="56" customWidth="1"/>
+    <col min="4" max="4" width="26.42578125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" style="56" customWidth="1"/>
+    <col min="8" max="8" width="12" style="56" customWidth="1"/>
+    <col min="9" max="9" width="2.7109375" style="56" customWidth="1"/>
+    <col min="10" max="12" width="16.7109375" style="56" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A1" s="195" t="s">
+      <c r="A1" s="201" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="195"/>
-      <c r="C1" s="195"/>
-      <c r="D1" s="69" t="s">
+      <c r="B1" s="201"/>
+      <c r="C1" s="201"/>
+      <c r="D1" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="69" t="s">
+      <c r="E1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="69" t="s">
+      <c r="F1" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="58"/>
-      <c r="J1" s="59"/>
+      <c r="H1" s="57"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" ht="24.95" customHeight="1">
-      <c r="A2" s="195"/>
-      <c r="B2" s="195"/>
-      <c r="C2" s="195"/>
-      <c r="D2" s="60" t="s">
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="201"/>
+      <c r="D2" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="60" t="s">
+      <c r="E2" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="60" t="s">
+      <c r="F2" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="H2" s="61"/>
+      <c r="H2" s="60"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="62" t="s">
+      <c r="A3" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="62" t="s">
+      <c r="B3" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="62" t="s">
+      <c r="C3" s="181" t="s">
         <v>65</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="78" t="s">
+      <c r="F3" s="74" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21.75" thickBot="1">
-      <c r="D4" s="77" t="s">
+      <c r="D4" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="63"/>
-      <c r="G4" s="63"/>
-      <c r="H4" s="64"/>
+      <c r="E4" s="62"/>
+      <c r="G4" s="62"/>
+      <c r="H4" s="63"/>
     </row>
     <row r="5" spans="1:10" ht="2.25" customHeight="1" thickTop="1">
-      <c r="A5" s="72"/>
-      <c r="B5" s="73"/>
-      <c r="C5" s="73"/>
-      <c r="D5" s="73"/>
-      <c r="E5" s="73"/>
-      <c r="F5" s="73"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="74"/>
+      <c r="A5" s="69"/>
+      <c r="B5" s="70"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="70"/>
+      <c r="E5" s="70"/>
+      <c r="F5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
     </row>
     <row r="6" spans="1:10" ht="23.25">
-      <c r="A6" s="75" t="s">
+      <c r="A6" s="72" t="s">
         <v>69</v>
       </c>
-      <c r="B6" s="66"/>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="76"/>
-    </row>
-    <row r="7" spans="1:10" ht="23.25">
-      <c r="A7" s="75"/>
-      <c r="B7" s="66"/>
-      <c r="C7" s="66"/>
-      <c r="D7" s="66"/>
-      <c r="E7" s="66"/>
-      <c r="F7" s="66"/>
-      <c r="G7" s="66"/>
-      <c r="H7" s="76"/>
-    </row>
-    <row r="8" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A8" s="136" t="s">
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="65"/>
+      <c r="G6" s="65"/>
+      <c r="H6" s="66"/>
+    </row>
+    <row r="7" spans="1:10" ht="15" customHeight="1">
+      <c r="A7" s="183"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="65"/>
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="65"/>
+      <c r="G7" s="65"/>
+      <c r="H7" s="66"/>
+    </row>
+    <row r="8" spans="1:10" ht="15" customHeight="1">
+      <c r="A8" s="72"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="65"/>
+      <c r="G8" s="65"/>
+      <c r="H8" s="66"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="66"/>
-      <c r="C8" s="66"/>
-      <c r="D8" s="66"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="66"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="76"/>
-    </row>
-    <row r="9" spans="1:10" ht="15.75" thickTop="1">
-      <c r="A9" s="135"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-    </row>
-    <row r="10" spans="1:10" ht="16.5" thickBot="1">
-      <c r="A10" s="88" t="s">
+      <c r="B9" s="200"/>
+      <c r="C9" s="200"/>
+      <c r="D9" s="200"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="200"/>
+      <c r="G9" s="200"/>
+      <c r="H9" s="199"/>
+    </row>
+    <row r="10" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A10" s="182" t="s">
+        <v>103</v>
+      </c>
+      <c r="B10" s="202"/>
+      <c r="C10" s="202"/>
+      <c r="D10" s="202"/>
+      <c r="E10" s="202"/>
+      <c r="F10" s="202"/>
+      <c r="G10" s="202"/>
+      <c r="H10" s="203"/>
+    </row>
+    <row r="11" spans="1:10" ht="15.75" thickTop="1">
+      <c r="A11" s="127"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+    </row>
+    <row r="12" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A12" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B10" s="86"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="86"/>
-      <c r="E10" s="86"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="86"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.75">
-      <c r="A11" s="79" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="79"/>
+    </row>
+    <row r="13" spans="1:10" ht="18.75">
+      <c r="A13" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="80"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="80"/>
-      <c r="G11" s="80"/>
-      <c r="H11" s="81"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.75">
-      <c r="A12" s="65"/>
-      <c r="B12" s="82"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="66"/>
-      <c r="H12" s="67"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="100" t="s">
+      <c r="B13" s="188"/>
+      <c r="C13" s="188"/>
+      <c r="D13" s="188"/>
+      <c r="E13" s="188"/>
+      <c r="F13" s="188"/>
+      <c r="G13" s="188"/>
+      <c r="H13" s="189"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="190"/>
+      <c r="C14" s="190"/>
+      <c r="D14" s="190"/>
+      <c r="E14" s="190"/>
+      <c r="F14" s="190"/>
+      <c r="G14" s="190"/>
+      <c r="H14" s="185"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="83"/>
-      <c r="C13" s="83"/>
-      <c r="D13" s="83"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="67"/>
-    </row>
-    <row r="14" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A14" s="84"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="86"/>
-      <c r="G14" s="86"/>
-      <c r="H14" s="87"/>
-    </row>
-    <row r="15" spans="1:10" ht="18.75">
-      <c r="A15" s="79" t="s">
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="184"/>
+      <c r="F15" s="184"/>
+      <c r="G15" s="184"/>
+      <c r="H15" s="185"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A16" s="94"/>
+      <c r="B16" s="186"/>
+      <c r="C16" s="186"/>
+      <c r="D16" s="186"/>
+      <c r="E16" s="186"/>
+      <c r="F16" s="186"/>
+      <c r="G16" s="186"/>
+      <c r="H16" s="187"/>
+    </row>
+    <row r="17" spans="1:8" ht="18.75">
+      <c r="A17" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="80"/>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="80"/>
-      <c r="G15" s="80"/>
-      <c r="H15" s="81"/>
-    </row>
-    <row r="16" spans="1:10" ht="18.75">
-      <c r="A16" s="65"/>
-      <c r="B16" s="70"/>
-      <c r="C16" s="70"/>
-      <c r="D16" s="70"/>
-      <c r="E16" s="70"/>
-      <c r="F16" s="70"/>
-      <c r="H16" s="67"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="100" t="s">
+      <c r="B17" s="188"/>
+      <c r="C17" s="188"/>
+      <c r="D17" s="188"/>
+      <c r="E17" s="188"/>
+      <c r="F17" s="188"/>
+      <c r="G17" s="188"/>
+      <c r="H17" s="189"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="185"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B17" s="71"/>
-      <c r="C17" s="71"/>
-      <c r="D17" s="71"/>
-      <c r="E17" s="71"/>
-      <c r="H17" s="67"/>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A18" s="84"/>
-      <c r="B18" s="85"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="85"/>
-      <c r="E18" s="85"/>
-      <c r="F18" s="86"/>
-      <c r="G18" s="86"/>
-      <c r="H18" s="87"/>
-    </row>
-    <row r="19" spans="1:8" ht="18.75">
-      <c r="A19" s="79" t="s">
+      <c r="B19" s="184"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
+      <c r="E19" s="184"/>
+      <c r="F19" s="184"/>
+      <c r="G19" s="184"/>
+      <c r="H19" s="185"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A20" s="94"/>
+      <c r="B20" s="186"/>
+      <c r="C20" s="186"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="187"/>
+    </row>
+    <row r="21" spans="1:8" ht="18.75">
+      <c r="A21" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B19" s="80"/>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="80"/>
-      <c r="H19" s="81"/>
-    </row>
-    <row r="20" spans="1:8" ht="18.75">
-      <c r="A20" s="65"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="H20" s="67"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="100" t="s">
+      <c r="B21" s="188"/>
+      <c r="C21" s="188"/>
+      <c r="D21" s="188"/>
+      <c r="E21" s="188"/>
+      <c r="F21" s="188"/>
+      <c r="G21" s="188"/>
+      <c r="H21" s="189"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="190"/>
+      <c r="F22" s="190"/>
+      <c r="G22" s="190"/>
+      <c r="H22" s="185"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="71"/>
-      <c r="C21" s="71"/>
-      <c r="D21" s="71"/>
-      <c r="E21" s="71"/>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A22" s="84"/>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
-      <c r="F22" s="86"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="87"/>
-    </row>
-    <row r="23" spans="1:8" ht="18.75">
-      <c r="A23" s="79" t="s">
+      <c r="B23" s="184"/>
+      <c r="C23" s="184"/>
+      <c r="D23" s="184"/>
+      <c r="E23" s="184"/>
+      <c r="F23" s="184"/>
+      <c r="G23" s="184"/>
+      <c r="H23" s="185"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A24" s="94"/>
+      <c r="B24" s="186"/>
+      <c r="C24" s="186"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="186"/>
+      <c r="F24" s="186"/>
+      <c r="G24" s="186"/>
+      <c r="H24" s="187"/>
+    </row>
+    <row r="25" spans="1:8" ht="18.75">
+      <c r="A25" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B23" s="80"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="80"/>
-      <c r="H23" s="81"/>
-    </row>
-    <row r="24" spans="1:8" ht="18.75">
-      <c r="A24" s="65"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="100" t="s">
+      <c r="B25" s="188"/>
+      <c r="C25" s="188"/>
+      <c r="D25" s="188"/>
+      <c r="E25" s="188"/>
+      <c r="F25" s="188"/>
+      <c r="G25" s="188"/>
+      <c r="H25" s="189"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="190"/>
+      <c r="C26" s="190"/>
+      <c r="D26" s="190"/>
+      <c r="E26" s="190"/>
+      <c r="F26" s="190"/>
+      <c r="G26" s="190"/>
+      <c r="H26" s="185"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="H25" s="67"/>
-    </row>
-    <row r="26" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A26" s="84"/>
-      <c r="B26" s="85"/>
-      <c r="C26" s="85"/>
-      <c r="D26" s="85"/>
-      <c r="E26" s="85"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="87"/>
-    </row>
-    <row r="27" spans="1:8" s="68" customFormat="1" ht="18.75">
-      <c r="A27" s="79" t="s">
+      <c r="B27" s="184"/>
+      <c r="C27" s="184"/>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184"/>
+      <c r="F27" s="184"/>
+      <c r="G27" s="184"/>
+      <c r="H27" s="185"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A28" s="94"/>
+      <c r="B28" s="186"/>
+      <c r="C28" s="186"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="H28" s="187"/>
+    </row>
+    <row r="29" spans="1:8" s="67" customFormat="1" ht="18.75">
+      <c r="A29" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="80"/>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="81"/>
-    </row>
-    <row r="28" spans="1:8" ht="18.75">
-      <c r="A28" s="65"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="H28" s="67"/>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="100" t="s">
+      <c r="B29" s="188"/>
+      <c r="C29" s="188"/>
+      <c r="D29" s="188"/>
+      <c r="E29" s="188"/>
+      <c r="F29" s="188"/>
+      <c r="G29" s="188"/>
+      <c r="H29" s="189"/>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
+      <c r="G30" s="190"/>
+      <c r="H30" s="185"/>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="71"/>
-      <c r="C29" s="71"/>
-      <c r="D29" s="71"/>
-      <c r="E29" s="71"/>
-      <c r="H29" s="67"/>
-    </row>
-    <row r="30" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A30" s="84"/>
-      <c r="B30" s="85"/>
-      <c r="C30" s="85"/>
-      <c r="D30" s="85"/>
-      <c r="E30" s="85"/>
-      <c r="F30" s="86"/>
-      <c r="G30" s="86"/>
-      <c r="H30" s="87"/>
-    </row>
-    <row r="31" spans="1:8" ht="18.75">
-      <c r="A31" s="79" t="s">
+      <c r="B31" s="184"/>
+      <c r="C31" s="184"/>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184"/>
+      <c r="F31" s="184"/>
+      <c r="G31" s="184"/>
+      <c r="H31" s="185"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A32" s="94"/>
+      <c r="B32" s="186"/>
+      <c r="C32" s="186"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="H32" s="187"/>
+    </row>
+    <row r="33" spans="1:8" ht="18.75">
+      <c r="A33" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="80"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="80"/>
-      <c r="G31" s="80"/>
-      <c r="H31" s="81"/>
-    </row>
-    <row r="32" spans="1:8" ht="18.75">
-      <c r="A32" s="65"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="H32" s="67"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="100" t="s">
+      <c r="B33" s="188"/>
+      <c r="C33" s="188"/>
+      <c r="D33" s="188"/>
+      <c r="E33" s="188"/>
+      <c r="F33" s="188"/>
+      <c r="G33" s="188"/>
+      <c r="H33" s="189"/>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="190"/>
+      <c r="C34" s="190"/>
+      <c r="D34" s="190"/>
+      <c r="E34" s="190"/>
+      <c r="F34" s="190"/>
+      <c r="G34" s="190"/>
+      <c r="H34" s="185"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="71"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="71"/>
-      <c r="H33" s="67"/>
-    </row>
-    <row r="34" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A34" s="84"/>
-      <c r="B34" s="85"/>
-      <c r="C34" s="85"/>
-      <c r="D34" s="85"/>
-      <c r="E34" s="85"/>
-      <c r="F34" s="86"/>
-      <c r="G34" s="86"/>
-      <c r="H34" s="87"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75">
-      <c r="A35" s="79" t="s">
+      <c r="B35" s="184"/>
+      <c r="C35" s="184"/>
+      <c r="D35" s="184"/>
+      <c r="E35" s="184"/>
+      <c r="F35" s="184"/>
+      <c r="G35" s="184"/>
+      <c r="H35" s="185"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A36" s="94"/>
+      <c r="B36" s="186"/>
+      <c r="C36" s="186"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="186"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="H36" s="187"/>
+    </row>
+    <row r="37" spans="1:8" ht="18.75">
+      <c r="A37" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B35" s="80"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="80"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="80"/>
-      <c r="H35" s="81"/>
-    </row>
-    <row r="36" spans="1:8" ht="18.75">
-      <c r="A36" s="65"/>
-      <c r="B36" s="70"/>
-      <c r="C36" s="70"/>
-      <c r="D36" s="70"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="H36" s="67"/>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="100" t="s">
+      <c r="B37" s="188"/>
+      <c r="C37" s="188"/>
+      <c r="D37" s="188"/>
+      <c r="E37" s="188"/>
+      <c r="F37" s="188"/>
+      <c r="G37" s="188"/>
+      <c r="H37" s="189"/>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B38" s="190"/>
+      <c r="C38" s="190"/>
+      <c r="D38" s="190"/>
+      <c r="E38" s="190"/>
+      <c r="F38" s="190"/>
+      <c r="G38" s="190"/>
+      <c r="H38" s="185"/>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="H37" s="67"/>
-    </row>
-    <row r="38" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A38" s="84"/>
-      <c r="B38" s="85"/>
-      <c r="C38" s="85"/>
-      <c r="D38" s="85"/>
-      <c r="E38" s="85"/>
-      <c r="F38" s="86"/>
-      <c r="G38" s="86"/>
-      <c r="H38" s="87"/>
-    </row>
-    <row r="39" spans="1:8" ht="18.75">
-      <c r="A39" s="79" t="s">
+      <c r="B39" s="184"/>
+      <c r="C39" s="184"/>
+      <c r="D39" s="184"/>
+      <c r="E39" s="184"/>
+      <c r="F39" s="184"/>
+      <c r="G39" s="184"/>
+      <c r="H39" s="185"/>
+    </row>
+    <row r="40" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A40" s="94"/>
+      <c r="B40" s="186"/>
+      <c r="C40" s="186"/>
+      <c r="D40" s="186"/>
+      <c r="E40" s="186"/>
+      <c r="F40" s="186"/>
+      <c r="G40" s="186"/>
+      <c r="H40" s="187"/>
+    </row>
+    <row r="41" spans="1:8" ht="18.75">
+      <c r="A41" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B39" s="80"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
-      <c r="E39" s="80"/>
-      <c r="F39" s="80"/>
-      <c r="G39" s="80"/>
-      <c r="H39" s="81"/>
-    </row>
-    <row r="40" spans="1:8" ht="18.75">
-      <c r="A40" s="65"/>
-      <c r="B40" s="70"/>
-      <c r="C40" s="70"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="H40" s="67"/>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="100" t="s">
+      <c r="B41" s="188"/>
+      <c r="C41" s="188"/>
+      <c r="D41" s="188"/>
+      <c r="E41" s="188"/>
+      <c r="F41" s="188"/>
+      <c r="G41" s="188"/>
+      <c r="H41" s="189"/>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="190"/>
+      <c r="C42" s="190"/>
+      <c r="D42" s="190"/>
+      <c r="E42" s="190"/>
+      <c r="F42" s="190"/>
+      <c r="G42" s="190"/>
+      <c r="H42" s="185"/>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="H41" s="67"/>
-    </row>
-    <row r="42" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A42" s="84"/>
-      <c r="B42" s="85"/>
-      <c r="C42" s="85"/>
-      <c r="D42" s="85"/>
-      <c r="E42" s="85"/>
-      <c r="F42" s="86"/>
-      <c r="G42" s="86"/>
-      <c r="H42" s="87"/>
-    </row>
-    <row r="43" spans="1:8" ht="18.75">
-      <c r="A43" s="79" t="s">
+      <c r="B43" s="184"/>
+      <c r="C43" s="184"/>
+      <c r="D43" s="184"/>
+      <c r="E43" s="184"/>
+      <c r="F43" s="184"/>
+      <c r="G43" s="184"/>
+      <c r="H43" s="185"/>
+    </row>
+    <row r="44" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A44" s="94"/>
+      <c r="B44" s="186"/>
+      <c r="C44" s="186"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="H44" s="187"/>
+    </row>
+    <row r="45" spans="1:8" ht="18.75">
+      <c r="A45" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="80"/>
-      <c r="F43" s="80"/>
-      <c r="G43" s="80"/>
-      <c r="H43" s="81"/>
-    </row>
-    <row r="44" spans="1:8" ht="18.75">
-      <c r="A44" s="65"/>
-      <c r="B44" s="70"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="70"/>
-      <c r="F44" s="70"/>
-      <c r="H44" s="67"/>
-    </row>
-    <row r="45" spans="1:8">
-      <c r="A45" s="100" t="s">
+      <c r="B45" s="188"/>
+      <c r="C45" s="188"/>
+      <c r="D45" s="188"/>
+      <c r="E45" s="188"/>
+      <c r="F45" s="188"/>
+      <c r="G45" s="188"/>
+      <c r="H45" s="189"/>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B46" s="190"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
+      <c r="G46" s="190"/>
+      <c r="H46" s="185"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B45" s="71"/>
-      <c r="C45" s="71"/>
-      <c r="D45" s="71"/>
-      <c r="E45" s="71"/>
-      <c r="H45" s="67"/>
-    </row>
-    <row r="46" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A46" s="84"/>
-      <c r="B46" s="85"/>
-      <c r="C46" s="85"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="86"/>
-      <c r="G46" s="86"/>
-      <c r="H46" s="87"/>
-    </row>
-    <row r="47" spans="1:8" ht="18.75">
-      <c r="A47" s="79" t="s">
+      <c r="B47" s="184"/>
+      <c r="C47" s="184"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="185"/>
+    </row>
+    <row r="48" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="187"/>
+    </row>
+    <row r="49" spans="1:8" ht="18.75">
+      <c r="A49" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B47" s="80"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
-      <c r="E47" s="80"/>
-      <c r="F47" s="80"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="81"/>
-    </row>
-    <row r="48" spans="1:8" ht="18.75">
-      <c r="A48" s="65"/>
-      <c r="B48" s="70"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="H48" s="67"/>
-    </row>
-    <row r="49" spans="1:8">
-      <c r="A49" s="100" t="s">
+      <c r="B49" s="188"/>
+      <c r="C49" s="188"/>
+      <c r="D49" s="188"/>
+      <c r="E49" s="188"/>
+      <c r="F49" s="188"/>
+      <c r="G49" s="188"/>
+      <c r="H49" s="189"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" s="190"/>
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="190"/>
+      <c r="H50" s="185"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="71"/>
-      <c r="C49" s="71"/>
-      <c r="D49" s="71"/>
-      <c r="E49" s="71"/>
-      <c r="H49" s="67"/>
-    </row>
-    <row r="50" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A50" s="84"/>
-      <c r="B50" s="85"/>
-      <c r="C50" s="85"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="87"/>
-    </row>
-    <row r="51" spans="1:8" ht="18.75">
-      <c r="A51" s="79" t="s">
+      <c r="B51" s="184"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="184"/>
+      <c r="E51" s="184"/>
+      <c r="F51" s="184"/>
+      <c r="G51" s="184"/>
+      <c r="H51" s="185"/>
+    </row>
+    <row r="52" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A52" s="94"/>
+      <c r="B52" s="186"/>
+      <c r="C52" s="186"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="H52" s="187"/>
+    </row>
+    <row r="53" spans="1:8" ht="18.75">
+      <c r="A53" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
-      <c r="G51" s="80"/>
-      <c r="H51" s="81"/>
-    </row>
-    <row r="52" spans="1:8" ht="18.75">
-      <c r="A52" s="65"/>
-      <c r="B52" s="70"/>
-      <c r="C52" s="70"/>
-      <c r="D52" s="70"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="H52" s="67"/>
-    </row>
-    <row r="53" spans="1:8">
-      <c r="A53" s="100" t="s">
+      <c r="B53" s="188"/>
+      <c r="C53" s="188"/>
+      <c r="D53" s="188"/>
+      <c r="E53" s="188"/>
+      <c r="F53" s="188"/>
+      <c r="G53" s="188"/>
+      <c r="H53" s="189"/>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="190"/>
+      <c r="C54" s="190"/>
+      <c r="D54" s="190"/>
+      <c r="E54" s="190"/>
+      <c r="F54" s="190"/>
+      <c r="G54" s="190"/>
+      <c r="H54" s="185"/>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B53" s="71"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="71"/>
-      <c r="E53" s="71"/>
-      <c r="H53" s="67"/>
-    </row>
-    <row r="54" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A54" s="84"/>
-      <c r="B54" s="85"/>
-      <c r="C54" s="85"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="86"/>
-      <c r="G54" s="86"/>
-      <c r="H54" s="87"/>
-    </row>
-    <row r="55" spans="1:8" ht="18.75">
-      <c r="A55" s="79" t="s">
+      <c r="B55" s="184"/>
+      <c r="C55" s="184"/>
+      <c r="D55" s="184"/>
+      <c r="E55" s="184"/>
+      <c r="F55" s="184"/>
+      <c r="G55" s="184"/>
+      <c r="H55" s="185"/>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A56" s="94"/>
+      <c r="B56" s="186"/>
+      <c r="C56" s="186"/>
+      <c r="D56" s="186"/>
+      <c r="E56" s="186"/>
+      <c r="F56" s="186"/>
+      <c r="G56" s="186"/>
+      <c r="H56" s="187"/>
+    </row>
+    <row r="57" spans="1:8" ht="18.75">
+      <c r="A57" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
-      <c r="G55" s="80"/>
-      <c r="H55" s="81"/>
-    </row>
-    <row r="56" spans="1:8" ht="18.75">
-      <c r="A56" s="65"/>
-      <c r="B56" s="70"/>
-      <c r="C56" s="70"/>
-      <c r="D56" s="70"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="H56" s="67"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="100" t="s">
+      <c r="B57" s="188"/>
+      <c r="C57" s="188"/>
+      <c r="D57" s="188"/>
+      <c r="E57" s="188"/>
+      <c r="F57" s="188"/>
+      <c r="G57" s="188"/>
+      <c r="H57" s="189"/>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B58" s="190"/>
+      <c r="C58" s="190"/>
+      <c r="D58" s="190"/>
+      <c r="E58" s="190"/>
+      <c r="F58" s="190"/>
+      <c r="G58" s="190"/>
+      <c r="H58" s="185"/>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B57" s="71"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="71"/>
-      <c r="E57" s="71"/>
-      <c r="H57" s="67"/>
-    </row>
-    <row r="58" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A58" s="84"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="86"/>
-      <c r="G58" s="86"/>
-      <c r="H58" s="87"/>
-    </row>
-    <row r="59" spans="1:8" ht="18.75">
-      <c r="A59" s="79" t="s">
+      <c r="B59" s="184"/>
+      <c r="C59" s="184"/>
+      <c r="D59" s="184"/>
+      <c r="E59" s="184"/>
+      <c r="F59" s="184"/>
+      <c r="G59" s="184"/>
+      <c r="H59" s="185"/>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A60" s="94"/>
+      <c r="B60" s="186"/>
+      <c r="C60" s="186"/>
+      <c r="D60" s="186"/>
+      <c r="E60" s="186"/>
+      <c r="F60" s="186"/>
+      <c r="G60" s="186"/>
+      <c r="H60" s="187"/>
+    </row>
+    <row r="61" spans="1:8" ht="18.75">
+      <c r="A61" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B59" s="80"/>
-      <c r="C59" s="80"/>
-      <c r="D59" s="80"/>
-      <c r="E59" s="80"/>
-      <c r="F59" s="80"/>
-      <c r="G59" s="80"/>
-      <c r="H59" s="81"/>
-    </row>
-    <row r="60" spans="1:8" ht="18.75">
-      <c r="A60" s="65"/>
-      <c r="B60" s="70"/>
-      <c r="C60" s="70"/>
-      <c r="D60" s="70"/>
-      <c r="E60" s="70"/>
-      <c r="F60" s="70"/>
-      <c r="H60" s="67"/>
-    </row>
-    <row r="61" spans="1:8">
-      <c r="A61" s="100" t="s">
+      <c r="B61" s="188"/>
+      <c r="C61" s="188"/>
+      <c r="D61" s="188"/>
+      <c r="E61" s="188"/>
+      <c r="F61" s="188"/>
+      <c r="G61" s="188"/>
+      <c r="H61" s="189"/>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B62" s="190"/>
+      <c r="C62" s="190"/>
+      <c r="D62" s="190"/>
+      <c r="E62" s="190"/>
+      <c r="F62" s="190"/>
+      <c r="G62" s="190"/>
+      <c r="H62" s="185"/>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B61" s="71"/>
-      <c r="C61" s="71"/>
-      <c r="D61" s="71"/>
-      <c r="E61" s="71"/>
-      <c r="H61" s="67"/>
-    </row>
-    <row r="62" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A62" s="84"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="85"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="86"/>
-      <c r="G62" s="86"/>
-      <c r="H62" s="87"/>
-    </row>
-    <row r="63" spans="1:8" ht="18.75">
-      <c r="A63" s="79" t="s">
+      <c r="B63" s="184"/>
+      <c r="C63" s="184"/>
+      <c r="D63" s="184"/>
+      <c r="E63" s="184"/>
+      <c r="F63" s="184"/>
+      <c r="G63" s="184"/>
+      <c r="H63" s="185"/>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A64" s="94"/>
+      <c r="B64" s="186"/>
+      <c r="C64" s="186"/>
+      <c r="D64" s="186"/>
+      <c r="E64" s="186"/>
+      <c r="F64" s="186"/>
+      <c r="G64" s="186"/>
+      <c r="H64" s="187"/>
+    </row>
+    <row r="65" spans="1:8" ht="18.75">
+      <c r="A65" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B63" s="80"/>
-      <c r="C63" s="80"/>
-      <c r="D63" s="80"/>
-      <c r="E63" s="80"/>
-      <c r="F63" s="80"/>
-      <c r="G63" s="80"/>
-      <c r="H63" s="81"/>
-    </row>
-    <row r="64" spans="1:8" ht="18.75">
-      <c r="A64" s="65"/>
-      <c r="B64" s="70"/>
-      <c r="C64" s="70"/>
-      <c r="D64" s="70"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="H64" s="67"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="A65" s="100" t="s">
+      <c r="B65" s="188"/>
+      <c r="C65" s="188"/>
+      <c r="D65" s="188"/>
+      <c r="E65" s="188"/>
+      <c r="F65" s="188"/>
+      <c r="G65" s="188"/>
+      <c r="H65" s="189"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B66" s="190"/>
+      <c r="C66" s="190"/>
+      <c r="D66" s="190"/>
+      <c r="E66" s="190"/>
+      <c r="F66" s="190"/>
+      <c r="G66" s="190"/>
+      <c r="H66" s="185"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B65" s="71"/>
-      <c r="C65" s="71"/>
-      <c r="D65" s="71"/>
-      <c r="E65" s="71"/>
-      <c r="H65" s="67"/>
-    </row>
-    <row r="66" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A66" s="84"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="85"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="86"/>
-      <c r="G66" s="86"/>
-      <c r="H66" s="87"/>
-    </row>
-    <row r="67" spans="1:8" ht="18.75">
-      <c r="A67" s="79" t="s">
+      <c r="B67" s="184"/>
+      <c r="C67" s="184"/>
+      <c r="D67" s="184"/>
+      <c r="E67" s="184"/>
+      <c r="F67" s="184"/>
+      <c r="G67" s="184"/>
+      <c r="H67" s="185"/>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A68" s="94"/>
+      <c r="B68" s="186"/>
+      <c r="C68" s="186"/>
+      <c r="D68" s="186"/>
+      <c r="E68" s="186"/>
+      <c r="F68" s="186"/>
+      <c r="G68" s="186"/>
+      <c r="H68" s="187"/>
+    </row>
+    <row r="69" spans="1:8" ht="18.75">
+      <c r="A69" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="80"/>
-      <c r="F67" s="80"/>
-      <c r="G67" s="80"/>
-      <c r="H67" s="81"/>
-    </row>
-    <row r="68" spans="1:8" ht="18.75">
-      <c r="A68" s="65"/>
-      <c r="B68" s="70"/>
-      <c r="C68" s="70"/>
-      <c r="D68" s="70"/>
-      <c r="E68" s="70"/>
-      <c r="F68" s="70"/>
-      <c r="H68" s="67"/>
-    </row>
-    <row r="69" spans="1:8">
-      <c r="A69" s="100" t="s">
+      <c r="B69" s="188"/>
+      <c r="C69" s="188"/>
+      <c r="D69" s="188"/>
+      <c r="E69" s="188"/>
+      <c r="F69" s="188"/>
+      <c r="G69" s="188"/>
+      <c r="H69" s="189"/>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B70" s="190"/>
+      <c r="C70" s="190"/>
+      <c r="D70" s="190"/>
+      <c r="E70" s="190"/>
+      <c r="F70" s="190"/>
+      <c r="G70" s="190"/>
+      <c r="H70" s="185"/>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B69" s="71"/>
-      <c r="C69" s="71"/>
-      <c r="D69" s="71"/>
-      <c r="E69" s="71"/>
-      <c r="H69" s="67"/>
-    </row>
-    <row r="70" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A70" s="84"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="86"/>
-      <c r="G70" s="86"/>
-      <c r="H70" s="87"/>
-    </row>
-    <row r="71" spans="1:8" ht="18.75">
-      <c r="A71" s="79" t="s">
+      <c r="B71" s="184"/>
+      <c r="C71" s="184"/>
+      <c r="D71" s="184"/>
+      <c r="E71" s="184"/>
+      <c r="F71" s="184"/>
+      <c r="G71" s="184"/>
+      <c r="H71" s="185"/>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A72" s="94"/>
+      <c r="B72" s="186"/>
+      <c r="C72" s="186"/>
+      <c r="D72" s="186"/>
+      <c r="E72" s="186"/>
+      <c r="F72" s="186"/>
+      <c r="G72" s="186"/>
+      <c r="H72" s="187"/>
+    </row>
+    <row r="73" spans="1:8" ht="18.75">
+      <c r="A73" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B71" s="80"/>
-      <c r="C71" s="80"/>
-      <c r="D71" s="80"/>
-      <c r="E71" s="80"/>
-      <c r="F71" s="80"/>
-      <c r="G71" s="80"/>
-      <c r="H71" s="81"/>
-    </row>
-    <row r="72" spans="1:8" ht="18.75">
-      <c r="A72" s="65"/>
-      <c r="B72" s="82"/>
-      <c r="C72" s="82"/>
-      <c r="D72" s="82"/>
-      <c r="E72" s="82"/>
-      <c r="F72" s="82"/>
-      <c r="G72" s="66"/>
-      <c r="H72" s="67"/>
-    </row>
-    <row r="73" spans="1:8">
-      <c r="A73" s="100" t="s">
+      <c r="B73" s="188"/>
+      <c r="C73" s="188"/>
+      <c r="D73" s="188"/>
+      <c r="E73" s="188"/>
+      <c r="F73" s="188"/>
+      <c r="G73" s="188"/>
+      <c r="H73" s="189"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74" s="190"/>
+      <c r="C74" s="190"/>
+      <c r="D74" s="190"/>
+      <c r="E74" s="190"/>
+      <c r="F74" s="190"/>
+      <c r="G74" s="190"/>
+      <c r="H74" s="185"/>
+    </row>
+    <row r="75" spans="1:8">
+      <c r="A75" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="67"/>
-    </row>
-    <row r="74" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A74" s="84"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="85"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="86"/>
-      <c r="G74" s="86"/>
-      <c r="H74" s="87"/>
-    </row>
-    <row r="75" spans="1:8" ht="18.75">
-      <c r="A75" s="79" t="s">
+      <c r="B75" s="184"/>
+      <c r="C75" s="184"/>
+      <c r="D75" s="184"/>
+      <c r="E75" s="184"/>
+      <c r="F75" s="184"/>
+      <c r="G75" s="184"/>
+      <c r="H75" s="185"/>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A76" s="94"/>
+      <c r="B76" s="186"/>
+      <c r="C76" s="186"/>
+      <c r="D76" s="186"/>
+      <c r="E76" s="186"/>
+      <c r="F76" s="186"/>
+      <c r="G76" s="186"/>
+      <c r="H76" s="187"/>
+    </row>
+    <row r="77" spans="1:8" ht="18.75">
+      <c r="A77" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B75" s="80"/>
-      <c r="C75" s="80"/>
-      <c r="D75" s="80"/>
-      <c r="E75" s="80"/>
-      <c r="F75" s="80"/>
-      <c r="G75" s="80"/>
-      <c r="H75" s="81"/>
-    </row>
-    <row r="76" spans="1:8" ht="18.75">
-      <c r="A76" s="65"/>
-      <c r="B76" s="70"/>
-      <c r="C76" s="70"/>
-      <c r="D76" s="70"/>
-      <c r="E76" s="70"/>
-      <c r="F76" s="70"/>
-      <c r="H76" s="67"/>
-    </row>
-    <row r="77" spans="1:8">
-      <c r="A77" s="100" t="s">
+      <c r="B77" s="188"/>
+      <c r="C77" s="188"/>
+      <c r="D77" s="188"/>
+      <c r="E77" s="188"/>
+      <c r="F77" s="188"/>
+      <c r="G77" s="188"/>
+      <c r="H77" s="189"/>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B78" s="190"/>
+      <c r="C78" s="190"/>
+      <c r="D78" s="190"/>
+      <c r="E78" s="190"/>
+      <c r="F78" s="190"/>
+      <c r="G78" s="190"/>
+      <c r="H78" s="185"/>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B77" s="71"/>
-      <c r="C77" s="71"/>
-      <c r="D77" s="71"/>
-      <c r="E77" s="71"/>
-      <c r="H77" s="67"/>
-    </row>
-    <row r="78" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A78" s="84"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="85"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="86"/>
-      <c r="G78" s="86"/>
-      <c r="H78" s="87"/>
-    </row>
-    <row r="79" spans="1:8" ht="18.75">
-      <c r="A79" s="79" t="s">
+      <c r="B79" s="184"/>
+      <c r="C79" s="184"/>
+      <c r="D79" s="184"/>
+      <c r="E79" s="184"/>
+      <c r="F79" s="184"/>
+      <c r="G79" s="184"/>
+      <c r="H79" s="185"/>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A80" s="94"/>
+      <c r="B80" s="186"/>
+      <c r="C80" s="186"/>
+      <c r="D80" s="186"/>
+      <c r="E80" s="186"/>
+      <c r="F80" s="186"/>
+      <c r="G80" s="186"/>
+      <c r="H80" s="187"/>
+    </row>
+    <row r="81" spans="1:8" ht="18.75">
+      <c r="A81" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B79" s="80"/>
-      <c r="C79" s="80"/>
-      <c r="D79" s="80"/>
-      <c r="E79" s="80"/>
-      <c r="F79" s="80"/>
-      <c r="G79" s="80"/>
-      <c r="H79" s="81"/>
-    </row>
-    <row r="80" spans="1:8" ht="18.75">
-      <c r="A80" s="65"/>
-      <c r="B80" s="70"/>
-      <c r="C80" s="70"/>
-      <c r="D80" s="70"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="H80" s="67"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="100" t="s">
+      <c r="B81" s="188"/>
+      <c r="C81" s="188"/>
+      <c r="D81" s="188"/>
+      <c r="E81" s="188"/>
+      <c r="F81" s="188"/>
+      <c r="G81" s="188"/>
+      <c r="H81" s="189"/>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82" s="190"/>
+      <c r="C82" s="190"/>
+      <c r="D82" s="190"/>
+      <c r="E82" s="190"/>
+      <c r="F82" s="190"/>
+      <c r="G82" s="190"/>
+      <c r="H82" s="185"/>
+    </row>
+    <row r="83" spans="1:8">
+      <c r="A83" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B81" s="71"/>
-      <c r="C81" s="71"/>
-      <c r="D81" s="71"/>
-      <c r="E81" s="71"/>
-      <c r="H81" s="67"/>
-    </row>
-    <row r="82" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A82" s="84"/>
-      <c r="B82" s="85"/>
-      <c r="C82" s="85"/>
-      <c r="D82" s="85"/>
-      <c r="E82" s="85"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="87"/>
-    </row>
-    <row r="83" spans="1:8" ht="18.75">
-      <c r="A83" s="79" t="s">
+      <c r="B83" s="184"/>
+      <c r="C83" s="184"/>
+      <c r="D83" s="184"/>
+      <c r="E83" s="184"/>
+      <c r="F83" s="184"/>
+      <c r="G83" s="184"/>
+      <c r="H83" s="185"/>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A84" s="94"/>
+      <c r="B84" s="186"/>
+      <c r="C84" s="186"/>
+      <c r="D84" s="186"/>
+      <c r="E84" s="186"/>
+      <c r="F84" s="186"/>
+      <c r="G84" s="186"/>
+      <c r="H84" s="187"/>
+    </row>
+    <row r="85" spans="1:8" ht="18.75">
+      <c r="A85" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B83" s="80"/>
-      <c r="C83" s="80"/>
-      <c r="D83" s="80"/>
-      <c r="E83" s="80"/>
-      <c r="F83" s="80"/>
-      <c r="G83" s="80"/>
-      <c r="H83" s="81"/>
-    </row>
-    <row r="84" spans="1:8" ht="18.75">
-      <c r="A84" s="65"/>
-      <c r="B84" s="70"/>
-      <c r="C84" s="70"/>
-      <c r="D84" s="70"/>
-      <c r="E84" s="70"/>
-      <c r="F84" s="70"/>
-      <c r="H84" s="67"/>
-    </row>
-    <row r="85" spans="1:8">
-      <c r="A85" s="100" t="s">
+      <c r="B85" s="188"/>
+      <c r="C85" s="188"/>
+      <c r="D85" s="188"/>
+      <c r="E85" s="188"/>
+      <c r="F85" s="188"/>
+      <c r="G85" s="188"/>
+      <c r="H85" s="189"/>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B86" s="190"/>
+      <c r="C86" s="190"/>
+      <c r="D86" s="190"/>
+      <c r="E86" s="190"/>
+      <c r="F86" s="190"/>
+      <c r="G86" s="190"/>
+      <c r="H86" s="185"/>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B85" s="71"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="71"/>
-      <c r="E85" s="71"/>
-      <c r="H85" s="67"/>
-    </row>
-    <row r="86" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A86" s="84"/>
-      <c r="B86" s="85"/>
-      <c r="C86" s="85"/>
-      <c r="D86" s="85"/>
-      <c r="E86" s="85"/>
-      <c r="F86" s="86"/>
-      <c r="G86" s="86"/>
-      <c r="H86" s="87"/>
-    </row>
-    <row r="87" spans="1:8" ht="18.75">
-      <c r="A87" s="79" t="s">
+      <c r="B87" s="184"/>
+      <c r="C87" s="184"/>
+      <c r="D87" s="184"/>
+      <c r="E87" s="184"/>
+      <c r="F87" s="184"/>
+      <c r="G87" s="184"/>
+      <c r="H87" s="185"/>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A88" s="94"/>
+      <c r="B88" s="186"/>
+      <c r="C88" s="186"/>
+      <c r="D88" s="186"/>
+      <c r="E88" s="186"/>
+      <c r="F88" s="186"/>
+      <c r="G88" s="186"/>
+      <c r="H88" s="187"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.75">
+      <c r="A89" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B87" s="80"/>
-      <c r="C87" s="80"/>
-      <c r="D87" s="80"/>
-      <c r="E87" s="80"/>
-      <c r="F87" s="80"/>
-      <c r="G87" s="80"/>
-      <c r="H87" s="81"/>
-    </row>
-    <row r="88" spans="1:8" ht="18.75">
-      <c r="A88" s="65"/>
-      <c r="B88" s="82"/>
-      <c r="C88" s="82"/>
-      <c r="D88" s="82"/>
-      <c r="E88" s="82"/>
-      <c r="F88" s="82"/>
-      <c r="G88" s="66"/>
-      <c r="H88" s="67"/>
-    </row>
-    <row r="89" spans="1:8">
-      <c r="A89" s="100" t="s">
+      <c r="B89" s="188"/>
+      <c r="C89" s="188"/>
+      <c r="D89" s="188"/>
+      <c r="E89" s="188"/>
+      <c r="F89" s="188"/>
+      <c r="G89" s="188"/>
+      <c r="H89" s="189"/>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B90" s="190"/>
+      <c r="C90" s="190"/>
+      <c r="D90" s="190"/>
+      <c r="E90" s="190"/>
+      <c r="F90" s="190"/>
+      <c r="G90" s="190"/>
+      <c r="H90" s="185"/>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B89" s="83"/>
-      <c r="C89" s="83"/>
-      <c r="D89" s="83"/>
-      <c r="E89" s="83"/>
-      <c r="F89" s="66"/>
-      <c r="G89" s="66"/>
-      <c r="H89" s="67"/>
-    </row>
-    <row r="90" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A90" s="84"/>
-      <c r="B90" s="85"/>
-      <c r="C90" s="85"/>
-      <c r="D90" s="85"/>
-      <c r="E90" s="85"/>
-      <c r="F90" s="86"/>
-      <c r="G90" s="86"/>
-      <c r="H90" s="87"/>
-    </row>
-    <row r="91" spans="1:8" ht="18.75">
-      <c r="A91" s="79" t="s">
+      <c r="B91" s="184"/>
+      <c r="C91" s="184"/>
+      <c r="D91" s="184"/>
+      <c r="E91" s="184"/>
+      <c r="F91" s="184"/>
+      <c r="G91" s="184"/>
+      <c r="H91" s="185"/>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A92" s="94"/>
+      <c r="B92" s="186"/>
+      <c r="C92" s="186"/>
+      <c r="D92" s="186"/>
+      <c r="E92" s="186"/>
+      <c r="F92" s="186"/>
+      <c r="G92" s="186"/>
+      <c r="H92" s="187"/>
+    </row>
+    <row r="93" spans="1:8" ht="18.75">
+      <c r="A93" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B91" s="80"/>
-      <c r="C91" s="80"/>
-      <c r="D91" s="80"/>
-      <c r="E91" s="80"/>
-      <c r="F91" s="80"/>
-      <c r="G91" s="80"/>
-      <c r="H91" s="81"/>
-    </row>
-    <row r="92" spans="1:8" ht="18.75">
-      <c r="A92" s="65"/>
-      <c r="B92" s="82"/>
-      <c r="C92" s="82"/>
-      <c r="D92" s="82"/>
-      <c r="E92" s="82"/>
-      <c r="F92" s="82"/>
-      <c r="G92" s="66"/>
-      <c r="H92" s="67"/>
-    </row>
-    <row r="93" spans="1:8">
-      <c r="A93" s="100" t="s">
+      <c r="B93" s="188"/>
+      <c r="C93" s="188"/>
+      <c r="D93" s="188"/>
+      <c r="E93" s="188"/>
+      <c r="F93" s="188"/>
+      <c r="G93" s="188"/>
+      <c r="H93" s="189"/>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="190"/>
+      <c r="C94" s="190"/>
+      <c r="D94" s="190"/>
+      <c r="E94" s="190"/>
+      <c r="F94" s="190"/>
+      <c r="G94" s="190"/>
+      <c r="H94" s="185"/>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B93" s="83"/>
-      <c r="C93" s="83"/>
-      <c r="D93" s="83"/>
-      <c r="E93" s="83"/>
-      <c r="F93" s="66"/>
-      <c r="G93" s="66"/>
-      <c r="H93" s="67"/>
-    </row>
-    <row r="94" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A94" s="84"/>
-      <c r="B94" s="85"/>
-      <c r="C94" s="85"/>
-      <c r="D94" s="85"/>
-      <c r="E94" s="85"/>
-      <c r="F94" s="86"/>
-      <c r="G94" s="86"/>
-      <c r="H94" s="87"/>
-    </row>
-    <row r="95" spans="1:8" ht="18.75">
-      <c r="A95" s="79" t="s">
+      <c r="B95" s="184"/>
+      <c r="C95" s="184"/>
+      <c r="D95" s="184"/>
+      <c r="E95" s="184"/>
+      <c r="F95" s="184"/>
+      <c r="G95" s="184"/>
+      <c r="H95" s="185"/>
+    </row>
+    <row r="96" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A96" s="94"/>
+      <c r="B96" s="186"/>
+      <c r="C96" s="186"/>
+      <c r="D96" s="186"/>
+      <c r="E96" s="186"/>
+      <c r="F96" s="186"/>
+      <c r="G96" s="186"/>
+      <c r="H96" s="187"/>
+    </row>
+    <row r="97" spans="1:8" ht="18.75">
+      <c r="A97" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B95" s="80"/>
-      <c r="C95" s="80"/>
-      <c r="D95" s="80"/>
-      <c r="E95" s="80"/>
-      <c r="F95" s="80"/>
-      <c r="G95" s="80"/>
-      <c r="H95" s="81"/>
-    </row>
-    <row r="96" spans="1:8" ht="18.75">
-      <c r="A96" s="65"/>
-      <c r="B96" s="82"/>
-      <c r="C96" s="82"/>
-      <c r="D96" s="82"/>
-      <c r="E96" s="82"/>
-      <c r="F96" s="82"/>
-      <c r="G96" s="66"/>
-      <c r="H96" s="67"/>
-    </row>
-    <row r="97" spans="1:8">
-      <c r="A97" s="100" t="s">
+      <c r="B97" s="188"/>
+      <c r="C97" s="188"/>
+      <c r="D97" s="188"/>
+      <c r="E97" s="188"/>
+      <c r="F97" s="188"/>
+      <c r="G97" s="188"/>
+      <c r="H97" s="189"/>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B98" s="190"/>
+      <c r="C98" s="190"/>
+      <c r="D98" s="190"/>
+      <c r="E98" s="190"/>
+      <c r="F98" s="190"/>
+      <c r="G98" s="190"/>
+      <c r="H98" s="185"/>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B97" s="83"/>
-      <c r="C97" s="83"/>
-      <c r="D97" s="83"/>
-      <c r="E97" s="83"/>
-      <c r="F97" s="66"/>
-      <c r="G97" s="66"/>
-      <c r="H97" s="67"/>
-    </row>
-    <row r="98" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A98" s="84"/>
-      <c r="B98" s="85"/>
-      <c r="C98" s="85"/>
-      <c r="D98" s="85"/>
-      <c r="E98" s="85"/>
-      <c r="F98" s="86"/>
-      <c r="G98" s="86"/>
-      <c r="H98" s="87"/>
-    </row>
-    <row r="99" spans="1:8" ht="18.75">
-      <c r="A99" s="79" t="s">
+      <c r="B99" s="184"/>
+      <c r="C99" s="184"/>
+      <c r="D99" s="184"/>
+      <c r="E99" s="184"/>
+      <c r="F99" s="184"/>
+      <c r="G99" s="184"/>
+      <c r="H99" s="185"/>
+    </row>
+    <row r="100" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A100" s="94"/>
+      <c r="B100" s="186"/>
+      <c r="C100" s="186"/>
+      <c r="D100" s="186"/>
+      <c r="E100" s="186"/>
+      <c r="F100" s="186"/>
+      <c r="G100" s="186"/>
+      <c r="H100" s="187"/>
+    </row>
+    <row r="101" spans="1:8" ht="18.75">
+      <c r="A101" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B99" s="80"/>
-      <c r="C99" s="80"/>
-      <c r="D99" s="80"/>
-      <c r="E99" s="80"/>
-      <c r="F99" s="80"/>
-      <c r="G99" s="80"/>
-      <c r="H99" s="81"/>
-    </row>
-    <row r="100" spans="1:8" ht="18.75">
-      <c r="A100" s="65"/>
-      <c r="B100" s="82"/>
-      <c r="C100" s="82"/>
-      <c r="D100" s="82"/>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
-      <c r="G100" s="66"/>
-      <c r="H100" s="67"/>
-    </row>
-    <row r="101" spans="1:8">
-      <c r="A101" s="100" t="s">
+      <c r="B101" s="188"/>
+      <c r="C101" s="188"/>
+      <c r="D101" s="188"/>
+      <c r="E101" s="188"/>
+      <c r="F101" s="188"/>
+      <c r="G101" s="188"/>
+      <c r="H101" s="189"/>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B102" s="190"/>
+      <c r="C102" s="190"/>
+      <c r="D102" s="190"/>
+      <c r="E102" s="190"/>
+      <c r="F102" s="190"/>
+      <c r="G102" s="190"/>
+      <c r="H102" s="185"/>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B101" s="83"/>
-      <c r="C101" s="83"/>
-      <c r="D101" s="83"/>
-      <c r="E101" s="83"/>
-      <c r="F101" s="66"/>
-      <c r="G101" s="66"/>
-      <c r="H101" s="67"/>
-    </row>
-    <row r="102" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A102" s="84"/>
-      <c r="B102" s="85"/>
-      <c r="C102" s="85"/>
-      <c r="D102" s="85"/>
-      <c r="E102" s="85"/>
-      <c r="F102" s="86"/>
-      <c r="G102" s="86"/>
-      <c r="H102" s="87"/>
-    </row>
-    <row r="103" spans="1:8" ht="18.75">
-      <c r="A103" s="79" t="s">
+      <c r="B103" s="184"/>
+      <c r="C103" s="184"/>
+      <c r="D103" s="184"/>
+      <c r="E103" s="184"/>
+      <c r="F103" s="184"/>
+      <c r="G103" s="184"/>
+      <c r="H103" s="185"/>
+    </row>
+    <row r="104" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A104" s="94"/>
+      <c r="B104" s="186"/>
+      <c r="C104" s="186"/>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="H104" s="187"/>
+    </row>
+    <row r="105" spans="1:8" ht="18.75">
+      <c r="A105" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B103" s="80"/>
-      <c r="C103" s="80"/>
-      <c r="D103" s="80"/>
-      <c r="E103" s="80"/>
-      <c r="F103" s="80"/>
-      <c r="G103" s="80"/>
-      <c r="H103" s="81"/>
-    </row>
-    <row r="104" spans="1:8" ht="18.75">
-      <c r="A104" s="65"/>
-      <c r="B104" s="82"/>
-      <c r="C104" s="82"/>
-      <c r="D104" s="82"/>
-      <c r="E104" s="82"/>
-      <c r="F104" s="82"/>
-      <c r="G104" s="66"/>
-      <c r="H104" s="67"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="100" t="s">
+      <c r="B105" s="188"/>
+      <c r="C105" s="188"/>
+      <c r="D105" s="188"/>
+      <c r="E105" s="188"/>
+      <c r="F105" s="188"/>
+      <c r="G105" s="188"/>
+      <c r="H105" s="189"/>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B106" s="190"/>
+      <c r="C106" s="190"/>
+      <c r="D106" s="190"/>
+      <c r="E106" s="190"/>
+      <c r="F106" s="190"/>
+      <c r="G106" s="190"/>
+      <c r="H106" s="185"/>
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B105" s="83"/>
-      <c r="C105" s="83"/>
-      <c r="D105" s="83"/>
-      <c r="E105" s="83"/>
-      <c r="F105" s="66"/>
-      <c r="G105" s="66"/>
-      <c r="H105" s="67"/>
-    </row>
-    <row r="106" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A106" s="84"/>
-      <c r="B106" s="85"/>
-      <c r="C106" s="85"/>
-      <c r="D106" s="85"/>
-      <c r="E106" s="85"/>
-      <c r="F106" s="86"/>
-      <c r="G106" s="86"/>
-      <c r="H106" s="87"/>
-    </row>
-    <row r="107" spans="1:8" ht="18.75">
-      <c r="A107" s="79" t="s">
+      <c r="B107" s="184"/>
+      <c r="C107" s="184"/>
+      <c r="D107" s="184"/>
+      <c r="E107" s="184"/>
+      <c r="F107" s="184"/>
+      <c r="G107" s="184"/>
+      <c r="H107" s="185"/>
+    </row>
+    <row r="108" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A108" s="94"/>
+      <c r="B108" s="186"/>
+      <c r="C108" s="186"/>
+      <c r="D108" s="186"/>
+      <c r="E108" s="186"/>
+      <c r="F108" s="186"/>
+      <c r="G108" s="186"/>
+      <c r="H108" s="187"/>
+    </row>
+    <row r="109" spans="1:8" ht="18.75">
+      <c r="A109" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B107" s="80"/>
-      <c r="C107" s="80"/>
-      <c r="D107" s="80"/>
-      <c r="E107" s="80"/>
-      <c r="F107" s="80"/>
-      <c r="G107" s="80"/>
-      <c r="H107" s="81"/>
-    </row>
-    <row r="108" spans="1:8" ht="18.75">
-      <c r="A108" s="65"/>
-      <c r="B108" s="82"/>
-      <c r="C108" s="82"/>
-      <c r="D108" s="82"/>
-      <c r="E108" s="82"/>
-      <c r="F108" s="82"/>
-      <c r="G108" s="66"/>
-      <c r="H108" s="67"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="100" t="s">
+      <c r="B109" s="188"/>
+      <c r="C109" s="188"/>
+      <c r="D109" s="188"/>
+      <c r="E109" s="188"/>
+      <c r="F109" s="188"/>
+      <c r="G109" s="188"/>
+      <c r="H109" s="189"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B110" s="190"/>
+      <c r="C110" s="190"/>
+      <c r="D110" s="190"/>
+      <c r="E110" s="190"/>
+      <c r="F110" s="190"/>
+      <c r="G110" s="190"/>
+      <c r="H110" s="185"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B109" s="83"/>
-      <c r="C109" s="83"/>
-      <c r="D109" s="83"/>
-      <c r="E109" s="83"/>
-      <c r="F109" s="66"/>
-      <c r="G109" s="66"/>
-      <c r="H109" s="67"/>
-    </row>
-    <row r="110" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A110" s="84"/>
-      <c r="B110" s="85"/>
-      <c r="C110" s="85"/>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="86"/>
-      <c r="G110" s="86"/>
-      <c r="H110" s="87"/>
-    </row>
-    <row r="111" spans="1:8" ht="18.75">
-      <c r="A111" s="79" t="s">
+      <c r="B111" s="184"/>
+      <c r="C111" s="184"/>
+      <c r="D111" s="184"/>
+      <c r="E111" s="184"/>
+      <c r="F111" s="184"/>
+      <c r="G111" s="184"/>
+      <c r="H111" s="185"/>
+    </row>
+    <row r="112" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A112" s="94"/>
+      <c r="B112" s="186"/>
+      <c r="C112" s="186"/>
+      <c r="D112" s="186"/>
+      <c r="E112" s="186"/>
+      <c r="F112" s="186"/>
+      <c r="G112" s="186"/>
+      <c r="H112" s="187"/>
+    </row>
+    <row r="113" spans="1:8" ht="18.75">
+      <c r="A113" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B111" s="80"/>
-      <c r="C111" s="80"/>
-      <c r="D111" s="80"/>
-      <c r="E111" s="80"/>
-      <c r="F111" s="80"/>
-      <c r="G111" s="80"/>
-      <c r="H111" s="81"/>
-    </row>
-    <row r="112" spans="1:8" ht="18.75">
-      <c r="A112" s="65"/>
-      <c r="B112" s="82"/>
-      <c r="C112" s="82"/>
-      <c r="D112" s="82"/>
-      <c r="E112" s="82"/>
-      <c r="F112" s="82"/>
-      <c r="G112" s="66"/>
-      <c r="H112" s="67"/>
-    </row>
-    <row r="113" spans="1:8">
-      <c r="A113" s="100" t="s">
+      <c r="B113" s="188"/>
+      <c r="C113" s="188"/>
+      <c r="D113" s="188"/>
+      <c r="E113" s="188"/>
+      <c r="F113" s="188"/>
+      <c r="G113" s="188"/>
+      <c r="H113" s="189"/>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B114" s="190"/>
+      <c r="C114" s="190"/>
+      <c r="D114" s="190"/>
+      <c r="E114" s="190"/>
+      <c r="F114" s="190"/>
+      <c r="G114" s="190"/>
+      <c r="H114" s="185"/>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B113" s="83"/>
-      <c r="C113" s="83"/>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="66"/>
-      <c r="G113" s="66"/>
-      <c r="H113" s="67"/>
-    </row>
-    <row r="114" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A114" s="84"/>
-      <c r="B114" s="85"/>
-      <c r="C114" s="85"/>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="86"/>
-      <c r="G114" s="86"/>
-      <c r="H114" s="87"/>
-    </row>
-    <row r="115" spans="1:8" ht="18.75">
-      <c r="A115" s="79" t="s">
+      <c r="B115" s="184"/>
+      <c r="C115" s="184"/>
+      <c r="D115" s="184"/>
+      <c r="E115" s="184"/>
+      <c r="F115" s="184"/>
+      <c r="G115" s="184"/>
+      <c r="H115" s="185"/>
+    </row>
+    <row r="116" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A116" s="94"/>
+      <c r="B116" s="186"/>
+      <c r="C116" s="186"/>
+      <c r="D116" s="186"/>
+      <c r="E116" s="186"/>
+      <c r="F116" s="186"/>
+      <c r="G116" s="186"/>
+      <c r="H116" s="187"/>
+    </row>
+    <row r="117" spans="1:8" ht="18.75">
+      <c r="A117" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="B115" s="80"/>
-      <c r="C115" s="80"/>
-      <c r="D115" s="80"/>
-      <c r="E115" s="80"/>
-      <c r="F115" s="80"/>
-      <c r="G115" s="80"/>
-      <c r="H115" s="81"/>
-    </row>
-    <row r="116" spans="1:8" ht="18.75">
-      <c r="A116" s="65"/>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="82"/>
-      <c r="G116" s="66"/>
-      <c r="H116" s="67"/>
-    </row>
-    <row r="117" spans="1:8">
-      <c r="A117" s="100" t="s">
+      <c r="B117" s="188"/>
+      <c r="C117" s="188"/>
+      <c r="D117" s="188"/>
+      <c r="E117" s="188"/>
+      <c r="F117" s="188"/>
+      <c r="G117" s="188"/>
+      <c r="H117" s="189"/>
+    </row>
+    <row r="118" spans="1:8">
+      <c r="A118" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B118" s="190"/>
+      <c r="C118" s="190"/>
+      <c r="D118" s="190"/>
+      <c r="E118" s="190"/>
+      <c r="F118" s="190"/>
+      <c r="G118" s="190"/>
+      <c r="H118" s="185"/>
+    </row>
+    <row r="119" spans="1:8">
+      <c r="A119" s="93" t="s">
         <v>84</v>
       </c>
-      <c r="B117" s="83"/>
-      <c r="C117" s="83"/>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="66"/>
-      <c r="G117" s="66"/>
-      <c r="H117" s="67"/>
-    </row>
-    <row r="118" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A118" s="84"/>
-      <c r="B118" s="85"/>
-      <c r="C118" s="85"/>
-      <c r="D118" s="85"/>
-      <c r="E118" s="85"/>
-      <c r="F118" s="86"/>
-      <c r="G118" s="86"/>
-      <c r="H118" s="87"/>
+      <c r="B119" s="184"/>
+      <c r="C119" s="184"/>
+      <c r="D119" s="184"/>
+      <c r="E119" s="184"/>
+      <c r="F119" s="184"/>
+      <c r="G119" s="184"/>
+      <c r="H119" s="185"/>
+    </row>
+    <row r="120" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A120" s="94"/>
+      <c r="B120" s="186"/>
+      <c r="C120" s="186"/>
+      <c r="D120" s="186"/>
+      <c r="E120" s="186"/>
+      <c r="F120" s="186"/>
+      <c r="G120" s="186"/>
+      <c r="H120" s="187"/>
+    </row>
+    <row r="121" spans="1:8" ht="18.75">
+      <c r="A121" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B121" s="188"/>
+      <c r="C121" s="188"/>
+      <c r="D121" s="188"/>
+      <c r="E121" s="188"/>
+      <c r="F121" s="188"/>
+      <c r="G121" s="188"/>
+      <c r="H121" s="189"/>
+    </row>
+    <row r="122" spans="1:8">
+      <c r="A122" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B122" s="190"/>
+      <c r="C122" s="190"/>
+      <c r="D122" s="190"/>
+      <c r="E122" s="190"/>
+      <c r="F122" s="190"/>
+      <c r="G122" s="190"/>
+      <c r="H122" s="185"/>
+    </row>
+    <row r="123" spans="1:8">
+      <c r="A123" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B123" s="184"/>
+      <c r="C123" s="184"/>
+      <c r="D123" s="184"/>
+      <c r="E123" s="184"/>
+      <c r="F123" s="184"/>
+      <c r="G123" s="184"/>
+      <c r="H123" s="185"/>
+    </row>
+    <row r="124" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A124" s="94"/>
+      <c r="B124" s="186"/>
+      <c r="C124" s="186"/>
+      <c r="D124" s="186"/>
+      <c r="E124" s="186"/>
+      <c r="F124" s="186"/>
+      <c r="G124" s="186"/>
+      <c r="H124" s="187"/>
+    </row>
+    <row r="125" spans="1:8" ht="18.75">
+      <c r="A125" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B125" s="188"/>
+      <c r="C125" s="188"/>
+      <c r="D125" s="188"/>
+      <c r="E125" s="188"/>
+      <c r="F125" s="188"/>
+      <c r="G125" s="188"/>
+      <c r="H125" s="189"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B126" s="190"/>
+      <c r="C126" s="190"/>
+      <c r="D126" s="190"/>
+      <c r="E126" s="190"/>
+      <c r="F126" s="190"/>
+      <c r="G126" s="190"/>
+      <c r="H126" s="185"/>
+    </row>
+    <row r="127" spans="1:8">
+      <c r="A127" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B127" s="184"/>
+      <c r="C127" s="184"/>
+      <c r="D127" s="184"/>
+      <c r="E127" s="184"/>
+      <c r="F127" s="184"/>
+      <c r="G127" s="184"/>
+      <c r="H127" s="185"/>
+    </row>
+    <row r="128" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A128" s="94"/>
+      <c r="B128" s="186"/>
+      <c r="C128" s="186"/>
+      <c r="D128" s="186"/>
+      <c r="E128" s="186"/>
+      <c r="F128" s="186"/>
+      <c r="G128" s="186"/>
+      <c r="H128" s="187"/>
+    </row>
+    <row r="129" spans="1:8" ht="18.75">
+      <c r="A129" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B129" s="188"/>
+      <c r="C129" s="188"/>
+      <c r="D129" s="188"/>
+      <c r="E129" s="188"/>
+      <c r="F129" s="188"/>
+      <c r="G129" s="188"/>
+      <c r="H129" s="189"/>
+    </row>
+    <row r="130" spans="1:8">
+      <c r="A130" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" s="190"/>
+      <c r="C130" s="190"/>
+      <c r="D130" s="190"/>
+      <c r="E130" s="190"/>
+      <c r="F130" s="190"/>
+      <c r="G130" s="190"/>
+      <c r="H130" s="185"/>
+    </row>
+    <row r="131" spans="1:8">
+      <c r="A131" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B131" s="184"/>
+      <c r="C131" s="184"/>
+      <c r="D131" s="184"/>
+      <c r="E131" s="184"/>
+      <c r="F131" s="184"/>
+      <c r="G131" s="184"/>
+      <c r="H131" s="185"/>
+    </row>
+    <row r="132" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A132" s="94"/>
+      <c r="B132" s="186"/>
+      <c r="C132" s="186"/>
+      <c r="D132" s="186"/>
+      <c r="E132" s="186"/>
+      <c r="F132" s="186"/>
+      <c r="G132" s="186"/>
+      <c r="H132" s="187"/>
+    </row>
+    <row r="133" spans="1:8" ht="18.75">
+      <c r="A133" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B133" s="188"/>
+      <c r="C133" s="188"/>
+      <c r="D133" s="188"/>
+      <c r="E133" s="188"/>
+      <c r="F133" s="188"/>
+      <c r="G133" s="188"/>
+      <c r="H133" s="189"/>
+    </row>
+    <row r="134" spans="1:8">
+      <c r="A134" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B134" s="190"/>
+      <c r="C134" s="190"/>
+      <c r="D134" s="190"/>
+      <c r="E134" s="190"/>
+      <c r="F134" s="190"/>
+      <c r="G134" s="190"/>
+      <c r="H134" s="185"/>
+    </row>
+    <row r="135" spans="1:8">
+      <c r="A135" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B135" s="184"/>
+      <c r="C135" s="184"/>
+      <c r="D135" s="184"/>
+      <c r="E135" s="184"/>
+      <c r="F135" s="184"/>
+      <c r="G135" s="184"/>
+      <c r="H135" s="185"/>
+    </row>
+    <row r="136" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A136" s="94"/>
+      <c r="B136" s="186"/>
+      <c r="C136" s="186"/>
+      <c r="D136" s="186"/>
+      <c r="E136" s="186"/>
+      <c r="F136" s="186"/>
+      <c r="G136" s="186"/>
+      <c r="H136" s="187"/>
+    </row>
+    <row r="137" spans="1:8" ht="18.75">
+      <c r="A137" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B137" s="188"/>
+      <c r="C137" s="188"/>
+      <c r="D137" s="188"/>
+      <c r="E137" s="188"/>
+      <c r="F137" s="188"/>
+      <c r="G137" s="188"/>
+      <c r="H137" s="189"/>
+    </row>
+    <row r="138" spans="1:8">
+      <c r="A138" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B138" s="190"/>
+      <c r="C138" s="190"/>
+      <c r="D138" s="190"/>
+      <c r="E138" s="190"/>
+      <c r="F138" s="190"/>
+      <c r="G138" s="190"/>
+      <c r="H138" s="185"/>
+    </row>
+    <row r="139" spans="1:8">
+      <c r="A139" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B139" s="184"/>
+      <c r="C139" s="184"/>
+      <c r="D139" s="184"/>
+      <c r="E139" s="184"/>
+      <c r="F139" s="184"/>
+      <c r="G139" s="184"/>
+      <c r="H139" s="185"/>
+    </row>
+    <row r="140" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A140" s="94"/>
+      <c r="B140" s="186"/>
+      <c r="C140" s="186"/>
+      <c r="D140" s="186"/>
+      <c r="E140" s="186"/>
+      <c r="F140" s="186"/>
+      <c r="G140" s="186"/>
+      <c r="H140" s="187"/>
+    </row>
+    <row r="141" spans="1:8" ht="18.75">
+      <c r="A141" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B141" s="188"/>
+      <c r="C141" s="188"/>
+      <c r="D141" s="188"/>
+      <c r="E141" s="188"/>
+      <c r="F141" s="188"/>
+      <c r="G141" s="188"/>
+      <c r="H141" s="189"/>
+    </row>
+    <row r="142" spans="1:8">
+      <c r="A142" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B142" s="190"/>
+      <c r="C142" s="190"/>
+      <c r="D142" s="190"/>
+      <c r="E142" s="190"/>
+      <c r="F142" s="190"/>
+      <c r="G142" s="190"/>
+      <c r="H142" s="185"/>
+    </row>
+    <row r="143" spans="1:8">
+      <c r="A143" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B143" s="184"/>
+      <c r="C143" s="184"/>
+      <c r="D143" s="184"/>
+      <c r="E143" s="184"/>
+      <c r="F143" s="184"/>
+      <c r="G143" s="184"/>
+      <c r="H143" s="185"/>
+    </row>
+    <row r="144" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A144" s="94"/>
+      <c r="B144" s="186"/>
+      <c r="C144" s="186"/>
+      <c r="D144" s="186"/>
+      <c r="E144" s="186"/>
+      <c r="F144" s="186"/>
+      <c r="G144" s="186"/>
+      <c r="H144" s="187"/>
+    </row>
+    <row r="145" spans="1:8" ht="18.75">
+      <c r="A145" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B145" s="188"/>
+      <c r="C145" s="188"/>
+      <c r="D145" s="188"/>
+      <c r="E145" s="188"/>
+      <c r="F145" s="188"/>
+      <c r="G145" s="188"/>
+      <c r="H145" s="189"/>
+    </row>
+    <row r="146" spans="1:8">
+      <c r="A146" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B146" s="190"/>
+      <c r="C146" s="190"/>
+      <c r="D146" s="190"/>
+      <c r="E146" s="190"/>
+      <c r="F146" s="190"/>
+      <c r="G146" s="190"/>
+      <c r="H146" s="185"/>
+    </row>
+    <row r="147" spans="1:8">
+      <c r="A147" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B147" s="184"/>
+      <c r="C147" s="184"/>
+      <c r="D147" s="184"/>
+      <c r="E147" s="184"/>
+      <c r="F147" s="184"/>
+      <c r="G147" s="184"/>
+      <c r="H147" s="185"/>
+    </row>
+    <row r="148" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A148" s="94"/>
+      <c r="B148" s="186"/>
+      <c r="C148" s="186"/>
+      <c r="D148" s="186"/>
+      <c r="E148" s="186"/>
+      <c r="F148" s="186"/>
+      <c r="G148" s="186"/>
+      <c r="H148" s="187"/>
+    </row>
+    <row r="149" spans="1:8" ht="18.75">
+      <c r="A149" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B149" s="188"/>
+      <c r="C149" s="188"/>
+      <c r="D149" s="188"/>
+      <c r="E149" s="188"/>
+      <c r="F149" s="188"/>
+      <c r="G149" s="188"/>
+      <c r="H149" s="189"/>
+    </row>
+    <row r="150" spans="1:8">
+      <c r="A150" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B150" s="190"/>
+      <c r="C150" s="190"/>
+      <c r="D150" s="190"/>
+      <c r="E150" s="190"/>
+      <c r="F150" s="190"/>
+      <c r="G150" s="190"/>
+      <c r="H150" s="185"/>
+    </row>
+    <row r="151" spans="1:8">
+      <c r="A151" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B151" s="184"/>
+      <c r="C151" s="184"/>
+      <c r="D151" s="184"/>
+      <c r="E151" s="184"/>
+      <c r="F151" s="184"/>
+      <c r="G151" s="184"/>
+      <c r="H151" s="185"/>
+    </row>
+    <row r="152" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A152" s="94"/>
+      <c r="B152" s="186"/>
+      <c r="C152" s="186"/>
+      <c r="D152" s="186"/>
+      <c r="E152" s="186"/>
+      <c r="F152" s="186"/>
+      <c r="G152" s="186"/>
+      <c r="H152" s="187"/>
+    </row>
+    <row r="153" spans="1:8" ht="18.75">
+      <c r="A153" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B153" s="188"/>
+      <c r="C153" s="188"/>
+      <c r="D153" s="188"/>
+      <c r="E153" s="188"/>
+      <c r="F153" s="188"/>
+      <c r="G153" s="188"/>
+      <c r="H153" s="189"/>
+    </row>
+    <row r="154" spans="1:8">
+      <c r="A154" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B154" s="190"/>
+      <c r="C154" s="190"/>
+      <c r="D154" s="190"/>
+      <c r="E154" s="190"/>
+      <c r="F154" s="190"/>
+      <c r="G154" s="190"/>
+      <c r="H154" s="185"/>
+    </row>
+    <row r="155" spans="1:8">
+      <c r="A155" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B155" s="184"/>
+      <c r="C155" s="184"/>
+      <c r="D155" s="184"/>
+      <c r="E155" s="184"/>
+      <c r="F155" s="184"/>
+      <c r="G155" s="184"/>
+      <c r="H155" s="185"/>
+    </row>
+    <row r="156" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A156" s="94"/>
+      <c r="B156" s="186"/>
+      <c r="C156" s="186"/>
+      <c r="D156" s="186"/>
+      <c r="E156" s="186"/>
+      <c r="F156" s="186"/>
+      <c r="G156" s="186"/>
+      <c r="H156" s="187"/>
+    </row>
+    <row r="157" spans="1:8" ht="18.75">
+      <c r="A157" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B157" s="188"/>
+      <c r="C157" s="188"/>
+      <c r="D157" s="188"/>
+      <c r="E157" s="188"/>
+      <c r="F157" s="188"/>
+      <c r="G157" s="188"/>
+      <c r="H157" s="189"/>
+    </row>
+    <row r="158" spans="1:8">
+      <c r="A158" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B158" s="190"/>
+      <c r="C158" s="190"/>
+      <c r="D158" s="190"/>
+      <c r="E158" s="190"/>
+      <c r="F158" s="190"/>
+      <c r="G158" s="190"/>
+      <c r="H158" s="185"/>
+    </row>
+    <row r="159" spans="1:8">
+      <c r="A159" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B159" s="184"/>
+      <c r="C159" s="184"/>
+      <c r="D159" s="184"/>
+      <c r="E159" s="184"/>
+      <c r="F159" s="184"/>
+      <c r="G159" s="184"/>
+      <c r="H159" s="185"/>
+    </row>
+    <row r="160" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A160" s="94"/>
+      <c r="B160" s="186"/>
+      <c r="C160" s="186"/>
+      <c r="D160" s="186"/>
+      <c r="E160" s="186"/>
+      <c r="F160" s="186"/>
+      <c r="G160" s="186"/>
+      <c r="H160" s="187"/>
+    </row>
+    <row r="161" spans="1:8" ht="18.75">
+      <c r="A161" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B161" s="188"/>
+      <c r="C161" s="188"/>
+      <c r="D161" s="188"/>
+      <c r="E161" s="188"/>
+      <c r="F161" s="188"/>
+      <c r="G161" s="188"/>
+      <c r="H161" s="189"/>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B162" s="190"/>
+      <c r="C162" s="190"/>
+      <c r="D162" s="190"/>
+      <c r="E162" s="190"/>
+      <c r="F162" s="190"/>
+      <c r="G162" s="190"/>
+      <c r="H162" s="185"/>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="A163" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B163" s="184"/>
+      <c r="C163" s="184"/>
+      <c r="D163" s="184"/>
+      <c r="E163" s="184"/>
+      <c r="F163" s="184"/>
+      <c r="G163" s="184"/>
+      <c r="H163" s="185"/>
+    </row>
+    <row r="164" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A164" s="94"/>
+      <c r="B164" s="186"/>
+      <c r="C164" s="186"/>
+      <c r="D164" s="186"/>
+      <c r="E164" s="186"/>
+      <c r="F164" s="186"/>
+      <c r="G164" s="186"/>
+      <c r="H164" s="187"/>
+    </row>
+    <row r="165" spans="1:8" ht="18.75">
+      <c r="A165" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B165" s="188"/>
+      <c r="C165" s="188"/>
+      <c r="D165" s="188"/>
+      <c r="E165" s="188"/>
+      <c r="F165" s="188"/>
+      <c r="G165" s="188"/>
+      <c r="H165" s="189"/>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="A166" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B166" s="190"/>
+      <c r="C166" s="190"/>
+      <c r="D166" s="190"/>
+      <c r="E166" s="190"/>
+      <c r="F166" s="190"/>
+      <c r="G166" s="190"/>
+      <c r="H166" s="185"/>
+    </row>
+    <row r="167" spans="1:8">
+      <c r="A167" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B167" s="184"/>
+      <c r="C167" s="184"/>
+      <c r="D167" s="184"/>
+      <c r="E167" s="184"/>
+      <c r="F167" s="184"/>
+      <c r="G167" s="184"/>
+      <c r="H167" s="185"/>
+    </row>
+    <row r="168" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A168" s="94"/>
+      <c r="B168" s="186"/>
+      <c r="C168" s="186"/>
+      <c r="D168" s="186"/>
+      <c r="E168" s="186"/>
+      <c r="F168" s="186"/>
+      <c r="G168" s="186"/>
+      <c r="H168" s="187"/>
+    </row>
+    <row r="169" spans="1:8" ht="18.75">
+      <c r="A169" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" s="188"/>
+      <c r="C169" s="188"/>
+      <c r="D169" s="188"/>
+      <c r="E169" s="188"/>
+      <c r="F169" s="188"/>
+      <c r="G169" s="188"/>
+      <c r="H169" s="189"/>
+    </row>
+    <row r="170" spans="1:8">
+      <c r="A170" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B170" s="190"/>
+      <c r="C170" s="190"/>
+      <c r="D170" s="190"/>
+      <c r="E170" s="190"/>
+      <c r="F170" s="190"/>
+      <c r="G170" s="190"/>
+      <c r="H170" s="185"/>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B171" s="184"/>
+      <c r="C171" s="184"/>
+      <c r="D171" s="184"/>
+      <c r="E171" s="184"/>
+      <c r="F171" s="184"/>
+      <c r="G171" s="184"/>
+      <c r="H171" s="185"/>
+    </row>
+    <row r="172" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A172" s="94"/>
+      <c r="B172" s="186"/>
+      <c r="C172" s="186"/>
+      <c r="D172" s="186"/>
+      <c r="E172" s="186"/>
+      <c r="F172" s="186"/>
+      <c r="G172" s="186"/>
+      <c r="H172" s="187"/>
+    </row>
+    <row r="173" spans="1:8" ht="18.75">
+      <c r="A173" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B173" s="188"/>
+      <c r="C173" s="188"/>
+      <c r="D173" s="188"/>
+      <c r="E173" s="188"/>
+      <c r="F173" s="188"/>
+      <c r="G173" s="188"/>
+      <c r="H173" s="189"/>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B174" s="190"/>
+      <c r="C174" s="190"/>
+      <c r="D174" s="190"/>
+      <c r="E174" s="190"/>
+      <c r="F174" s="190"/>
+      <c r="G174" s="190"/>
+      <c r="H174" s="185"/>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="A175" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B175" s="184"/>
+      <c r="C175" s="184"/>
+      <c r="D175" s="184"/>
+      <c r="E175" s="184"/>
+      <c r="F175" s="184"/>
+      <c r="G175" s="184"/>
+      <c r="H175" s="185"/>
+    </row>
+    <row r="176" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A176" s="94"/>
+      <c r="B176" s="186"/>
+      <c r="C176" s="186"/>
+      <c r="D176" s="186"/>
+      <c r="E176" s="186"/>
+      <c r="F176" s="186"/>
+      <c r="G176" s="186"/>
+      <c r="H176" s="187"/>
+    </row>
+    <row r="177" spans="1:8" ht="18.75">
+      <c r="A177" s="75" t="s">
+        <v>58</v>
+      </c>
+      <c r="B177" s="188"/>
+      <c r="C177" s="188"/>
+      <c r="D177" s="188"/>
+      <c r="E177" s="188"/>
+      <c r="F177" s="188"/>
+      <c r="G177" s="188"/>
+      <c r="H177" s="189"/>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="A178" s="183" t="s">
+        <v>102</v>
+      </c>
+      <c r="B178" s="190"/>
+      <c r="C178" s="190"/>
+      <c r="D178" s="190"/>
+      <c r="E178" s="190"/>
+      <c r="F178" s="190"/>
+      <c r="G178" s="190"/>
+      <c r="H178" s="185"/>
+    </row>
+    <row r="179" spans="1:8">
+      <c r="A179" s="93" t="s">
+        <v>84</v>
+      </c>
+      <c r="B179" s="184"/>
+      <c r="C179" s="184"/>
+      <c r="D179" s="184"/>
+      <c r="E179" s="184"/>
+      <c r="F179" s="184"/>
+      <c r="G179" s="184"/>
+      <c r="H179" s="185"/>
+    </row>
+    <row r="180" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A180" s="94"/>
+      <c r="B180" s="186"/>
+      <c r="C180" s="186"/>
+      <c r="D180" s="186"/>
+      <c r="E180" s="186"/>
+      <c r="F180" s="186"/>
+      <c r="G180" s="186"/>
+      <c r="H180" s="187"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="3">
     <mergeCell ref="A1:C2"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="B9:H9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.27500000000000002" header="0.25" footer="0.25"/>
   <pageSetup scale="70" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
+  <rowBreaks count="2" manualBreakCount="2">
+    <brk id="56" max="16383" man="1"/>
+    <brk id="116" max="16383" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7836698A-9EFB-4967-B42F-DBF45A8C1F8A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -25243,595 +26120,595 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="57" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.5703125" style="97" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.5703125" style="97" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="3.5703125" style="57" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.7109375" style="57" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="2.42578125" style="57" customWidth="1"/>
-    <col min="10" max="10" width="2.7109375" style="57" customWidth="1"/>
-    <col min="11" max="13" width="16.7109375" style="57" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="57"/>
+    <col min="1" max="1" width="27.42578125" style="56" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.5703125" style="90" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="3.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.7109375" style="56" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="56" customWidth="1"/>
+    <col min="10" max="10" width="2.7109375" style="56" customWidth="1"/>
+    <col min="11" max="13" width="16.7109375" style="56" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="56"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="4.5" customHeight="1">
-      <c r="A1" s="66"/>
-      <c r="B1" s="66"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="109"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="66"/>
+      <c r="A1" s="65"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="102"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" thickBot="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="I2" s="86"/>
+      <c r="B2" s="79"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
     </row>
     <row r="3" spans="1:9" ht="23.25">
-      <c r="A3" s="99" t="s">
+      <c r="A3" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="81"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="83"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="77"/>
     </row>
     <row r="4" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A4" s="108"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="66"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="67"/>
+      <c r="A4" s="101"/>
+      <c r="B4" s="84"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="65"/>
+      <c r="I4" s="66"/>
     </row>
     <row r="5" spans="1:9" ht="18.75">
-      <c r="A5" s="65" t="s">
+      <c r="A5" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="107" t="s">
+      <c r="B5" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="95"/>
-      <c r="D5" s="91"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="91"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="91"/>
-      <c r="I5" s="67"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="66"/>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="100" t="s">
+      <c r="A6" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="91" t="s">
+      <c r="B6" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="91" t="s">
+      <c r="D6" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="102" t="s">
+      <c r="E6" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F6" s="91" t="s">
+      <c r="F6" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G6" s="104" t="s">
+      <c r="G6" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H6" s="91" t="s">
+      <c r="H6" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I6" s="67"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A7" s="101" t="s">
+      <c r="A7" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="105" t="s">
+      <c r="D7" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="103" t="s">
+      <c r="E7" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="105" t="s">
+      <c r="F7" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G7" s="92"/>
-      <c r="H7" s="98"/>
-      <c r="I7" s="87"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="91"/>
+      <c r="I7" s="80"/>
     </row>
     <row r="8" spans="1:9" ht="23.25">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B8" s="90"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="81"/>
+      <c r="B8" s="83"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="87"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="83"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="77"/>
     </row>
     <row r="9" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A9" s="108"/>
-      <c r="B9" s="91"/>
-      <c r="C9" s="96"/>
-      <c r="D9" s="66"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="66"/>
-      <c r="G9" s="91"/>
-      <c r="H9" s="66"/>
-      <c r="I9" s="67"/>
+      <c r="A9" s="101"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="89"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="65"/>
+      <c r="G9" s="84"/>
+      <c r="H9" s="65"/>
+      <c r="I9" s="66"/>
     </row>
     <row r="10" spans="1:9" ht="18.75">
-      <c r="A10" s="65" t="s">
+      <c r="A10" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B10" s="107" t="s">
+      <c r="B10" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="95"/>
-      <c r="D10" s="91"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="91"/>
-      <c r="G10" s="82"/>
-      <c r="H10" s="91"/>
-      <c r="I10" s="67"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="84"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="78"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="66"/>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="100" t="s">
+      <c r="A11" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="102" t="s">
+      <c r="C11" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D11" s="91" t="s">
+      <c r="D11" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="102" t="s">
+      <c r="E11" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G11" s="104" t="s">
+      <c r="G11" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H11" s="91" t="s">
+      <c r="H11" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I11" s="67"/>
+      <c r="I11" s="66"/>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="92" t="s">
+      <c r="B12" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="103" t="s">
+      <c r="C12" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D12" s="105" t="s">
+      <c r="D12" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E12" s="103" t="s">
+      <c r="E12" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F12" s="105" t="s">
+      <c r="F12" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="92"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="87"/>
+      <c r="G12" s="85"/>
+      <c r="H12" s="91"/>
+      <c r="I12" s="80"/>
     </row>
     <row r="13" spans="1:9" ht="23.25">
-      <c r="A13" s="99" t="s">
+      <c r="A13" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B13" s="90"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="80"/>
-      <c r="G13" s="90"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="81"/>
+      <c r="B13" s="83"/>
+      <c r="C13" s="87"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="83"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="77"/>
     </row>
     <row r="14" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A14" s="108"/>
-      <c r="B14" s="91"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="96"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="66"/>
-      <c r="I14" s="67"/>
+      <c r="A14" s="101"/>
+      <c r="B14" s="84"/>
+      <c r="C14" s="89"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="84"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="66"/>
     </row>
     <row r="15" spans="1:9" ht="18.75">
-      <c r="A15" s="65" t="s">
+      <c r="A15" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="107" t="s">
+      <c r="B15" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C15" s="95"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="82"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="67"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="88"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="84"/>
+      <c r="I15" s="66"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="100" t="s">
+      <c r="A16" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B16" s="91" t="s">
+      <c r="B16" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="102" t="s">
+      <c r="C16" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E16" s="102" t="s">
+      <c r="E16" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G16" s="104" t="s">
+      <c r="G16" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="67"/>
+      <c r="I16" s="66"/>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A17" s="101" t="s">
+      <c r="A17" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B17" s="92" t="s">
+      <c r="B17" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="103" t="s">
+      <c r="C17" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D17" s="105" t="s">
+      <c r="D17" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E17" s="103" t="s">
+      <c r="E17" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F17" s="105" t="s">
+      <c r="F17" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G17" s="92"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="87"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="91"/>
+      <c r="I17" s="80"/>
     </row>
     <row r="18" spans="1:9" ht="23.25">
-      <c r="A18" s="99" t="s">
+      <c r="A18" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B18" s="90"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="81"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="83"/>
+      <c r="H18" s="76"/>
+      <c r="I18" s="77"/>
     </row>
     <row r="19" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A19" s="108"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="96"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="91"/>
-      <c r="H19" s="66"/>
-      <c r="I19" s="67"/>
+      <c r="A19" s="101"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="84"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="66"/>
     </row>
     <row r="20" spans="1:9" ht="18.75">
-      <c r="A20" s="65" t="s">
+      <c r="A20" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B20" s="107" t="s">
+      <c r="B20" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C20" s="95"/>
-      <c r="D20" s="91"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="82"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="67"/>
+      <c r="C20" s="88"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="78"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="66"/>
     </row>
     <row r="21" spans="1:9">
-      <c r="A21" s="100" t="s">
+      <c r="A21" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="102" t="s">
+      <c r="C21" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D21" s="91" t="s">
+      <c r="D21" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E21" s="102" t="s">
+      <c r="E21" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F21" s="91" t="s">
+      <c r="F21" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G21" s="104" t="s">
+      <c r="G21" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H21" s="91" t="s">
+      <c r="H21" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I21" s="67"/>
+      <c r="I21" s="66"/>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A22" s="101" t="s">
+      <c r="A22" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="103" t="s">
+      <c r="C22" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E22" s="103" t="s">
+      <c r="E22" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F22" s="105" t="s">
+      <c r="F22" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G22" s="92"/>
-      <c r="H22" s="98"/>
-      <c r="I22" s="87"/>
+      <c r="G22" s="85"/>
+      <c r="H22" s="91"/>
+      <c r="I22" s="80"/>
     </row>
     <row r="23" spans="1:9" ht="23.25">
-      <c r="A23" s="99" t="s">
+      <c r="A23" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B23" s="90"/>
-      <c r="C23" s="94"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="94"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="90"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="81"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="77"/>
     </row>
     <row r="24" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A24" s="108"/>
-      <c r="B24" s="91"/>
-      <c r="C24" s="96"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="96"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="91"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="67"/>
+      <c r="A24" s="101"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="84"/>
+      <c r="H24" s="65"/>
+      <c r="I24" s="66"/>
     </row>
     <row r="25" spans="1:9" ht="18.75">
-      <c r="A25" s="65" t="s">
+      <c r="A25" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="107" t="s">
+      <c r="B25" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C25" s="95"/>
-      <c r="D25" s="91"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="91"/>
-      <c r="G25" s="82"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="67"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="78"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="66"/>
     </row>
     <row r="26" spans="1:9">
-      <c r="A26" s="100" t="s">
+      <c r="A26" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B26" s="91" t="s">
+      <c r="B26" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D26" s="91" t="s">
+      <c r="D26" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E26" s="102" t="s">
+      <c r="E26" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F26" s="91" t="s">
+      <c r="F26" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G26" s="104" t="s">
+      <c r="G26" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H26" s="91" t="s">
+      <c r="H26" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I26" s="67"/>
+      <c r="I26" s="66"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A27" s="101" t="s">
+      <c r="A27" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="103" t="s">
+      <c r="C27" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D27" s="105" t="s">
+      <c r="D27" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E27" s="103" t="s">
+      <c r="E27" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F27" s="105" t="s">
+      <c r="F27" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G27" s="92"/>
-      <c r="H27" s="98"/>
-      <c r="I27" s="87"/>
+      <c r="G27" s="85"/>
+      <c r="H27" s="91"/>
+      <c r="I27" s="80"/>
     </row>
     <row r="28" spans="1:9" ht="23.25">
-      <c r="A28" s="99" t="s">
+      <c r="A28" s="92" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="90"/>
-      <c r="C28" s="94"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="94"/>
-      <c r="F28" s="80"/>
-      <c r="G28" s="90"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="81"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="87"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="87"/>
+      <c r="F28" s="76"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="76"/>
+      <c r="I28" s="77"/>
     </row>
     <row r="29" spans="1:9" ht="12.75" customHeight="1">
-      <c r="A29" s="108"/>
-      <c r="B29" s="91"/>
-      <c r="C29" s="96"/>
-      <c r="D29" s="66"/>
-      <c r="E29" s="96"/>
-      <c r="F29" s="66"/>
-      <c r="G29" s="91"/>
-      <c r="H29" s="66"/>
-      <c r="I29" s="67"/>
+      <c r="A29" s="101"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="89"/>
+      <c r="F29" s="65"/>
+      <c r="G29" s="84"/>
+      <c r="H29" s="65"/>
+      <c r="I29" s="66"/>
     </row>
     <row r="30" spans="1:9" ht="18.75">
-      <c r="A30" s="65" t="s">
+      <c r="A30" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="107" t="s">
+      <c r="B30" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C30" s="95"/>
-      <c r="D30" s="91"/>
-      <c r="E30" s="95"/>
-      <c r="F30" s="91"/>
-      <c r="G30" s="82"/>
-      <c r="H30" s="91"/>
-      <c r="I30" s="67"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="88"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="78"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="66"/>
     </row>
     <row r="31" spans="1:9">
-      <c r="A31" s="100" t="s">
+      <c r="A31" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="91" t="s">
+      <c r="B31" s="84" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="102" t="s">
+      <c r="C31" s="95" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="91" t="s">
+      <c r="D31" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="E31" s="102" t="s">
+      <c r="E31" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="F31" s="91" t="s">
+      <c r="F31" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="G31" s="104" t="s">
+      <c r="G31" s="97" t="s">
         <v>77</v>
       </c>
-      <c r="H31" s="91" t="s">
+      <c r="H31" s="84" t="s">
         <v>78</v>
       </c>
-      <c r="I31" s="67"/>
+      <c r="I31" s="66"/>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1">
-      <c r="A32" s="101" t="s">
+      <c r="A32" s="94" t="s">
         <v>74</v>
       </c>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="85" t="s">
         <v>59</v>
       </c>
-      <c r="C32" s="103" t="s">
+      <c r="C32" s="96" t="s">
         <v>80</v>
       </c>
-      <c r="D32" s="105" t="s">
+      <c r="D32" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="E32" s="103" t="s">
+      <c r="E32" s="96" t="s">
         <v>81</v>
       </c>
-      <c r="F32" s="105" t="s">
+      <c r="F32" s="98" t="s">
         <v>79</v>
       </c>
-      <c r="G32" s="92"/>
-      <c r="H32" s="98"/>
-      <c r="I32" s="87"/>
+      <c r="G32" s="85"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="80"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D7" r:id="rId1" xr:uid="{AB522AE4-67B3-45BF-BB00-39FF37651C4F}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{5014358D-BF5C-4C7E-8F53-02EA06CE907B}"/>
-    <hyperlink ref="D12" r:id="rId3" xr:uid="{AC23D0C7-9BAE-4489-8120-4D0B06986C09}"/>
-    <hyperlink ref="F12" r:id="rId4" xr:uid="{0E9E2539-DBC5-413D-9164-D4EAFF0CD006}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{54CB7248-E95A-4525-8993-DC0D7DDF685C}"/>
-    <hyperlink ref="F17" r:id="rId6" xr:uid="{D5356539-8E5E-4C4F-9E87-10883B8EC879}"/>
-    <hyperlink ref="D22" r:id="rId7" xr:uid="{967918F8-8366-4EF5-A7D8-4675479169DD}"/>
-    <hyperlink ref="F22" r:id="rId8" xr:uid="{D1DC00F2-DABE-49EA-A728-08D90F066A38}"/>
-    <hyperlink ref="D27" r:id="rId9" xr:uid="{E0334D82-E7CF-4AA1-ACC4-23A9882D3CB0}"/>
-    <hyperlink ref="F27" r:id="rId10" xr:uid="{FD448D25-490F-4085-A3D8-A7787A12529C}"/>
-    <hyperlink ref="D32" r:id="rId11" xr:uid="{C94C9614-9851-4979-A4B5-E729338DB490}"/>
-    <hyperlink ref="F32" r:id="rId12" xr:uid="{BE8C2D10-239B-4816-8964-768369894754}"/>
+    <hyperlink ref="D7" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D12" r:id="rId3" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="F17" r:id="rId6" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D22" r:id="rId7" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="F22" r:id="rId8" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="D27" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
+    <hyperlink ref="F27" r:id="rId10" xr:uid="{00000000-0004-0000-0400-000009000000}"/>
+    <hyperlink ref="D32" r:id="rId11" xr:uid="{00000000-0004-0000-0400-00000A000000}"/>
+    <hyperlink ref="F32" r:id="rId12" xr:uid="{00000000-0004-0000-0400-00000B000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.2" right="0.2" top="0.75" bottom="0.27500000000000002" header="0.25" footer="0.25"/>
-  <pageSetup scale="69" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId13"/>
+  <pageSetup scale="70" fitToHeight="0" orientation="portrait" cellComments="asDisplayed" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId13"/>
 </worksheet>
 </file>